--- a/data/hotels_by_city/Houston/Houston_shard_548.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_548.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="524">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56707-d224129-Reviews-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
   </si>
   <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Residence-Inn-By-Marriott-Houston-Sugar-Land.h64193.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1458 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r553801717-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>56707</t>
+  </si>
+  <si>
+    <t>224129</t>
+  </si>
+  <si>
+    <t>553801717</t>
+  </si>
+  <si>
+    <t>01/14/2018</t>
+  </si>
+  <si>
+    <t>Cold, Moldy Breakfast - Ran Out of Food at Night - No Free USA Today</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel 1/8-11/18. I've stayed at this hotel about once per year for the past several years. Things have gone completely downhill. The old manager was great. Is there even a manager there now? The reason I ask is that the 'Manager on Duty' sign was blank the whole time I was there. Of minor concern is that the chairs in the dining area are all ripped up and shabby. That's not like Residence Inn. Another minor concern is that they stopped handing out free USA Today. My biggest concern, and this is a deal-killer for me, is with the food. I ate breakfast there every morning, and it was always cold. On Tuesday, they ran out of meat and eggs and told me it would 'be a while.' That evening, I went down there for the evening meal 20 minutes before they were supposed to stop serving dinner, and they were out of food. I went down there on Tuesday night 40 minutes before they were supposed to stop serving, and everything was already all put away and cleaned up because, once again, they ran out of food. This means that they ran out of food 45 minutes into a promised 90 minute time they were supposed to serve food. Furthermore, they only serve food in the evenings Mon-Wed. Every other Residence Inn I've ever stayed at served food on Thursday night at well. The last...I stayed at this hotel 1/8-11/18. I've stayed at this hotel about once per year for the past several years. Things have gone completely downhill. The old manager was great. Is there even a manager there now? The reason I ask is that the 'Manager on Duty' sign was blank the whole time I was there. Of minor concern is that the chairs in the dining area are all ripped up and shabby. That's not like Residence Inn. Another minor concern is that they stopped handing out free USA Today. My biggest concern, and this is a deal-killer for me, is with the food. I ate breakfast there every morning, and it was always cold. On Tuesday, they ran out of meat and eggs and told me it would 'be a while.' That evening, I went down there for the evening meal 20 minutes before they were supposed to stop serving dinner, and they were out of food. I went down there on Tuesday night 40 minutes before they were supposed to stop serving, and everything was already all put away and cleaned up because, once again, they ran out of food. This means that they ran out of food 45 minutes into a promised 90 minute time they were supposed to serve food. Furthermore, they only serve food in the evenings Mon-Wed. Every other Residence Inn I've ever stayed at served food on Thursday night at well. The last thing I'll say about the evening meal is that not a single one of the 'hosts' speaks a word of English. May I ask how you can have people hosting an event in an English speaking country that don't speak a word of English? I only stay at Residence Inns for the food. I want a free USA Today as well. There's a Homewood Suites right across the parking lot. From now on, I'm staying there.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel 1/8-11/18. I've stayed at this hotel about once per year for the past several years. Things have gone completely downhill. The old manager was great. Is there even a manager there now? The reason I ask is that the 'Manager on Duty' sign was blank the whole time I was there. Of minor concern is that the chairs in the dining area are all ripped up and shabby. That's not like Residence Inn. Another minor concern is that they stopped handing out free USA Today. My biggest concern, and this is a deal-killer for me, is with the food. I ate breakfast there every morning, and it was always cold. On Tuesday, they ran out of meat and eggs and told me it would 'be a while.' That evening, I went down there for the evening meal 20 minutes before they were supposed to stop serving dinner, and they were out of food. I went down there on Tuesday night 40 minutes before they were supposed to stop serving, and everything was already all put away and cleaned up because, once again, they ran out of food. This means that they ran out of food 45 minutes into a promised 90 minute time they were supposed to serve food. Furthermore, they only serve food in the evenings Mon-Wed. Every other Residence Inn I've ever stayed at served food on Thursday night at well. The last...I stayed at this hotel 1/8-11/18. I've stayed at this hotel about once per year for the past several years. Things have gone completely downhill. The old manager was great. Is there even a manager there now? The reason I ask is that the 'Manager on Duty' sign was blank the whole time I was there. Of minor concern is that the chairs in the dining area are all ripped up and shabby. That's not like Residence Inn. Another minor concern is that they stopped handing out free USA Today. My biggest concern, and this is a deal-killer for me, is with the food. I ate breakfast there every morning, and it was always cold. On Tuesday, they ran out of meat and eggs and told me it would 'be a while.' That evening, I went down there for the evening meal 20 minutes before they were supposed to stop serving dinner, and they were out of food. I went down there on Tuesday night 40 minutes before they were supposed to stop serving, and everything was already all put away and cleaned up because, once again, they ran out of food. This means that they ran out of food 45 minutes into a promised 90 minute time they were supposed to serve food. Furthermore, they only serve food in the evenings Mon-Wed. Every other Residence Inn I've ever stayed at served food on Thursday night at well. The last thing I'll say about the evening meal is that not a single one of the 'hosts' speaks a word of English. May I ask how you can have people hosting an event in an English speaking country that don't speak a word of English? I only stay at Residence Inns for the food. I want a free USA Today as well. There's a Homewood Suites right across the parking lot. From now on, I'm staying there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r546009952-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>546009952</t>
+  </si>
+  <si>
+    <t>12/08/2017</t>
+  </si>
+  <si>
+    <t>Excellent Service and Very Attentive to Guests</t>
+  </si>
+  <si>
+    <t>The management of this hotel is excellent and very attentive to the guests. Especially Alicia Thompson, the Sales Manager. She is always willing and very attentive to the needs of the guests from the first day the guest checks in. She really did an excellent job, including being able to accommodate our specific work needs. Also the place is very cozy and the rooms are always very clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Residence Inn Houston Sugar Land, responded to this reviewResponded December 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2017</t>
+  </si>
+  <si>
+    <t>The management of this hotel is excellent and very attentive to the guests. Especially Alicia Thompson, the Sales Manager. She is always willing and very attentive to the needs of the guests from the first day the guest checks in. She really did an excellent job, including being able to accommodate our specific work needs. Also the place is very cozy and the rooms are always very clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r536223134-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>536223134</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service</t>
+  </si>
+  <si>
+    <t>The staff at this property are excellent.  They provide excellent service to their guests.  I was on business and become ill in the middle of the night.  They allowed me a late checkout, did not,rush me out, and allowed me to recover so I was able to travel back home in reasonable condition.  They could have charged me an extra day, and did not!  The hotel was clean and well maintained.  I would stay here again in a heart beat!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Residence Inn Houston Sugar Land, responded to this reviewResponded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2017</t>
+  </si>
+  <si>
+    <t>The staff at this property are excellent.  They provide excellent service to their guests.  I was on business and become ill in the middle of the night.  They allowed me a late checkout, did not,rush me out, and allowed me to recover so I was able to travel back home in reasonable condition.  They could have charged me an extra day, and did not!  The hotel was clean and well maintained.  I would stay here again in a heart beat!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r507573867-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>507573867</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Residence inn Stafford</t>
+  </si>
+  <si>
+    <t>The room and all the staff are amazing. I found here the same comfort I use to have at my place. The room is great  and we are enjoy all the services from the hotel. We are particular happy with the service we have getting from all the staffMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Residence Inn Houston Sugar Land, responded to this reviewResponded August 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2017</t>
+  </si>
+  <si>
+    <t>The room and all the staff are amazing. I found here the same comfort I use to have at my place. The room is great  and we are enjoy all the services from the hotel. We are particular happy with the service we have getting from all the staffMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r506904622-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>506904622</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>Very warm employees, always willing to help</t>
+  </si>
+  <si>
+    <t>Just ask and you have it except it's not available.You might once in a while need to ask for additional resources depending on the size of your family. Due to my family size, we've had to request for additional towels and toiletries and we got them.This is my family's fourth vacation in the Houston area and the four were spent in there!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Just ask and you have it except it's not available.You might once in a while need to ask for additional resources depending on the size of your family. Due to my family size, we've had to request for additional towels and toiletries and we got them.This is my family's fourth vacation in the Houston area and the four were spent in there!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r506508649-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>506508649</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>I had a long trip from Longview TX. Car problems with Enterprise.  When I arrived Donavan greeted with such professionalism. He help me with my luggage. My room was great. Donovan came to my car help me unload, helped me to my room and assisted me putting my things away. The front always smiling welcoming me home when I came in. Also great breakfast. Would highly recommend this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had a long trip from Longview TX. Car problems with Enterprise.  When I arrived Donavan greeted with such professionalism. He help me with my luggage. My room was great. Donovan came to my car help me unload, helped me to my room and assisted me putting my things away. The front always smiling welcoming me home when I came in. Also great breakfast. Would highly recommend this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r498992543-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>498992543</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t>Our Astros stay at Residence Inn, Stafford, TX</t>
+  </si>
+  <si>
+    <t>Our stay at Residence Inn was excellent, it started with being greeted by a very friendly and courteous young man (Donovan) and the General Manager (Zachery) at the front desk. They were both very accommodating and professional. The room was clean and very comfortable. The entire hotel was clean and is maintained very well, as I stay at this location when I travel to the Houston area, approximately 8-10 times a year. The price is also very competitive.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Residence Inn Houston Sugar Land, responded to this reviewResponded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Our stay at Residence Inn was excellent, it started with being greeted by a very friendly and courteous young man (Donovan) and the General Manager (Zachery) at the front desk. They were both very accommodating and professional. The room was clean and very comfortable. The entire hotel was clean and is maintained very well, as I stay at this location when I travel to the Houston area, approximately 8-10 times a year. The price is also very competitive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r497709068-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>497709068</t>
+  </si>
+  <si>
+    <t>07/01/2017</t>
+  </si>
+  <si>
+    <t>Enjoyed the property</t>
+  </si>
+  <si>
+    <t>Enjoyed the breakfast, the coffee, the little store for forgotten items, nice pool and exercise room, friendly staff, clean common areas, convenient and spacious rooms. Have stayed twice and will probably return. MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Residence Inn Houston Sugar Land, responded to this reviewResponded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Enjoyed the breakfast, the coffee, the little store for forgotten items, nice pool and exercise room, friendly staff, clean common areas, convenient and spacious rooms. Have stayed twice and will probably return. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r494117632-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>494117632</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t>Showing it's age</t>
+  </si>
+  <si>
+    <t>Residence inn has been our favorite family hotel for a while. This one is definitely showing it's age. However, it fulfilled all our needs as usual. The staff was friendly. The location was very convenient. We made use of the full fridge in the kitchenette. With kids, the daily breakfast buffet was appreciated. I think it's too overpriced considering the condition. We had a nice stay otherwise.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Residence Inn Houston Sugar Land, responded to this reviewResponded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Residence inn has been our favorite family hotel for a while. This one is definitely showing it's age. However, it fulfilled all our needs as usual. The staff was friendly. The location was very convenient. We made use of the full fridge in the kitchenette. With kids, the daily breakfast buffet was appreciated. I think it's too overpriced considering the condition. We had a nice stay otherwise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r425455348-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>425455348</t>
+  </si>
+  <si>
+    <t>10/05/2016</t>
+  </si>
+  <si>
+    <t>Not the best</t>
+  </si>
+  <si>
+    <t>Smelly rooms, like stale smoke, very uncomfortable sofa bed, don't park in the rear cars were broken into. Staff were very friendly and helpful, breakfast was not so great. Stayed here one night for a family funeral the next day.  Don't think I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Zach E, General Manager at Residence Inn Houston Sugar Land, responded to this reviewResponded October 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2016</t>
+  </si>
+  <si>
+    <t>Smelly rooms, like stale smoke, very uncomfortable sofa bed, don't park in the rear cars were broken into. Staff were very friendly and helpful, breakfast was not so great. Stayed here one night for a family funeral the next day.  Don't think I would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r423342108-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>423342108</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t>Horrible Hotel</t>
+  </si>
+  <si>
+    <t>Had a business trip in Houston with 5 team members and we were staying for 19 nights. Found cock roaches in the lobby and hallway. The third floor was so humid everything stayed damp. Two member had mold in a picture in their room and when he asked to have it fixed the request went ignored. Two vehicles were broken into with no sympathy from management. Only response is that it has been happening for a while. The General Manager responds to Cryian24 on here stating the whole team receive enough points for a free night stay at a Marriott but that is not true. Two received enough points for a low end hotel and the others only received a quarter of what they received. I and my team are platinum elite members with over a hundred nights in a Marriott this year. I have never so unhappy with a Marriott Hotel, or customer service when dealing with this situation.   If you are needing to stay in this area try the SpringHill Suites on Reading Road in RosenBerg. It's not far from this Residence and is clean and very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Zach E, General Manager at Residence Inn Houston Sugar Land, responded to this reviewResponded October 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2016</t>
+  </si>
+  <si>
+    <t>Had a business trip in Houston with 5 team members and we were staying for 19 nights. Found cock roaches in the lobby and hallway. The third floor was so humid everything stayed damp. Two member had mold in a picture in their room and when he asked to have it fixed the request went ignored. Two vehicles were broken into with no sympathy from management. Only response is that it has been happening for a while. The General Manager responds to Cryian24 on here stating the whole team receive enough points for a free night stay at a Marriott but that is not true. Two received enough points for a low end hotel and the others only received a quarter of what they received. I and my team are platinum elite members with over a hundred nights in a Marriott this year. I have never so unhappy with a Marriott Hotel, or customer service when dealing with this situation.   If you are needing to stay in this area try the SpringHill Suites on Reading Road in RosenBerg. It's not far from this Residence and is clean and very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r421193178-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>421193178</t>
+  </si>
+  <si>
+    <t>09/22/2016</t>
+  </si>
+  <si>
+    <t>Do not stay here</t>
+  </si>
+  <si>
+    <t>Cock roachs in the lobby and hall way.Mold in a picture in my room.Zero empathy from any staff memeber.I asked the GM to call me to explain my concerns, never called me back.Left a message on the customer service hotline and was never given a call back.2 of our cars were broken into and the manager could have cared less but loved talking about North Dakota State and NEVER asked how he could help us. And made comments about how this has been going on for months with customers cars being broken into.I've never been this dissatisfied with Marriot EVER!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Zach E, General Manager at Residence Inn Houston Sugar Land, responded to this reviewResponded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Cock roachs in the lobby and hall way.Mold in a picture in my room.Zero empathy from any staff memeber.I asked the GM to call me to explain my concerns, never called me back.Left a message on the customer service hotline and was never given a call back.2 of our cars were broken into and the manager could have cared less but loved talking about North Dakota State and NEVER asked how he could help us. And made comments about how this has been going on for months with customers cars being broken into.I've never been this dissatisfied with Marriot EVER!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r358283400-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>358283400</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>Hotel stay</t>
+  </si>
+  <si>
+    <t>I love this place maid services always on time they clean up and do a very great job managers very respectful staff is very respectful nice hotel room suites very comfortable very quiet clean atmosphere in a very clean location I enjoyed my stay and I will be coming backMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Thomas I, General Manager at Residence Inn Houston Sugar Land, responded to this reviewResponded May 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2016</t>
+  </si>
+  <si>
+    <t>I love this place maid services always on time they clean up and do a very great job managers very respectful staff is very respectful nice hotel room suites very comfortable very quiet clean atmosphere in a very clean location I enjoyed my stay and I will be coming backMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r348056908-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>348056908</t>
+  </si>
+  <si>
+    <t>02/15/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel, Great Location, and Utterly GREAT STAFF!</t>
+  </si>
+  <si>
+    <t>Stayed here for three nights and had a fantastic first floor room.When I checked in, the lady at the front was very helpful, and as friendly as she could be.  She made sure the check in was painless and quick.I walked back to my room and was GREATLY surprised.  Large suite complete with a full kitchen with EVERYTHING YOU NEED, and a living and dining area.  The work station was HUGE, and had a power strip attached.The bedroom area was right off the living room, and the large flat panel TV would swivel so you could watch from bed, or from the living / work area.  Large closet and bathroom area topped it off.There is an outdoor pool and hot tub too!  Free breakfast that includes everything, and even a quest laundry!This is a great hotel!  Plenty of room, great staff, and close to lots of things in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for three nights and had a fantastic first floor room.When I checked in, the lady at the front was very helpful, and as friendly as she could be.  She made sure the check in was painless and quick.I walked back to my room and was GREATLY surprised.  Large suite complete with a full kitchen with EVERYTHING YOU NEED, and a living and dining area.  The work station was HUGE, and had a power strip attached.The bedroom area was right off the living room, and the large flat panel TV would swivel so you could watch from bed, or from the living / work area.  Large closet and bathroom area topped it off.There is an outdoor pool and hot tub too!  Free breakfast that includes everything, and even a quest laundry!This is a great hotel!  Plenty of room, great staff, and close to lots of things in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r345482098-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>345482098</t>
+  </si>
+  <si>
+    <t>02/06/2016</t>
+  </si>
+  <si>
+    <t>Clean room and good hospitality</t>
+  </si>
+  <si>
+    <t>Very clean rooms and well maintained hotel. Staff is very helpful and good variety in free breakfast. Hotel is on the outskirt of Houston if you are planning to roam in Houston, it's far away from major attractions.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Very clean rooms and well maintained hotel. Staff is very helpful and good variety in free breakfast. Hotel is on the outskirt of Houston if you are planning to roam in Houston, it's far away from major attractions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r309687552-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>309687552</t>
+  </si>
+  <si>
+    <t>09/12/2015</t>
+  </si>
+  <si>
+    <t>Great hotel and perfect location</t>
+  </si>
+  <si>
+    <t>This hotel was located near shopping, resturants, and other great entertainment venues. The hotel is well kept. The personnel are very friendly and helpful. The rooms are regular size and nicely furnished. The bed is very comfy! We were very satisfies and will def stay there again!!!!!</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r309004375-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>309004375</t>
+  </si>
+  <si>
+    <t>09/10/2015</t>
+  </si>
+  <si>
+    <t>Not Up To Residence Inn Standards</t>
+  </si>
+  <si>
+    <t>This is not a bad place, but it just does not live up to the same level of quality we have experienced at other Marriott properties (e.g. other RI, SpringHill Suites, Courtyard).The rooms are okay, but are beginning to seem "tired".The sofabed was so uncomfortable, we just placed the bedding on the sofa cushions itself.The free wifi was good speed.The free breakfast was okay, but it ran out rather quickly and was a long while before replenishment.  The availability of seating was near atrocious - they really need to reconfigure the setup to allow more tables and seating.Perhaps it was just our particular stay (over a weekend), but other guests allowed their children free reign in the breakfast area.  And, there was a rather large man walking the breakfast area and in the halls at different times of the day (all in pjs pulled well too high).  Creeped out our family!Anyway, might only be that one time, or only on weekends, but generally encounter people who are more respectful of others' space than what we found here.There are other items we could point out, but bottom line is that we will choose a different Marriott property in this area if we were to visit again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>This is not a bad place, but it just does not live up to the same level of quality we have experienced at other Marriott properties (e.g. other RI, SpringHill Suites, Courtyard).The rooms are okay, but are beginning to seem "tired".The sofabed was so uncomfortable, we just placed the bedding on the sofa cushions itself.The free wifi was good speed.The free breakfast was okay, but it ran out rather quickly and was a long while before replenishment.  The availability of seating was near atrocious - they really need to reconfigure the setup to allow more tables and seating.Perhaps it was just our particular stay (over a weekend), but other guests allowed their children free reign in the breakfast area.  And, there was a rather large man walking the breakfast area and in the halls at different times of the day (all in pjs pulled well too high).  Creeped out our family!Anyway, might only be that one time, or only on weekends, but generally encounter people who are more respectful of others' space than what we found here.There are other items we could point out, but bottom line is that we will choose a different Marriott property in this area if we were to visit again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r293040776-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>293040776</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>As Expected</t>
+  </si>
+  <si>
+    <t>checked-in for 1 night on my way to the rio grande from florida. had to wait a while at the front desk because it was unattended -20minutes later the front desk lady appeared and i was given my room keys. room was clean with fresh towels and clean bedsheets, which i've come to expected from a marriott facility. it's a little difficult finding this facility because of the convoluted I-69 (tx59) highway system even with a gps, but was able to get it on the 2nd try. the dinning room is good and breakfast has several hot choices. the only issue i had was that the front desk did not give me an statement, as other marriott facilities do, saying that i had booked it online and that i should be getting it from them. i asked her if she would enter my rewards number, but i believe she never did because i am not finding that stay in my rewards activity. still, it was a good stay with a good night's rest.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>checked-in for 1 night on my way to the rio grande from florida. had to wait a while at the front desk because it was unattended -20minutes later the front desk lady appeared and i was given my room keys. room was clean with fresh towels and clean bedsheets, which i've come to expected from a marriott facility. it's a little difficult finding this facility because of the convoluted I-69 (tx59) highway system even with a gps, but was able to get it on the 2nd try. the dinning room is good and breakfast has several hot choices. the only issue i had was that the front desk did not give me an statement, as other marriott facilities do, saying that i had booked it online and that i should be getting it from them. i asked her if she would enter my rewards number, but i believe she never did because i am not finding that stay in my rewards activity. still, it was a good stay with a good night's rest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r260548964-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>260548964</t>
+  </si>
+  <si>
+    <t>03/19/2015</t>
+  </si>
+  <si>
+    <t>Home Away from Home</t>
+  </si>
+  <si>
+    <t>Great location, near restaurants and shopping.  Staff is friendly and outgoing, doing everything to make sure your stay is comfortable and all needs are met.  I have another trip scheduled to this area and will be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded March 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2015</t>
+  </si>
+  <si>
+    <t>Great location, near restaurants and shopping.  Staff is friendly and outgoing, doing everything to make sure your stay is comfortable and all needs are met.  I have another trip scheduled to this area and will be staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r257251287-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>257251287</t>
+  </si>
+  <si>
+    <t>03/02/2015</t>
+  </si>
+  <si>
+    <t>Texas shaped waffles</t>
+  </si>
+  <si>
+    <t>Great location just by the highway through Sugarland. Clean and extremely spacious rooms, adequate heating for this time of year. Breakfast is excellent and the best part are self-made waffles in the form of the State of Texas. For US standards internet speed is above average.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded March 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2015</t>
+  </si>
+  <si>
+    <t>Great location just by the highway through Sugarland. Clean and extremely spacious rooms, adequate heating for this time of year. Breakfast is excellent and the best part are self-made waffles in the form of the State of Texas. For US standards internet speed is above average.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r249607699-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>249607699</t>
+  </si>
+  <si>
+    <t>01/16/2015</t>
+  </si>
+  <si>
+    <t>Excellent Staff</t>
+  </si>
+  <si>
+    <t>First, I would like to say that I am a Gold Elite member with Marriott, so I have stayed at a lot of Marriott Hotels. What I like about this one (and all Residence Inns for that matter) is the friendly and approachable staff. If I'm coming in or leaving, they say "Hello" or "Have a nice day!" etc. every time. I always like to ask for good restaurants in the area, and I was always provided with one that was excellent. The breakfast in the morning is what you would expect and the evening social (Monday - Wednesday) has limited choices, but the food is good. I stayed in a 1 bedroom suite. If I'm ever back in the Stafford area, I would definitely choose this hotel again. My rating would be 4.5 but trip advisor won't let me do it. I rounded up because of the friendliness of the staff which is better than normal.Note: I'm not sure if the wifi is free for everyone, as I don't pay for it for being a Gold Elite member.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded January 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2015</t>
+  </si>
+  <si>
+    <t>First, I would like to say that I am a Gold Elite member with Marriott, so I have stayed at a lot of Marriott Hotels. What I like about this one (and all Residence Inns for that matter) is the friendly and approachable staff. If I'm coming in or leaving, they say "Hello" or "Have a nice day!" etc. every time. I always like to ask for good restaurants in the area, and I was always provided with one that was excellent. The breakfast in the morning is what you would expect and the evening social (Monday - Wednesday) has limited choices, but the food is good. I stayed in a 1 bedroom suite. If I'm ever back in the Stafford area, I would definitely choose this hotel again. My rating would be 4.5 but trip advisor won't let me do it. I rounded up because of the friendliness of the staff which is better than normal.Note: I'm not sure if the wifi is free for everyone, as I don't pay for it for being a Gold Elite member.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r207569419-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>207569419</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>HORRIBLE</t>
+  </si>
+  <si>
+    <t>As a Marriott Plat Premier member I was informed that my reservation would not be honored because the hotel was oversold?  The front desk informed me that they moved me to another hotel, then he proceeded to check in my co-workers who were lower level Marriott members and booked after me!!!!  The front desk personnel then disclosed to my co-worker that I had called Marriott customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Ben_B_Residence, Manager at Residence Inn Houston Sugar Land, responded to this reviewResponded June 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2014</t>
+  </si>
+  <si>
+    <t>As a Marriott Plat Premier member I was informed that my reservation would not be honored because the hotel was oversold?  The front desk informed me that they moved me to another hotel, then he proceeded to check in my co-workers who were lower level Marriott members and booked after me!!!!  The front desk personnel then disclosed to my co-worker that I had called Marriott customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r192771668-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>192771668</t>
+  </si>
+  <si>
+    <t>02/01/2014</t>
+  </si>
+  <si>
+    <t>Wounder Place</t>
+  </si>
+  <si>
+    <t>I like this residence, highly recommended for friends or family vacation.I stayed one night, I like to be here for ever.Top services, high quality food, nice place that is all I can say.Hopefully you too have the same experience as I had.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded February 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2014</t>
+  </si>
+  <si>
+    <t>I like this residence, highly recommended for friends or family vacation.I stayed one night, I like to be here for ever.Top services, high quality food, nice place that is all I can say.Hopefully you too have the same experience as I had.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r192476706-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>192476706</t>
+  </si>
+  <si>
+    <t>01/29/2014</t>
+  </si>
+  <si>
+    <t>Worthy of a return stay</t>
+  </si>
+  <si>
+    <t>We were greeted at check in a very friendly way and unbelievably our stay kept getting better and better.   The room is a one bedroom suite with an adjoining full kitchen and living room with desk and small dining table and sofa.  There is a social Mon-Thursday and we had meatballs and spaghetti, salad, dessert with complementary wine, beer and soft drinks.  In the morning there was a better than average breakfast with sausage, egg and cheese biscuits which were freshly made, not those pre packed types.  There was also fresh scrambled eggs, Canadian bacon, melon, oatmeal, cereal, granola parfait, and more.  The mattress was really comfortable and there are two flat screen tv's.   All the employees were friendly and helpful.  We made a note to stay here again.  The only negative was the location did not show up correctly in our gps, but we have it marked for the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>We were greeted at check in a very friendly way and unbelievably our stay kept getting better and better.   The room is a one bedroom suite with an adjoining full kitchen and living room with desk and small dining table and sofa.  There is a social Mon-Thursday and we had meatballs and spaghetti, salad, dessert with complementary wine, beer and soft drinks.  In the morning there was a better than average breakfast with sausage, egg and cheese biscuits which were freshly made, not those pre packed types.  There was also fresh scrambled eggs, Canadian bacon, melon, oatmeal, cereal, granola parfait, and more.  The mattress was really comfortable and there are two flat screen tv's.   All the employees were friendly and helpful.  We made a note to stay here again.  The only negative was the location did not show up correctly in our gps, but we have it marked for the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r185544102-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>185544102</t>
+  </si>
+  <si>
+    <t>11/22/2013</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>This place has great staff. So friendly &amp; helpful. Always smiling. What a pleasure. Suite was clean, bed was very comfortable. The stay could not have been better! We would like to thank Linda Evans for being friendly and solving some problems I had.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded November 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2013</t>
+  </si>
+  <si>
+    <t>This place has great staff. So friendly &amp; helpful. Always smiling. What a pleasure. Suite was clean, bed was very comfortable. The stay could not have been better! We would like to thank Linda Evans for being friendly and solving some problems I had.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r180955221-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>180955221</t>
+  </si>
+  <si>
+    <t>10/14/2013</t>
+  </si>
+  <si>
+    <t>My Pre-Experience</t>
+  </si>
+  <si>
+    <t>I am currently looking for a hotel and this customer service rep has really sold me on the hotel.  My proposed dates of travel are during the Thanksgiving weekend and I had the pleasure of speaking with "Linda" at the desk.   She is a JEWEL for telephone customer service.  She was patient and answered all my proposed questions on pricing, room availability, and other trip advisor concerns.  She even went the extra step to provide me a handicapped accessible room for my uncle that will be travelling with us.  It's not too often that we meet people in this mean world that make it a little brighter.  Linda at the Residence Inn in Sugarland....TAKE A BOW!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded October 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2013</t>
+  </si>
+  <si>
+    <t>I am currently looking for a hotel and this customer service rep has really sold me on the hotel.  My proposed dates of travel are during the Thanksgiving weekend and I had the pleasure of speaking with "Linda" at the desk.   She is a JEWEL for telephone customer service.  She was patient and answered all my proposed questions on pricing, room availability, and other trip advisor concerns.  She even went the extra step to provide me a handicapped accessible room for my uncle that will be travelling with us.  It's not too often that we meet people in this mean world that make it a little brighter.  Linda at the Residence Inn in Sugarland....TAKE A BOW!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r179642409-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>179642409</t>
+  </si>
+  <si>
+    <t>10/03/2013</t>
+  </si>
+  <si>
+    <t>ABSOLUTELY THE WORSE HOTEL AND STAFF!!!</t>
+  </si>
+  <si>
+    <t>Stayed here for a few weeks while working in the area. Do not let the Marriott name fool you. THIS PLACE IS HORRIBLE. DIRTY ROOMS, RUDE AND UNPROFESSIONAL STAFF. The lady who booked my room went on and on about the fabulous "full breakfast and hot dinner buffett". THAT WAS A LIE TOO. Breakfast was just some slushy scrambled eggs and microwaved sausage and "dinner buffet" included NACHO NIGHT (a cheap bag of tortilla chips and some melted cheese, SALAD NIGHT (a bag of lettuce and a few tomatoes), CHILI NIGHT ( a cheap disgusting can of non brand name chili and left over nacho chips from NACHO NIGHT. I observed on several occasions where the general manager (owner?) basically told the kitchen girl to stop putting more food out and then just tell the guests that they "ran out of food." Basically, the breakfast and dinner buffets were a total joke but they use this sales pitch to justify the overpricing because you can get into a cheap and cleaner and bigger room with full professional staff down the streets at another hotel. The staff was always rude and unprofessional if you have any concerns or questions. They rooms are filthy and housekeeping do a horrible job and none of them speak any English whatsoever. I have already complained to my company to not put anyone else here. SAVE YOURSELF THE OVERPRICED RATE AND RUDE STAFF AND HEADACHE, DO...Stayed here for a few weeks while working in the area. Do not let the Marriott name fool you. THIS PLACE IS HORRIBLE. DIRTY ROOMS, RUDE AND UNPROFESSIONAL STAFF. The lady who booked my room went on and on about the fabulous "full breakfast and hot dinner buffett". THAT WAS A LIE TOO. Breakfast was just some slushy scrambled eggs and microwaved sausage and "dinner buffet" included NACHO NIGHT (a cheap bag of tortilla chips and some melted cheese, SALAD NIGHT (a bag of lettuce and a few tomatoes), CHILI NIGHT ( a cheap disgusting can of non brand name chili and left over nacho chips from NACHO NIGHT. I observed on several occasions where the general manager (owner?) basically told the kitchen girl to stop putting more food out and then just tell the guests that they "ran out of food." Basically, the breakfast and dinner buffets were a total joke but they use this sales pitch to justify the overpricing because you can get into a cheap and cleaner and bigger room with full professional staff down the streets at another hotel. The staff was always rude and unprofessional if you have any concerns or questions. They rooms are filthy and housekeeping do a horrible job and none of them speak any English whatsoever. I have already complained to my company to not put anyone else here. SAVE YOURSELF THE OVERPRICED RATE AND RUDE STAFF AND HEADACHE, DO NOT STAY HERE! 2 WEEKS OF HELL FOR ME!!!! NEVER AGAIN!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded October 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here for a few weeks while working in the area. Do not let the Marriott name fool you. THIS PLACE IS HORRIBLE. DIRTY ROOMS, RUDE AND UNPROFESSIONAL STAFF. The lady who booked my room went on and on about the fabulous "full breakfast and hot dinner buffett". THAT WAS A LIE TOO. Breakfast was just some slushy scrambled eggs and microwaved sausage and "dinner buffet" included NACHO NIGHT (a cheap bag of tortilla chips and some melted cheese, SALAD NIGHT (a bag of lettuce and a few tomatoes), CHILI NIGHT ( a cheap disgusting can of non brand name chili and left over nacho chips from NACHO NIGHT. I observed on several occasions where the general manager (owner?) basically told the kitchen girl to stop putting more food out and then just tell the guests that they "ran out of food." Basically, the breakfast and dinner buffets were a total joke but they use this sales pitch to justify the overpricing because you can get into a cheap and cleaner and bigger room with full professional staff down the streets at another hotel. The staff was always rude and unprofessional if you have any concerns or questions. They rooms are filthy and housekeeping do a horrible job and none of them speak any English whatsoever. I have already complained to my company to not put anyone else here. SAVE YOURSELF THE OVERPRICED RATE AND RUDE STAFF AND HEADACHE, DO...Stayed here for a few weeks while working in the area. Do not let the Marriott name fool you. THIS PLACE IS HORRIBLE. DIRTY ROOMS, RUDE AND UNPROFESSIONAL STAFF. The lady who booked my room went on and on about the fabulous "full breakfast and hot dinner buffett". THAT WAS A LIE TOO. Breakfast was just some slushy scrambled eggs and microwaved sausage and "dinner buffet" included NACHO NIGHT (a cheap bag of tortilla chips and some melted cheese, SALAD NIGHT (a bag of lettuce and a few tomatoes), CHILI NIGHT ( a cheap disgusting can of non brand name chili and left over nacho chips from NACHO NIGHT. I observed on several occasions where the general manager (owner?) basically told the kitchen girl to stop putting more food out and then just tell the guests that they "ran out of food." Basically, the breakfast and dinner buffets were a total joke but they use this sales pitch to justify the overpricing because you can get into a cheap and cleaner and bigger room with full professional staff down the streets at another hotel. The staff was always rude and unprofessional if you have any concerns or questions. They rooms are filthy and housekeeping do a horrible job and none of them speak any English whatsoever. I have already complained to my company to not put anyone else here. SAVE YOURSELF THE OVERPRICED RATE AND RUDE STAFF AND HEADACHE, DO NOT STAY HERE! 2 WEEKS OF HELL FOR ME!!!! NEVER AGAIN!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r174049286-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>174049286</t>
+  </si>
+  <si>
+    <t>08/25/2013</t>
+  </si>
+  <si>
+    <t>Temporary accommodations for Family</t>
+  </si>
+  <si>
+    <t>Our family is being relocated to Houston area and we were put up in the Residence Inn by Marriot Sugar Land. The staff were so friendly and helpful. The room was clean and spacious as we had a 2 bedroom suite. The breakfast in the morning was fabulous as we each found lots of options to enjoy. They also had an evening supper like buffet where each day was different. Again, there was something for everyone. We had a kitchenette in our room but only used the fridge but they were full size appliances so if you did want to cook you certainly would be able to. The friendly staff really made our stay complete in a city new to us! Thanks so much to Linda who was always smiling and friendly and to the other staff as well who made us feel at home.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded August 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2013</t>
+  </si>
+  <si>
+    <t>Our family is being relocated to Houston area and we were put up in the Residence Inn by Marriot Sugar Land. The staff were so friendly and helpful. The room was clean and spacious as we had a 2 bedroom suite. The breakfast in the morning was fabulous as we each found lots of options to enjoy. They also had an evening supper like buffet where each day was different. Again, there was something for everyone. We had a kitchenette in our room but only used the fridge but they were full size appliances so if you did want to cook you certainly would be able to. The friendly staff really made our stay complete in a city new to us! Thanks so much to Linda who was always smiling and friendly and to the other staff as well who made us feel at home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r173251128-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>173251128</t>
+  </si>
+  <si>
+    <t>08/20/2013</t>
+  </si>
+  <si>
+    <t>Our home away from home</t>
+  </si>
+  <si>
+    <t>We needed a place to stay for a month and found The Residence inn, here is the SugarLand/Stafford, Texas area.From the time we got here we were pleasantly surprised to be greeted by an awesome staff.From Erin to Anna to Bao to Marco, Linda, Peter, Carmen at the front reception area to the housekeeping staff and maintenance crew, they exhibited the utmost of professionalism and hospitality that are inherent among the best of the best.Each day we are greeted with a warm smile and words of encouragement to help us through the day.Each time we walk by, they acknowledge us by pour name, which of course they know all their clientele. Hot Breakfast and happy hour is such a plus. Thank you to Margo and Blanca for the great food. You all spoil us. But all good things come to an end when we leave. Thank y ou for making it so memorable for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>We needed a place to stay for a month and found The Residence inn, here is the SugarLand/Stafford, Texas area.From the time we got here we were pleasantly surprised to be greeted by an awesome staff.From Erin to Anna to Bao to Marco, Linda, Peter, Carmen at the front reception area to the housekeeping staff and maintenance crew, they exhibited the utmost of professionalism and hospitality that are inherent among the best of the best.Each day we are greeted with a warm smile and words of encouragement to help us through the day.Each time we walk by, they acknowledge us by pour name, which of course they know all their clientele. Hot Breakfast and happy hour is such a plus. Thank you to Margo and Blanca for the great food. You all spoil us. But all good things come to an end when we leave. Thank y ou for making it so memorable for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r170507694-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>170507694</t>
+  </si>
+  <si>
+    <t>08/02/2013</t>
+  </si>
+  <si>
+    <t>great staff and high valuing add place to stay</t>
+  </si>
+  <si>
+    <t>My family staied there for 2 weeks and gonna leave tomorrow morning, and we have tried different hotels in Houston, this is the best. The staff there are most hospitality people I met, special thanks to Linda and Peter. They also many convenient service make your stay much more easier-  room with cooking and oven equitpments; free light dinner Mon.- Thur.; free ice; free biz center. I surely will return any time travel to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded August 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2013</t>
+  </si>
+  <si>
+    <t>My family staied there for 2 weeks and gonna leave tomorrow morning, and we have tried different hotels in Houston, this is the best. The staff there are most hospitality people I met, special thanks to Linda and Peter. They also many convenient service make your stay much more easier-  room with cooking and oven equitpments; free light dinner Mon.- Thur.; free ice; free biz center. I surely will return any time travel to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r167743261-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>167743261</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>They want to be nice, but....</t>
+  </si>
+  <si>
+    <t>I can tell, as with the Marriott chain of properties, that this one wants to be nice. They have renovated and the colors and design are inviting, but for me the "devil is in the details" and when you travel a lot you really develop some instant "pet peeves". During my stay this weekend at this property I experienced a few of them. First thing I noticed was that the ice-machine was out of order...and the ATM was out of order. The appliances were not adjusted correctly, so they wobbled like a table that teeters back and forth. So much so, that unless you tilted the fridge just right the door would hit the wall and not shut without scraping it.  The biggest detail overlooked was the dust and crud on the a/c vent blowing into the room. It looked like it had not been cleaned in a long time, which makes one wonder what else may have not been serviced in while. To put forth such an effort to be appealing, little things like this are not acceptable at a hotel in this price range. If had noticed these things before I unpacked I would have asked to be moved. I was tired and decided to press on and make do, but I left expecting more. When you travel a lot and spend so much money or redeem points that you acquire by spending so much money, etc. you...I can tell, as with the Marriott chain of properties, that this one wants to be nice. They have renovated and the colors and design are inviting, but for me the "devil is in the details" and when you travel a lot you really develop some instant "pet peeves". During my stay this weekend at this property I experienced a few of them. First thing I noticed was that the ice-machine was out of order...and the ATM was out of order. The appliances were not adjusted correctly, so they wobbled like a table that teeters back and forth. So much so, that unless you tilted the fridge just right the door would hit the wall and not shut without scraping it.  The biggest detail overlooked was the dust and crud on the a/c vent blowing into the room. It looked like it had not been cleaned in a long time, which makes one wonder what else may have not been serviced in while. To put forth such an effort to be appealing, little things like this are not acceptable at a hotel in this price range. If had noticed these things before I unpacked I would have asked to be moved. I was tired and decided to press on and make do, but I left expecting more. When you travel a lot and spend so much money or redeem points that you acquire by spending so much money, etc. you simply want things to be right every time. Even cheaper, smaller, motel chains I have used repeatedly understand this simple fact.MoreShow less</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded July 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2013</t>
+  </si>
+  <si>
+    <t>I can tell, as with the Marriott chain of properties, that this one wants to be nice. They have renovated and the colors and design are inviting, but for me the "devil is in the details" and when you travel a lot you really develop some instant "pet peeves". During my stay this weekend at this property I experienced a few of them. First thing I noticed was that the ice-machine was out of order...and the ATM was out of order. The appliances were not adjusted correctly, so they wobbled like a table that teeters back and forth. So much so, that unless you tilted the fridge just right the door would hit the wall and not shut without scraping it.  The biggest detail overlooked was the dust and crud on the a/c vent blowing into the room. It looked like it had not been cleaned in a long time, which makes one wonder what else may have not been serviced in while. To put forth such an effort to be appealing, little things like this are not acceptable at a hotel in this price range. If had noticed these things before I unpacked I would have asked to be moved. I was tired and decided to press on and make do, but I left expecting more. When you travel a lot and spend so much money or redeem points that you acquire by spending so much money, etc. you...I can tell, as with the Marriott chain of properties, that this one wants to be nice. They have renovated and the colors and design are inviting, but for me the "devil is in the details" and when you travel a lot you really develop some instant "pet peeves". During my stay this weekend at this property I experienced a few of them. First thing I noticed was that the ice-machine was out of order...and the ATM was out of order. The appliances were not adjusted correctly, so they wobbled like a table that teeters back and forth. So much so, that unless you tilted the fridge just right the door would hit the wall and not shut without scraping it.  The biggest detail overlooked was the dust and crud on the a/c vent blowing into the room. It looked like it had not been cleaned in a long time, which makes one wonder what else may have not been serviced in while. To put forth such an effort to be appealing, little things like this are not acceptable at a hotel in this price range. If had noticed these things before I unpacked I would have asked to be moved. I was tired and decided to press on and make do, but I left expecting more. When you travel a lot and spend so much money or redeem points that you acquire by spending so much money, etc. you simply want things to be right every time. Even cheaper, smaller, motel chains I have used repeatedly understand this simple fact.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r164908733-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>164908733</t>
+  </si>
+  <si>
+    <t>06/23/2013</t>
+  </si>
+  <si>
+    <t>Excellent stay experience</t>
+  </si>
+  <si>
+    <t>I feel the staff at this hotel know the true meaning of personal service.  By day 2, the front desk personnel were greeting me by name.  This showed that they took the time to learn a little about the guest that was staying with them.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded July 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2013</t>
+  </si>
+  <si>
+    <t>I feel the staff at this hotel know the true meaning of personal service.  By day 2, the front desk personnel were greeting me by name.  This showed that they took the time to learn a little about the guest that was staying with them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r164270705-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>164270705</t>
+  </si>
+  <si>
+    <t>06/17/2013</t>
+  </si>
+  <si>
+    <t>Home away from Home</t>
+  </si>
+  <si>
+    <t>stayed here while on business trip to Texas. Well located within 10 minutes walk from office. lot of eating joints nearby. Suites were spacious with all amenities. reasonably priced accommodation. good complimentary breakfast.. overall a very good experienceMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded June 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2013</t>
+  </si>
+  <si>
+    <t>stayed here while on business trip to Texas. Well located within 10 minutes walk from office. lot of eating joints nearby. Suites were spacious with all amenities. reasonably priced accommodation. good complimentary breakfast.. overall a very good experienceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r159018325-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>159018325</t>
+  </si>
+  <si>
+    <t>04/28/2013</t>
+  </si>
+  <si>
+    <t>Linda Linda!</t>
+  </si>
+  <si>
+    <t>Had a terrible experience with courtyard next door and their horrible management but have been here in the past and I will never forget the kind and friendly ways of Linda! Top notch service, genuine smile and warm greetings. MoreShow less</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded April 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2013</t>
+  </si>
+  <si>
+    <t>Had a terrible experience with courtyard next door and their horrible management but have been here in the past and I will never forget the kind and friendly ways of Linda! Top notch service, genuine smile and warm greetings. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r158075645-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>158075645</t>
+  </si>
+  <si>
+    <t>04/17/2013</t>
+  </si>
+  <si>
+    <t>Marvelous staff; handled many details for large group</t>
+  </si>
+  <si>
+    <t>My son and his bride picked this hotel for friends, family and the wedding party.  There were several written directions to the dinners and rehearsal -- and the staff distributed these to our guests as they arrived.  Their breakfast was always prepared well and ready to go.  I'm not sure how the other reviewer missed all the vegetarian options for breakfasts -- oatmeal, peanut butter, yogurts, fresh fruits; as well as sausage and eggs and salsa and standard stuff.  Our rooms were fine -- great comfy mattresses on the beds; and plenty of pillows and extra bedding for the foldout sofa if needed.  We felt welcome and comfortable.  I would do it all over again with this hotel.  No changes.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded April 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2013</t>
+  </si>
+  <si>
+    <t>My son and his bride picked this hotel for friends, family and the wedding party.  There were several written directions to the dinners and rehearsal -- and the staff distributed these to our guests as they arrived.  Their breakfast was always prepared well and ready to go.  I'm not sure how the other reviewer missed all the vegetarian options for breakfasts -- oatmeal, peanut butter, yogurts, fresh fruits; as well as sausage and eggs and salsa and standard stuff.  Our rooms were fine -- great comfy mattresses on the beds; and plenty of pillows and extra bedding for the foldout sofa if needed.  We felt welcome and comfortable.  I would do it all over again with this hotel.  No changes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r155669925-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>155669925</t>
+  </si>
+  <si>
+    <t>03/25/2013</t>
+  </si>
+  <si>
+    <t>Helpful staff, Quiet neighbourhood</t>
+  </si>
+  <si>
+    <t>I had a long stay for about 45 days so I chose this one with a kitchen.  The staff were helpful with my requests.  There is no restaurant (as every suite had a kitchen) which can be uncomfortable at times.  Very limited vegetarian options in the breakfast menu (except for breads).  Lot of restaurants nearby but none of them offer vegetarian so Vegetarians like me will have hard time if they are not cooking.  The food and beverage options (breakfast and evening snacks) look limited compared to its Westheimer cousin.Rooms were clean but guess they can use some room freshners as the kitchen is integrated with the suite.  Bed is cozy and linen changed everyday as customary of any Marriott hotel.  This place is near Walmart and Frys which makes it a great candidate for Tech freaks like me.  But you will definitely need a car to move around as this lies outside the city.Overall the experience was good and would recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded March 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2013</t>
+  </si>
+  <si>
+    <t>I had a long stay for about 45 days so I chose this one with a kitchen.  The staff were helpful with my requests.  There is no restaurant (as every suite had a kitchen) which can be uncomfortable at times.  Very limited vegetarian options in the breakfast menu (except for breads).  Lot of restaurants nearby but none of them offer vegetarian so Vegetarians like me will have hard time if they are not cooking.  The food and beverage options (breakfast and evening snacks) look limited compared to its Westheimer cousin.Rooms were clean but guess they can use some room freshners as the kitchen is integrated with the suite.  Bed is cozy and linen changed everyday as customary of any Marriott hotel.  This place is near Walmart and Frys which makes it a great candidate for Tech freaks like me.  But you will definitely need a car to move around as this lies outside the city.Overall the experience was good and would recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r145461901-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>145461901</t>
+  </si>
+  <si>
+    <t>11/15/2012</t>
+  </si>
+  <si>
+    <t>Such a nice experience</t>
+  </si>
+  <si>
+    <t>I travel for work 100% so I stay in a lot of hotel rooms.  The hotel was clean and they upgraded me (which isn't  necessary, but it was nice).  They serve breakfast and a light dinner at night.  But what would bring me back to this hotel are the PEOPLE.  They were so conscientious about making sure I was comfortable and happy, that in and of itself made me very happy.  There were no issues with my stay and I would absolutely return if work brought me back to this area.  GREAT staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded November 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2012</t>
+  </si>
+  <si>
+    <t>I travel for work 100% so I stay in a lot of hotel rooms.  The hotel was clean and they upgraded me (which isn't  necessary, but it was nice).  They serve breakfast and a light dinner at night.  But what would bring me back to this hotel are the PEOPLE.  They were so conscientious about making sure I was comfortable and happy, that in and of itself made me very happy.  There were no issues with my stay and I would absolutely return if work brought me back to this area.  GREAT staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r143913084-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>143913084</t>
+  </si>
+  <si>
+    <t>10/28/2012</t>
+  </si>
+  <si>
+    <t>Nice hotel, very friendly staff</t>
+  </si>
+  <si>
+    <t>I can't say this was the best hotel I've stayed in before, but it was okay for the price.  It was nice to have the kitchen and separate bedroom, but the furnishes (cabinets, vanities, bathtub) were all dated and could use a facelift.The front desk clerks were so friendly and eager to please.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded November 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2012</t>
+  </si>
+  <si>
+    <t>I can't say this was the best hotel I've stayed in before, but it was okay for the price.  It was nice to have the kitchen and separate bedroom, but the furnishes (cabinets, vanities, bathtub) were all dated and could use a facelift.The front desk clerks were so friendly and eager to please.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r141358480-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>141358480</t>
+  </si>
+  <si>
+    <t>09/26/2012</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>My Family's stay at The Residence Inn was AWESOME, Erin T. the front desk manager made sure that my family was very comfortable, she was the one I made my reservation with and explained everything to me from the credit card charge to the amenities the Residence Inn would offer my family.  My stay was not a business stay, it was a because we moved into a home that was already in foreclosure which put our family in a very unfortunate situation. Linda the evening desk clerk  was a sweetheart, and the morning cook Blanca.... was always cheerful, always "Good Morning" with a smile and making sure to say "Have a good day" when you're leaving. The room was nice and clean and housekeeping made sure we had everything we needed. I also like the fact that there were so many eatery's and stores close to the Residence Inn. Then to receive the email from Marco, the Manager was the best. Making you feel that you were not just a guest but treating you like you were family. Last but not least, one morning my vehicle did not want to start and Erin and James took the time to try to give me a hand. This place was our home away from home and I would recommend it to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded October 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2012</t>
+  </si>
+  <si>
+    <t>My Family's stay at The Residence Inn was AWESOME, Erin T. the front desk manager made sure that my family was very comfortable, she was the one I made my reservation with and explained everything to me from the credit card charge to the amenities the Residence Inn would offer my family.  My stay was not a business stay, it was a because we moved into a home that was already in foreclosure which put our family in a very unfortunate situation. Linda the evening desk clerk  was a sweetheart, and the morning cook Blanca.... was always cheerful, always "Good Morning" with a smile and making sure to say "Have a good day" when you're leaving. The room was nice and clean and housekeeping made sure we had everything we needed. I also like the fact that there were so many eatery's and stores close to the Residence Inn. Then to receive the email from Marco, the Manager was the best. Making you feel that you were not just a guest but treating you like you were family. Last but not least, one morning my vehicle did not want to start and Erin and James took the time to try to give me a hand. This place was our home away from home and I would recommend it to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r140492413-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>140492413</t>
+  </si>
+  <si>
+    <t>09/17/2012</t>
+  </si>
+  <si>
+    <t>long stay made very comfortable</t>
+  </si>
+  <si>
+    <t>I had stayed here once before, for four days. This time I was there for 38 days. So I had time to judge!
+During this time their service was always consistently wonderful. Wether it was the normal day to day stuff or if it was something in need of a reply/repair/correction...everything was done very quickly, efficiently &amp; without fuss. I had a faulty coffee maker, it was replaced while I was out at my customer on business. I noted the AC was not working properly - fixed by the time I returned from another working day. There was a very bad electrical storm one night and we lost power briefly but it caused their Internet to fail - this took a little longer to correct &amp; we all found gift certificates in our room with a letter of apology. I found each &amp; everyone on their staff to be super friendly, ethusiastic &amp; constantly wanting to make sure I was OK, had everything I needed for a long stay at their residence. The rooms are clean, bright &amp; readily equipped for any type of stay - if you want to save money and cook at "home", then do not worry as the kitchen is very well laid out with a lot of thought gone into the supplies. The dishwasher is super handy, plus the laundry facilities on the second floor make that chore very easy to endure.
+They have renovated...I had stayed here once before, for four days. This time I was there for 38 days. So I had time to judge!During this time their service was always consistently wonderful. Wether it was the normal day to day stuff or if it was something in need of a reply/repair/correction...everything was done very quickly, efficiently &amp; without fuss. I had a faulty coffee maker, it was replaced while I was out at my customer on business. I noted the AC was not working properly - fixed by the time I returned from another working day. There was a very bad electrical storm one night and we lost power briefly but it caused their Internet to fail - this took a little longer to correct &amp; we all found gift certificates in our room with a letter of apology. I found each &amp; everyone on their staff to be super friendly, ethusiastic &amp; constantly wanting to make sure I was OK, had everything I needed for a long stay at their residence. The rooms are clean, bright &amp; readily equipped for any type of stay - if you want to save money and cook at "home", then do not worry as the kitchen is very well laid out with a lot of thought gone into the supplies. The dishwasher is super handy, plus the laundry facilities on the second floor make that chore very easy to endure.They have renovated the outside and are in the process of giving the token swimming pool a make over.It is also conveniently located near the 59 highway, Wal-Mart, and various restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded September 21, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2012</t>
+  </si>
+  <si>
+    <t>I had stayed here once before, for four days. This time I was there for 38 days. So I had time to judge!
+During this time their service was always consistently wonderful. Wether it was the normal day to day stuff or if it was something in need of a reply/repair/correction...everything was done very quickly, efficiently &amp; without fuss. I had a faulty coffee maker, it was replaced while I was out at my customer on business. I noted the AC was not working properly - fixed by the time I returned from another working day. There was a very bad electrical storm one night and we lost power briefly but it caused their Internet to fail - this took a little longer to correct &amp; we all found gift certificates in our room with a letter of apology. I found each &amp; everyone on their staff to be super friendly, ethusiastic &amp; constantly wanting to make sure I was OK, had everything I needed for a long stay at their residence. The rooms are clean, bright &amp; readily equipped for any type of stay - if you want to save money and cook at "home", then do not worry as the kitchen is very well laid out with a lot of thought gone into the supplies. The dishwasher is super handy, plus the laundry facilities on the second floor make that chore very easy to endure.
+They have renovated...I had stayed here once before, for four days. This time I was there for 38 days. So I had time to judge!During this time their service was always consistently wonderful. Wether it was the normal day to day stuff or if it was something in need of a reply/repair/correction...everything was done very quickly, efficiently &amp; without fuss. I had a faulty coffee maker, it was replaced while I was out at my customer on business. I noted the AC was not working properly - fixed by the time I returned from another working day. There was a very bad electrical storm one night and we lost power briefly but it caused their Internet to fail - this took a little longer to correct &amp; we all found gift certificates in our room with a letter of apology. I found each &amp; everyone on their staff to be super friendly, ethusiastic &amp; constantly wanting to make sure I was OK, had everything I needed for a long stay at their residence. The rooms are clean, bright &amp; readily equipped for any type of stay - if you want to save money and cook at "home", then do not worry as the kitchen is very well laid out with a lot of thought gone into the supplies. The dishwasher is super handy, plus the laundry facilities on the second floor make that chore very easy to endure.They have renovated the outside and are in the process of giving the token swimming pool a make over.It is also conveniently located near the 59 highway, Wal-Mart, and various restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r139356790-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>139356790</t>
+  </si>
+  <si>
+    <t>09/04/2012</t>
+  </si>
+  <si>
+    <t>Comfortable, well designed rooms</t>
+  </si>
+  <si>
+    <t>From the moment we walked in we knew it was going to be a good stay.  The staff was immediately warm and welcoming.  The rooms were impressive both from a design, comfort, and cleanliness perspective.  While I was on personal travel, I would definitely recommend it for business travelers.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded September 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2012</t>
+  </si>
+  <si>
+    <t>From the moment we walked in we knew it was going to be a good stay.  The staff was immediately warm and welcoming.  The rooms were impressive both from a design, comfort, and cleanliness perspective.  While I was on personal travel, I would definitely recommend it for business travelers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r137882329-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>137882329</t>
+  </si>
+  <si>
+    <t>08/21/2012</t>
+  </si>
+  <si>
+    <t>Another good home away from home.</t>
+  </si>
+  <si>
+    <t>The stay was wonderful. The family has always enjoyed our stay. The staff are Good and thanks for Linda Evans and Erin for their constant and ready assistance. The other staff were equally fantastic. The environment and neighbourhood is encouraging and worth coming again and again. Importantly the meals were readily available and good and families happily eat and discuss. You are all doing good job and please keep it up. Thanks.MoreShow less</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded August 23, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2012</t>
+  </si>
+  <si>
+    <t>The stay was wonderful. The family has always enjoyed our stay. The staff are Good and thanks for Linda Evans and Erin for their constant and ready assistance. The other staff were equally fantastic. The environment and neighbourhood is encouraging and worth coming again and again. Importantly the meals were readily available and good and families happily eat and discuss. You are all doing good job and please keep it up. Thanks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r133952210-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>133952210</t>
+  </si>
+  <si>
+    <t>07/09/2012</t>
+  </si>
+  <si>
+    <t>Terrific one night stay</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for one night last week.  My son attended a football camp. The location of the hotel was great. They had lots of restaurants and stores in the area. The parking was good.  The check in process went smoothly . I had requested an early check in when making my reservations the night before. I called the hotel prior to our arrival  to ensure that they would be able to accommodate this request. The gentleman whom I spoke with stated sure they could and said we will have your reservation ready when you arrive. When we arrived  maybe 10 minutes later. We were  greeted with a smile and a pleasant professional attitude. I had forgotten to ask for a late checkout since the camp was ending at 12 noon on the following day and my son needed to shower before our trip home. It was a few minutes after noon when when we returned back to the hotel. I explained this to the clerk at the front desk and she stated that was not a problem.  We were able to return to our room and allow our son to shower before returning home. The beds were a little hard but we had plenty of pillows to help with that. The room was clean and towels were in good shape . I would definitely recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 11, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2012</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for one night last week.  My son attended a football camp. The location of the hotel was great. They had lots of restaurants and stores in the area. The parking was good.  The check in process went smoothly . I had requested an early check in when making my reservations the night before. I called the hotel prior to our arrival  to ensure that they would be able to accommodate this request. The gentleman whom I spoke with stated sure they could and said we will have your reservation ready when you arrive. When we arrived  maybe 10 minutes later. We were  greeted with a smile and a pleasant professional attitude. I had forgotten to ask for a late checkout since the camp was ending at 12 noon on the following day and my son needed to shower before our trip home. It was a few minutes after noon when when we returned back to the hotel. I explained this to the clerk at the front desk and she stated that was not a problem.  We were able to return to our room and allow our son to shower before returning home. The beds were a little hard but we had plenty of pillows to help with that. The room was clean and towels were in good shape . I would definitely recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r133888510-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>133888510</t>
+  </si>
+  <si>
+    <t>excellent extended stay service</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here 52 nights while our house was repaired from fire damage and couldn't be happier. The staff was fantastic, friendly, and very helpful. Checking out was actually bitter sweet as we had come to enjoy the service with a smile, clean room, and hot breakfast every day. I would recommend everyone stay here whether it's for a night or a couple months.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here 52 nights while our house was repaired from fire damage and couldn't be happier. The staff was fantastic, friendly, and very helpful. Checking out was actually bitter sweet as we had come to enjoy the service with a smile, clean room, and hot breakfast every day. I would recommend everyone stay here whether it's for a night or a couple months.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r133705030-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>133705030</t>
+  </si>
+  <si>
+    <t>07/07/2012</t>
+  </si>
+  <si>
+    <t>"Southwestern Hospitality at it's Finest"</t>
+  </si>
+  <si>
+    <t>We can not say enough about how friendly, helpful and accommodating the staff was.  Their care and concern for our comfort and satisfaction went above and beyond any hotel we have stayed at.  Marco, the general manager, Joe, the assistant manager and all of the supportive staff treated us like family.  We would come back to this hotel in a heart beat if we ever came this way for vacation again.  It most certainly felt like our home away from home.  We highly reccommend anyone to stay at this hotel.  You won't be disappointed.The Bennett FamilyMoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2012</t>
+  </si>
+  <si>
+    <t>We can not say enough about how friendly, helpful and accommodating the staff was.  Their care and concern for our comfort and satisfaction went above and beyond any hotel we have stayed at.  Marco, the general manager, Joe, the assistant manager and all of the supportive staff treated us like family.  We would come back to this hotel in a heart beat if we ever came this way for vacation again.  It most certainly felt like our home away from home.  We highly reccommend anyone to stay at this hotel.  You won't be disappointed.The Bennett FamilyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r128253693-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>128253693</t>
+  </si>
+  <si>
+    <t>04/20/2012</t>
+  </si>
+  <si>
+    <t>Great Place in Houston</t>
+  </si>
+  <si>
+    <t>My family recently stayed here on a family vacation at the end of March. Hotel was very clean. We had a two-bedroom suite complete with a kitchen/sitting area which was spacious for my family. The complimentary breakfast was excellent. Most surprisingly was the social hour with complimentary beverages (beer, wine, pop, juice, and milk) and light dinner (salad, vegetable stir fry, fried rice). It was delicious and great way to relax after a long day. The best feature of the hotel is the staff. The service was beyond my expectation from front desk, management to cooking staff. I must say it was one of the best service I've seen in a hospitality industry, and I've stayed at many hotels. Definitely looking forward to staying here again next time in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Vernon01, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded April 24, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2012</t>
+  </si>
+  <si>
+    <t>My family recently stayed here on a family vacation at the end of March. Hotel was very clean. We had a two-bedroom suite complete with a kitchen/sitting area which was spacious for my family. The complimentary breakfast was excellent. Most surprisingly was the social hour with complimentary beverages (beer, wine, pop, juice, and milk) and light dinner (salad, vegetable stir fry, fried rice). It was delicious and great way to relax after a long day. The best feature of the hotel is the staff. The service was beyond my expectation from front desk, management to cooking staff. I must say it was one of the best service I've seen in a hospitality industry, and I've stayed at many hotels. Definitely looking forward to staying here again next time in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r126398793-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>126398793</t>
+  </si>
+  <si>
+    <t>03/20/2012</t>
+  </si>
+  <si>
+    <t>much better than expexted</t>
+  </si>
+  <si>
+    <t>we got this hotel through priceline.  the hotel was clean, spacious, breakfast (included) had a great selection of hot and cold food.  free computer access/copier and printer was useful.  didnt really use the pool or gym, but both look nice.  in a very good area, easy to get to local attractions ad highway 59.  great stay for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>Vernon01, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded April 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2012</t>
+  </si>
+  <si>
+    <t>we got this hotel through priceline.  the hotel was clean, spacious, breakfast (included) had a great selection of hot and cold food.  free computer access/copier and printer was useful.  didnt really use the pool or gym, but both look nice.  in a very good area, easy to get to local attractions ad highway 59.  great stay for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r126190558-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>126190558</t>
+  </si>
+  <si>
+    <t>03/16/2012</t>
+  </si>
+  <si>
+    <t>Service given by cooking staff</t>
+  </si>
+  <si>
+    <t>I had an extended stay from January 18 until March 16.  The rooms are great for the size, but the cleaning is not so great.  I have to write about the cooking staff. Blanca Barrios &amp; Rosa of your cooking staff made me feel at home during my stay there. They always greeted me by name, and made sure that I had everything that I needed. These ladies need to be commented on their committment to make sure that your stay at the Residence is a pleasent one.  All hats off to themMary M.MoreShow less</t>
+  </si>
+  <si>
+    <t>Vernon01, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded March 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2012</t>
+  </si>
+  <si>
+    <t>I had an extended stay from January 18 until March 16.  The rooms are great for the size, but the cleaning is not so great.  I have to write about the cooking staff. Blanca Barrios &amp; Rosa of your cooking staff made me feel at home during my stay there. They always greeted me by name, and made sure that I had everything that I needed. These ladies need to be commented on their committment to make sure that your stay at the Residence is a pleasent one.  All hats off to themMary M.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r122400293-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>122400293</t>
+  </si>
+  <si>
+    <t>01/02/2012</t>
+  </si>
+  <si>
+    <t>Good Construction Concessions</t>
+  </si>
+  <si>
+    <t>Just checking out today after a 5 day stay.  We were not aware that the hotel was undergoing major renovations when we booked our room.  Upon arrival, we found the breakfast area, weight room, and the 2nd floor closed for renovations.  Since I choose Residence Inn for their great breakfast, this was a big letdown.  We arrived at the hotel in the early morning hours and found our room to be lacking in several areas.  I went to the front desk and spoke with Erin who offered to upgrade us to another room.  Since we were tired from traveling, she said we could change later in the day.  Later in the day, we were placed in a great room that had been recently renovated.  I ask the manager could arrangements be made at another property for us to have at least one breakfast during our 5 day stay.  Accommodations were made.  I stayed at this hotel in 2010 and found it to be a great place with outstanding customer service.  The same held true for this visit.  We will come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>Vernon01, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded February 10, 2012</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2012</t>
+  </si>
+  <si>
+    <t>Just checking out today after a 5 day stay.  We were not aware that the hotel was undergoing major renovations when we booked our room.  Upon arrival, we found the breakfast area, weight room, and the 2nd floor closed for renovations.  Since I choose Residence Inn for their great breakfast, this was a big letdown.  We arrived at the hotel in the early morning hours and found our room to be lacking in several areas.  I went to the front desk and spoke with Erin who offered to upgrade us to another room.  Since we were tired from traveling, she said we could change later in the day.  Later in the day, we were placed in a great room that had been recently renovated.  I ask the manager could arrangements be made at another property for us to have at least one breakfast during our 5 day stay.  Accommodations were made.  I stayed at this hotel in 2010 and found it to be a great place with outstanding customer service.  The same held true for this visit.  We will come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r120253052-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>120253052</t>
+  </si>
+  <si>
+    <t>11/06/2011</t>
+  </si>
+  <si>
+    <t>Decent</t>
+  </si>
+  <si>
+    <t>The hotel was very clean and the staff was very friendly.  The furniture in the rooms were a bit dated but were also clean and very comfortable.  The breakfast spread was great as was the evening social hour.  The hotel is in a great location - close to shopping and restaurants.  Overall a good value.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r119977054-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>119977054</t>
+  </si>
+  <si>
+    <t>10/31/2011</t>
+  </si>
+  <si>
+    <t>Clean, friendly staff and great breakfast and weekly supper meals</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for work the October 24-28th, 2011.  Upon check in the staff was very friendly and accommodating.  The room and the hotel in general was very clean and organized.  They have great breakfast options from healthy cereals, yogurts and fruits to yummy eggs, sausages, waffles and many more options. 
+Every morning I was greet by a friendly lady at the breakfast area who asked me for the morning beverage of my choice. coffee and oj was my daily answer.  Every day during the week they have a food menu between 6 and 7:30pm.  The meals were very very good, pretty much homemade, some of them were even cooked on the grilled outside.  Very nice and the staff was very friendly as well! 
+The gym has two treadmills, both very new and nice, each with a small tv in front of it and a sound adapter so you can hook up your headset and watch the program of your choice.  The gym also a stepper and some weights.  Just enough for a nice work out to keep in shape while away from home.  
+The pool and the spa were nicely kept, there were some bugs in water, but this was due to the seasonal drought.  mosquitoes just came out that week very hard everywhere, just one of those things in Houston. There was no outside shower by the pool for a quick rinse before getting in, so it...Stayed at this hotel for work the October 24-28th, 2011.  Upon check in the staff was very friendly and accommodating.  The room and the hotel in general was very clean and organized.  They have great breakfast options from healthy cereals, yogurts and fruits to yummy eggs, sausages, waffles and many more options. Every morning I was greet by a friendly lady at the breakfast area who asked me for the morning beverage of my choice. coffee and oj was my daily answer.  Every day during the week they have a food menu between 6 and 7:30pm.  The meals were very very good, pretty much homemade, some of them were even cooked on the grilled outside.  Very nice and the staff was very friendly as well! The gym has two treadmills, both very new and nice, each with a small tv in front of it and a sound adapter so you can hook up your headset and watch the program of your choice.  The gym also a stepper and some weights.  Just enough for a nice work out to keep in shape while away from home.  The pool and the spa were nicely kept, there were some bugs in water, but this was due to the seasonal drought.  mosquitoes just came out that week very hard everywhere, just one of those things in Houston. There was no outside shower by the pool for a quick rinse before getting in, so it was a little disappointing.  I didn't play any basketball but the court outside just by the pool area seemed quite nice.Would definitely recommend to friends and family.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for work the October 24-28th, 2011.  Upon check in the staff was very friendly and accommodating.  The room and the hotel in general was very clean and organized.  They have great breakfast options from healthy cereals, yogurts and fruits to yummy eggs, sausages, waffles and many more options. 
+Every morning I was greet by a friendly lady at the breakfast area who asked me for the morning beverage of my choice. coffee and oj was my daily answer.  Every day during the week they have a food menu between 6 and 7:30pm.  The meals were very very good, pretty much homemade, some of them were even cooked on the grilled outside.  Very nice and the staff was very friendly as well! 
+The gym has two treadmills, both very new and nice, each with a small tv in front of it and a sound adapter so you can hook up your headset and watch the program of your choice.  The gym also a stepper and some weights.  Just enough for a nice work out to keep in shape while away from home.  
+The pool and the spa were nicely kept, there were some bugs in water, but this was due to the seasonal drought.  mosquitoes just came out that week very hard everywhere, just one of those things in Houston. There was no outside shower by the pool for a quick rinse before getting in, so it...Stayed at this hotel for work the October 24-28th, 2011.  Upon check in the staff was very friendly and accommodating.  The room and the hotel in general was very clean and organized.  They have great breakfast options from healthy cereals, yogurts and fruits to yummy eggs, sausages, waffles and many more options. Every morning I was greet by a friendly lady at the breakfast area who asked me for the morning beverage of my choice. coffee and oj was my daily answer.  Every day during the week they have a food menu between 6 and 7:30pm.  The meals were very very good, pretty much homemade, some of them were even cooked on the grilled outside.  Very nice and the staff was very friendly as well! The gym has two treadmills, both very new and nice, each with a small tv in front of it and a sound adapter so you can hook up your headset and watch the program of your choice.  The gym also a stepper and some weights.  Just enough for a nice work out to keep in shape while away from home.  The pool and the spa were nicely kept, there were some bugs in water, but this was due to the seasonal drought.  mosquitoes just came out that week very hard everywhere, just one of those things in Houston. There was no outside shower by the pool for a quick rinse before getting in, so it was a little disappointing.  I didn't play any basketball but the court outside just by the pool area seemed quite nice.Would definitely recommend to friends and family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r118153884-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>118153884</t>
+  </si>
+  <si>
+    <t>09/15/2011</t>
+  </si>
+  <si>
+    <t>Outstanding service!</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for a family wedding, too. (Hi, Jack!) Hotel staff was amazingly attentive! Every time we asked for something it was at our door in 2 minutes. Very helpful with directions, getting clothes steamed and ready for the big day etc. Breakfast was hot and plentiful. Weekday happy hour was appreciated :)  As has been mentioned, hotel not new but it was clean and seemed well cared for. The beds, however, did tend to make your back ache by morning.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r117864896-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>117864896</t>
+  </si>
+  <si>
+    <t>09/09/2011</t>
+  </si>
+  <si>
+    <t>Excellent service and management.</t>
+  </si>
+  <si>
+    <t>We visited Houston for a family wedding. The manager,  Joe Garcia, was very attentive. The location was clean and well cared for. Breakfast was excellent and well stocked all morning. This is a great location to stay at. If not brand new but it was clean and in good shape.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r116524238-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>116524238</t>
+  </si>
+  <si>
+    <t>08/10/2011</t>
+  </si>
+  <si>
+    <t>Hotel really needs upgrading</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 4 nights and it was okay but not really up to the Marriott standards we are accustomed to.  Our room was clean enough but very old looking and the bed actually made us sore after a few sleeps.  The pool water was clean but the pool itself needed a good scrubbing and almost appeared to be moldy?  Some of the rooms appeared to have been redone, you can see in while the made is cleaning and we obviously got a room that had yet to be done.  The ice machine in the fridge didn't work and when you are in Texas in July believe me you need ice!  The staff was friendly and helpful as per Marriott standards and the food in the buffet breakfast was nice, they had a waffle maker that made Texas shapped waffles LOL  Other than the need for a facelift and a pool cleaner it was fine.   Just so you know, Stafford county still allows folks to smoke inside the restaurants which was a shocker for us coming from Canada where you cannot smoke anywhere!  Just an FYIMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>RISugarland, General Manager at Residence Inn Houston Sugar Land, responded to this reviewResponded August 14, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2011</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 4 nights and it was okay but not really up to the Marriott standards we are accustomed to.  Our room was clean enough but very old looking and the bed actually made us sore after a few sleeps.  The pool water was clean but the pool itself needed a good scrubbing and almost appeared to be moldy?  Some of the rooms appeared to have been redone, you can see in while the made is cleaning and we obviously got a room that had yet to be done.  The ice machine in the fridge didn't work and when you are in Texas in July believe me you need ice!  The staff was friendly and helpful as per Marriott standards and the food in the buffet breakfast was nice, they had a waffle maker that made Texas shapped waffles LOL  Other than the need for a facelift and a pool cleaner it was fine.   Just so you know, Stafford county still allows folks to smoke inside the restaurants which was a shocker for us coming from Canada where you cannot smoke anywhere!  Just an FYIMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r80867210-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>80867210</t>
+  </si>
+  <si>
+    <t>09/24/2010</t>
+  </si>
+  <si>
+    <t>Never again here</t>
+  </si>
+  <si>
+    <t>Labor Day weekend - Walked in to the room only to visually see a bed bug roaming on the top of the sheets. Dirty stained tub, morning breakfast was just bad. Took forever to clean the rooms. Went to the pool with the kids and the pool had dirt and leaves floating all over it. Wi-Fi couldnt have been any slower.Employee at the desk was very kind and did what she could but the place is just a low end place to stay. Dont want to think this is the norm and we caught this place at a bad few days.. But wont be back.</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r73388098-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>73388098</t>
+  </si>
+  <si>
+    <t>08/02/2010</t>
+  </si>
+  <si>
+    <t>Wonderful Experience</t>
+  </si>
+  <si>
+    <t>My stay was pleasant and enjoyable. We stayed in the 2 bdr unit. The bedrooms were very clean and comfortable. The pull-out bed mattress had some really big stains on the bottom and was kinda gross. The furniture had one/two visible stains. The kitchen was clean and stocked with dishes. The breakfast was awesome!!!! Very good selections and healthy choices. The pool area was clean as well. The staff were very pleasant and very professional. Price was a bit high but I guess for the big breakfast and snacks in the evening, it's worth it.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r69525272-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>69525272</t>
+  </si>
+  <si>
+    <t>07/03/2010</t>
+  </si>
+  <si>
+    <t>Nice hotel perfect for buisness</t>
+  </si>
+  <si>
+    <t>This was a nice hotel with huge rooms and a nice little swimming pool outside. The rooms consisted of a lounge kitchen and an en-suite bedroom all clean tidy and fully stocked. The free breakfast had a good variety and tasty food. Every evening the hotel did "community evenings" for the residence but this was a nice way to describe the not bad food they laid on. The swimming pool had a BBQ area which we made use of more than once which was a nice feature if your staying for some time. Hotel staff we found were both helpful and friendly!!</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r31738179-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>31738179</t>
+  </si>
+  <si>
+    <t>06/06/2009</t>
+  </si>
+  <si>
+    <t>Up grade</t>
+  </si>
+  <si>
+    <t>Truthfully, Residence Inn has always been my favorite in hotels.  However, this one in Stafford, TX is out dated, it needs remodeling bad. Yet it is clean and the kitchen is just that a kitchen with china and silverware, instant hook-up to internet with no trouble. It's even pet friendly with a $100 deposit.</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r25691406-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>25691406</t>
+  </si>
+  <si>
+    <t>03/06/2009</t>
+  </si>
+  <si>
+    <t>Helpful, kind and friendly staff</t>
+  </si>
+  <si>
+    <t>Our family (2 adults, 2 kids) spent almost 2 weeks at this hotel while my husband did training for his job.  We had a two bedroom suite and it was comfortable.  Although having 3 TV's seemed excessive, it was a nice luxury because the boys could stay up late and watch their favorite show without bothering us.  The breakfast was great, every morning a good variety of eggs, potatoes, sausage, sometimes tortillas, always oatmeal (cooked in a crock, not the instant kind) and waffles (sometimes choice of chocolate or regular) bagels, muffins, donuts, dry cereal, always a big bowl of plain yogurt and frozen berries, fresh fruit, granola, plus salsa and jalapenos.  I couldn't have asked for more or better breakfast choices.  The staff was always helpful, able to answer any question and give advice on restaurants, grocery stores, haircut places, and using the toll roads for someone not familiar with driving in the area.  
+The two things I would have liked to change were the general condition of the place, it seems like it's time for a renovation.  The upholstered furniture was stained and dirty, the only thing available were some covers for the arms so we just put extra sheets over the chairs and couch.  The carpet was also stained in places, and there were dirty spots on doors and places where paint was peeling.  The pool was out of commission while we were there, but the hot...Our family (2 adults, 2 kids) spent almost 2 weeks at this hotel while my husband did training for his job.  We had a two bedroom suite and it was comfortable.  Although having 3 TV's seemed excessive, it was a nice luxury because the boys could stay up late and watch their favorite show without bothering us.  The breakfast was great, every morning a good variety of eggs, potatoes, sausage, sometimes tortillas, always oatmeal (cooked in a crock, not the instant kind) and waffles (sometimes choice of chocolate or regular) bagels, muffins, donuts, dry cereal, always a big bowl of plain yogurt and frozen berries, fresh fruit, granola, plus salsa and jalapenos.  I couldn't have asked for more or better breakfast choices.  The staff was always helpful, able to answer any question and give advice on restaurants, grocery stores, haircut places, and using the toll roads for someone not familiar with driving in the area.  The two things I would have liked to change were the general condition of the place, it seems like it's time for a renovation.  The upholstered furniture was stained and dirty, the only thing available were some covers for the arms so we just put extra sheets over the chairs and couch.  The carpet was also stained in places, and there were dirty spots on doors and places where paint was peeling.  The pool was out of commission while we were there, but the hot tub was in use.  The second problem was probably just what all hotels have, and that is the practice of charging ridiculously high rates for long distance phone calls made from the room phone.  Good grief, two phone calls to check on elderly parents in another state totaled almost 100 dollars.   Next time I will make sure my cell phone works in the area we are going and use it instead.If we were going again, I would check to see if this place was recently renovated and if not I might consider staying at a place that was.  Otherwise, this hotel is really great.  I have never stayed somewhere that had staff that was so consistently kind and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>Our family (2 adults, 2 kids) spent almost 2 weeks at this hotel while my husband did training for his job.  We had a two bedroom suite and it was comfortable.  Although having 3 TV's seemed excessive, it was a nice luxury because the boys could stay up late and watch their favorite show without bothering us.  The breakfast was great, every morning a good variety of eggs, potatoes, sausage, sometimes tortillas, always oatmeal (cooked in a crock, not the instant kind) and waffles (sometimes choice of chocolate or regular) bagels, muffins, donuts, dry cereal, always a big bowl of plain yogurt and frozen berries, fresh fruit, granola, plus salsa and jalapenos.  I couldn't have asked for more or better breakfast choices.  The staff was always helpful, able to answer any question and give advice on restaurants, grocery stores, haircut places, and using the toll roads for someone not familiar with driving in the area.  
+The two things I would have liked to change were the general condition of the place, it seems like it's time for a renovation.  The upholstered furniture was stained and dirty, the only thing available were some covers for the arms so we just put extra sheets over the chairs and couch.  The carpet was also stained in places, and there were dirty spots on doors and places where paint was peeling.  The pool was out of commission while we were there, but the hot...Our family (2 adults, 2 kids) spent almost 2 weeks at this hotel while my husband did training for his job.  We had a two bedroom suite and it was comfortable.  Although having 3 TV's seemed excessive, it was a nice luxury because the boys could stay up late and watch their favorite show without bothering us.  The breakfast was great, every morning a good variety of eggs, potatoes, sausage, sometimes tortillas, always oatmeal (cooked in a crock, not the instant kind) and waffles (sometimes choice of chocolate or regular) bagels, muffins, donuts, dry cereal, always a big bowl of plain yogurt and frozen berries, fresh fruit, granola, plus salsa and jalapenos.  I couldn't have asked for more or better breakfast choices.  The staff was always helpful, able to answer any question and give advice on restaurants, grocery stores, haircut places, and using the toll roads for someone not familiar with driving in the area.  The two things I would have liked to change were the general condition of the place, it seems like it's time for a renovation.  The upholstered furniture was stained and dirty, the only thing available were some covers for the arms so we just put extra sheets over the chairs and couch.  The carpet was also stained in places, and there were dirty spots on doors and places where paint was peeling.  The pool was out of commission while we were there, but the hot tub was in use.  The second problem was probably just what all hotels have, and that is the practice of charging ridiculously high rates for long distance phone calls made from the room phone.  Good grief, two phone calls to check on elderly parents in another state totaled almost 100 dollars.   Next time I will make sure my cell phone works in the area we are going and use it instead.If we were going again, I would check to see if this place was recently renovated and if not I might consider staying at a place that was.  Otherwise, this hotel is really great.  I have never stayed somewhere that had staff that was so consistently kind and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r22426078-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>22426078</t>
+  </si>
+  <si>
+    <t>12/03/2008</t>
+  </si>
+  <si>
+    <t>Great family hotel!</t>
+  </si>
+  <si>
+    <t>Stayed in the 2 bedroom suite- this was great since we have a baby and also had grandparents who wanted to spend time with the baby! It is like a small 2 bedroom apt. The staff was great. We had access to milk whenever we wanted for the baby &amp; the complimentary breakfast was a real breakfast with eggs, waffles, fruit, &amp; yogurt! We were very pleased!</t>
+  </si>
+  <si>
+    <t>November 2008</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1993,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2025,4103 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>80</v>
+      </c>
+      <c r="X7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>110</v>
+      </c>
+      <c r="X9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>118</v>
+      </c>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>127</v>
+      </c>
+      <c r="O11" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>136</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>137</v>
+      </c>
+      <c r="X12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>145</v>
+      </c>
+      <c r="X13" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14" t="s">
+        <v>152</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>153</v>
+      </c>
+      <c r="O14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>154</v>
+      </c>
+      <c r="X14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" t="s">
+        <v>159</v>
+      </c>
+      <c r="K15" t="s">
+        <v>160</v>
+      </c>
+      <c r="L15" t="s">
+        <v>161</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>162</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>154</v>
+      </c>
+      <c r="X15" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>165</v>
+      </c>
+      <c r="J16" t="s">
+        <v>166</v>
+      </c>
+      <c r="K16" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" t="s">
+        <v>168</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>162</v>
+      </c>
+      <c r="O16" t="s">
+        <v>169</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>154</v>
+      </c>
+      <c r="X16" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>172</v>
+      </c>
+      <c r="J17" t="s">
+        <v>173</v>
+      </c>
+      <c r="K17" t="s">
+        <v>174</v>
+      </c>
+      <c r="L17" t="s">
+        <v>175</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>176</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>178</v>
+      </c>
+      <c r="J18" t="s">
+        <v>179</v>
+      </c>
+      <c r="K18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L18" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>182</v>
+      </c>
+      <c r="O18" t="s">
+        <v>79</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>154</v>
+      </c>
+      <c r="X18" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>185</v>
+      </c>
+      <c r="J19" t="s">
+        <v>186</v>
+      </c>
+      <c r="K19" t="s">
+        <v>187</v>
+      </c>
+      <c r="L19" t="s">
+        <v>188</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>189</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>154</v>
+      </c>
+      <c r="X19" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>192</v>
+      </c>
+      <c r="J20" t="s">
+        <v>193</v>
+      </c>
+      <c r="K20" t="s">
+        <v>194</v>
+      </c>
+      <c r="L20" t="s">
+        <v>195</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>196</v>
+      </c>
+      <c r="O20" t="s">
+        <v>197</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>198</v>
+      </c>
+      <c r="X20" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>202</v>
+      </c>
+      <c r="J21" t="s">
+        <v>203</v>
+      </c>
+      <c r="K21" t="s">
+        <v>204</v>
+      </c>
+      <c r="L21" t="s">
+        <v>205</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>206</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>207</v>
+      </c>
+      <c r="X21" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22" t="s">
+        <v>212</v>
+      </c>
+      <c r="K22" t="s">
+        <v>213</v>
+      </c>
+      <c r="L22" t="s">
+        <v>214</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>215</v>
+      </c>
+      <c r="O22" t="s">
+        <v>197</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>216</v>
+      </c>
+      <c r="X22" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>220</v>
+      </c>
+      <c r="J23" t="s">
+        <v>221</v>
+      </c>
+      <c r="K23" t="s">
+        <v>222</v>
+      </c>
+      <c r="L23" t="s">
+        <v>223</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>224</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>225</v>
+      </c>
+      <c r="X23" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>228</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>229</v>
+      </c>
+      <c r="J24" t="s">
+        <v>230</v>
+      </c>
+      <c r="K24" t="s">
+        <v>231</v>
+      </c>
+      <c r="L24" t="s">
+        <v>232</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>233</v>
+      </c>
+      <c r="O24" t="s">
+        <v>101</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>234</v>
+      </c>
+      <c r="X24" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>237</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>238</v>
+      </c>
+      <c r="J25" t="s">
+        <v>239</v>
+      </c>
+      <c r="K25" t="s">
+        <v>240</v>
+      </c>
+      <c r="L25" t="s">
+        <v>241</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>242</v>
+      </c>
+      <c r="O25" t="s">
+        <v>169</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>234</v>
+      </c>
+      <c r="X25" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>244</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>245</v>
+      </c>
+      <c r="J26" t="s">
+        <v>246</v>
+      </c>
+      <c r="K26" t="s">
+        <v>247</v>
+      </c>
+      <c r="L26" t="s">
+        <v>248</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>249</v>
+      </c>
+      <c r="O26" t="s">
+        <v>79</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>250</v>
+      </c>
+      <c r="X26" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>253</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>254</v>
+      </c>
+      <c r="J27" t="s">
+        <v>255</v>
+      </c>
+      <c r="K27" t="s">
+        <v>256</v>
+      </c>
+      <c r="L27" t="s">
+        <v>257</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>258</v>
+      </c>
+      <c r="O27" t="s">
+        <v>79</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>259</v>
+      </c>
+      <c r="X27" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>262</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>263</v>
+      </c>
+      <c r="J28" t="s">
+        <v>264</v>
+      </c>
+      <c r="K28" t="s">
+        <v>265</v>
+      </c>
+      <c r="L28" t="s">
+        <v>266</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>267</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>268</v>
+      </c>
+      <c r="X28" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>271</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>272</v>
+      </c>
+      <c r="J29" t="s">
+        <v>273</v>
+      </c>
+      <c r="K29" t="s">
+        <v>274</v>
+      </c>
+      <c r="L29" t="s">
+        <v>275</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>276</v>
+      </c>
+      <c r="O29" t="s">
+        <v>79</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>277</v>
+      </c>
+      <c r="X29" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>280</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>281</v>
+      </c>
+      <c r="J30" t="s">
+        <v>282</v>
+      </c>
+      <c r="K30" t="s">
+        <v>283</v>
+      </c>
+      <c r="L30" t="s">
+        <v>284</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>276</v>
+      </c>
+      <c r="O30" t="s">
+        <v>79</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>277</v>
+      </c>
+      <c r="X30" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>286</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>287</v>
+      </c>
+      <c r="J31" t="s">
+        <v>288</v>
+      </c>
+      <c r="K31" t="s">
+        <v>289</v>
+      </c>
+      <c r="L31" t="s">
+        <v>290</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>249</v>
+      </c>
+      <c r="O31" t="s">
+        <v>79</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>291</v>
+      </c>
+      <c r="X31" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>294</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>295</v>
+      </c>
+      <c r="J32" t="s">
+        <v>296</v>
+      </c>
+      <c r="K32" t="s">
+        <v>297</v>
+      </c>
+      <c r="L32" t="s">
+        <v>298</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>249</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>299</v>
+      </c>
+      <c r="X32" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>302</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>303</v>
+      </c>
+      <c r="J33" t="s">
+        <v>304</v>
+      </c>
+      <c r="K33" t="s">
+        <v>305</v>
+      </c>
+      <c r="L33" t="s">
+        <v>306</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>307</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>308</v>
+      </c>
+      <c r="X33" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>311</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>312</v>
+      </c>
+      <c r="J34" t="s">
+        <v>313</v>
+      </c>
+      <c r="K34" t="s">
+        <v>314</v>
+      </c>
+      <c r="L34" t="s">
+        <v>315</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>316</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>317</v>
+      </c>
+      <c r="X34" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>320</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>321</v>
+      </c>
+      <c r="J35" t="s">
+        <v>322</v>
+      </c>
+      <c r="K35" t="s">
+        <v>323</v>
+      </c>
+      <c r="L35" t="s">
+        <v>324</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>325</v>
+      </c>
+      <c r="X35" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>328</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>329</v>
+      </c>
+      <c r="J36" t="s">
+        <v>330</v>
+      </c>
+      <c r="K36" t="s">
+        <v>331</v>
+      </c>
+      <c r="L36" t="s">
+        <v>332</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>333</v>
+      </c>
+      <c r="O36" t="s">
+        <v>79</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>334</v>
+      </c>
+      <c r="X36" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>337</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>338</v>
+      </c>
+      <c r="J37" t="s">
+        <v>339</v>
+      </c>
+      <c r="K37" t="s">
+        <v>340</v>
+      </c>
+      <c r="L37" t="s">
+        <v>341</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>342</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>343</v>
+      </c>
+      <c r="X37" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>346</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>347</v>
+      </c>
+      <c r="J38" t="s">
+        <v>348</v>
+      </c>
+      <c r="K38" t="s">
+        <v>349</v>
+      </c>
+      <c r="L38" t="s">
+        <v>350</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>351</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>352</v>
+      </c>
+      <c r="X38" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>355</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>356</v>
+      </c>
+      <c r="J39" t="s">
+        <v>357</v>
+      </c>
+      <c r="K39" t="s">
+        <v>358</v>
+      </c>
+      <c r="L39" t="s">
+        <v>359</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>360</v>
+      </c>
+      <c r="O39" t="s">
+        <v>79</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>361</v>
+      </c>
+      <c r="X39" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>364</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>365</v>
+      </c>
+      <c r="J40" t="s">
+        <v>366</v>
+      </c>
+      <c r="K40" t="s">
+        <v>367</v>
+      </c>
+      <c r="L40" t="s">
+        <v>368</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>369</v>
+      </c>
+      <c r="O40" t="s">
+        <v>79</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>370</v>
+      </c>
+      <c r="X40" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>373</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>374</v>
+      </c>
+      <c r="J41" t="s">
+        <v>375</v>
+      </c>
+      <c r="K41" t="s">
+        <v>376</v>
+      </c>
+      <c r="L41" t="s">
+        <v>377</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>378</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>379</v>
+      </c>
+      <c r="X41" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>382</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>383</v>
+      </c>
+      <c r="J42" t="s">
+        <v>384</v>
+      </c>
+      <c r="K42" t="s">
+        <v>385</v>
+      </c>
+      <c r="L42" t="s">
+        <v>386</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>387</v>
+      </c>
+      <c r="O42" t="s">
+        <v>79</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>388</v>
+      </c>
+      <c r="X42" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>391</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>392</v>
+      </c>
+      <c r="J43" t="s">
+        <v>393</v>
+      </c>
+      <c r="K43" t="s">
+        <v>394</v>
+      </c>
+      <c r="L43" t="s">
+        <v>395</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>378</v>
+      </c>
+      <c r="O43" t="s">
+        <v>79</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>396</v>
+      </c>
+      <c r="X43" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>399</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>400</v>
+      </c>
+      <c r="J44" t="s">
+        <v>401</v>
+      </c>
+      <c r="K44" t="s">
+        <v>402</v>
+      </c>
+      <c r="L44" t="s">
+        <v>403</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>404</v>
+      </c>
+      <c r="O44" t="s">
+        <v>79</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>405</v>
+      </c>
+      <c r="X44" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>408</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>409</v>
+      </c>
+      <c r="J45" t="s">
+        <v>401</v>
+      </c>
+      <c r="K45" t="s">
+        <v>410</v>
+      </c>
+      <c r="L45" t="s">
+        <v>411</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>404</v>
+      </c>
+      <c r="O45" t="s">
+        <v>79</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>405</v>
+      </c>
+      <c r="X45" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>413</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>414</v>
+      </c>
+      <c r="J46" t="s">
+        <v>415</v>
+      </c>
+      <c r="K46" t="s">
+        <v>416</v>
+      </c>
+      <c r="L46" t="s">
+        <v>417</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>404</v>
+      </c>
+      <c r="O46" t="s">
+        <v>79</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>418</v>
+      </c>
+      <c r="X46" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>421</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>422</v>
+      </c>
+      <c r="J47" t="s">
+        <v>423</v>
+      </c>
+      <c r="K47" t="s">
+        <v>424</v>
+      </c>
+      <c r="L47" t="s">
+        <v>425</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>426</v>
+      </c>
+      <c r="O47" t="s">
+        <v>79</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>427</v>
+      </c>
+      <c r="X47" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>430</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>431</v>
+      </c>
+      <c r="J48" t="s">
+        <v>432</v>
+      </c>
+      <c r="K48" t="s">
+        <v>433</v>
+      </c>
+      <c r="L48" t="s">
+        <v>434</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>426</v>
+      </c>
+      <c r="O48" t="s">
+        <v>169</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>435</v>
+      </c>
+      <c r="X48" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>438</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>439</v>
+      </c>
+      <c r="J49" t="s">
+        <v>440</v>
+      </c>
+      <c r="K49" t="s">
+        <v>441</v>
+      </c>
+      <c r="L49" t="s">
+        <v>442</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>426</v>
+      </c>
+      <c r="O49" t="s">
+        <v>197</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>443</v>
+      </c>
+      <c r="X49" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>446</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>447</v>
+      </c>
+      <c r="J50" t="s">
+        <v>448</v>
+      </c>
+      <c r="K50" t="s">
+        <v>449</v>
+      </c>
+      <c r="L50" t="s">
+        <v>450</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>451</v>
+      </c>
+      <c r="O50" t="s">
+        <v>101</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>452</v>
+      </c>
+      <c r="X50" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>455</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>456</v>
+      </c>
+      <c r="J51" t="s">
+        <v>457</v>
+      </c>
+      <c r="K51" t="s">
+        <v>458</v>
+      </c>
+      <c r="L51" t="s">
+        <v>459</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>460</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>461</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>462</v>
+      </c>
+      <c r="J52" t="s">
+        <v>463</v>
+      </c>
+      <c r="K52" t="s">
+        <v>464</v>
+      </c>
+      <c r="L52" t="s">
+        <v>465</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>460</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>467</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>468</v>
+      </c>
+      <c r="J53" t="s">
+        <v>469</v>
+      </c>
+      <c r="K53" t="s">
+        <v>470</v>
+      </c>
+      <c r="L53" t="s">
+        <v>471</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>472</v>
+      </c>
+      <c r="O53" t="s">
+        <v>79</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>473</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>474</v>
+      </c>
+      <c r="J54" t="s">
+        <v>475</v>
+      </c>
+      <c r="K54" t="s">
+        <v>476</v>
+      </c>
+      <c r="L54" t="s">
+        <v>477</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>472</v>
+      </c>
+      <c r="O54" t="s">
+        <v>79</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>478</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>479</v>
+      </c>
+      <c r="J55" t="s">
+        <v>480</v>
+      </c>
+      <c r="K55" t="s">
+        <v>481</v>
+      </c>
+      <c r="L55" t="s">
+        <v>482</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>483</v>
+      </c>
+      <c r="O55" t="s">
+        <v>169</v>
+      </c>
+      <c r="P55" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>2</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>484</v>
+      </c>
+      <c r="X55" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>487</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>488</v>
+      </c>
+      <c r="J56" t="s">
+        <v>489</v>
+      </c>
+      <c r="K56" t="s">
+        <v>490</v>
+      </c>
+      <c r="L56" t="s">
+        <v>491</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>492</v>
+      </c>
+      <c r="O56" t="s">
+        <v>79</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>493</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>494</v>
+      </c>
+      <c r="J57" t="s">
+        <v>495</v>
+      </c>
+      <c r="K57" t="s">
+        <v>496</v>
+      </c>
+      <c r="L57" t="s">
+        <v>497</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>498</v>
+      </c>
+      <c r="O57" t="s">
+        <v>79</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>499</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>500</v>
+      </c>
+      <c r="J58" t="s">
+        <v>501</v>
+      </c>
+      <c r="K58" t="s">
+        <v>502</v>
+      </c>
+      <c r="L58" t="s">
+        <v>503</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>504</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>505</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>506</v>
+      </c>
+      <c r="J59" t="s">
+        <v>507</v>
+      </c>
+      <c r="K59" t="s">
+        <v>508</v>
+      </c>
+      <c r="L59" t="s">
+        <v>509</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>510</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>511</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>512</v>
+      </c>
+      <c r="J60" t="s">
+        <v>513</v>
+      </c>
+      <c r="K60" t="s">
+        <v>514</v>
+      </c>
+      <c r="L60" t="s">
+        <v>515</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>516</v>
+      </c>
+      <c r="O60" t="s">
+        <v>79</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>518</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>519</v>
+      </c>
+      <c r="J61" t="s">
+        <v>520</v>
+      </c>
+      <c r="K61" t="s">
+        <v>521</v>
+      </c>
+      <c r="L61" t="s">
+        <v>522</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>523</v>
+      </c>
+      <c r="O61" t="s">
+        <v>79</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>522</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_548.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_548.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="826">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,57 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r591789892-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>56707</t>
+  </si>
+  <si>
+    <t>224129</t>
+  </si>
+  <si>
+    <t>591789892</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>Comfortable homely stay for 10 days</t>
+  </si>
+  <si>
+    <t>We were happy with our two bedroomed apartment which we shared with our son.  We had a fully equipped kitchen and full stove.  The staff were friendly and welcoming.  They have a breakfast included and there is a guest laundry with very reasonable cost.  We were most impressed as we had ordered a couple of parcels and then had to leave.  Alvin was good enough to make sure the parcels were redirected.  There were restaurants nearby and if you didn't have a car it was possible to walk about 20 mins to Walmart or under the freeway to the shopping centre located there.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r586695067-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>586695067</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>No WiFi and Room Occupied</t>
+  </si>
+  <si>
+    <t>As a Gold member I was usually offered a courtesy upgrade but this day they said that due to the lack of internet they were unable to offer the upgrade. Ok, I said!They gave a normal room but for my surprise when I opened the door there were lots of cloths inside, pool towels, fortunately there is none in the room because it could be extremely embarrassing.I returned to the front desk and at this time I really demand an upgrade to compensate the bad surprise.So, they have to call the manager to authorize that and I finally get a room with no other guests inside.Internet didn't return until I left the hotel the other day. Breakfast is merely acceptable.I don't believe I return.MoreShow less</t>
+  </si>
+  <si>
+    <t>As a Gold member I was usually offered a courtesy upgrade but this day they said that due to the lack of internet they were unable to offer the upgrade. Ok, I said!They gave a normal room but for my surprise when I opened the door there were lots of cloths inside, pool towels, fortunately there is none in the room because it could be extremely embarrassing.I returned to the front desk and at this time I really demand an upgrade to compensate the bad surprise.So, they have to call the manager to authorize that and I finally get a room with no other guests inside.Internet didn't return until I left the hotel the other day. Breakfast is merely acceptable.I don't believe I return.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r553801717-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
   </si>
   <si>
-    <t>56707</t>
-  </si>
-  <si>
-    <t>224129</t>
-  </si>
-  <si>
     <t>553801717</t>
   </si>
   <si>
@@ -237,6 +276,54 @@
     <t>The staff at this property are excellent.  They provide excellent service to their guests.  I was on business and become ill in the middle of the night.  They allowed me a late checkout, did not,rush me out, and allowed me to recover so I was able to travel back home in reasonable condition.  They could have charged me an extra day, and did not!  The hotel was clean and well maintained.  I would stay here again in a heart beat!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r521554128-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>521554128</t>
+  </si>
+  <si>
+    <t>09/05/2017</t>
+  </si>
+  <si>
+    <t>Great place to weather the Hurricane!</t>
+  </si>
+  <si>
+    <t>My husband and I, our daughter and son-in-law and 2 small grandchildren shared a 2 bedroom suite several days due to mandatory Hurricane evacuation. The lodging was clean, spacious and comfortable. The entire staff was friendly and helpful, from manager and front desk to the maintenance man who obtained swift repairs for a brief a/c problem. We were provided a great breakfast each day and dinner with wine/beer several nights. Staff was very helpful and patient with our process of getting FEMA approval for the temporary housing cost during the evacuation. Can't thank them enough for taking lots of stress out of this difficult situation.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Residence Inn Houston Sugar Land, responded to this reviewResponded September 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2017</t>
+  </si>
+  <si>
+    <t>My husband and I, our daughter and son-in-law and 2 small grandchildren shared a 2 bedroom suite several days due to mandatory Hurricane evacuation. The lodging was clean, spacious and comfortable. The entire staff was friendly and helpful, from manager and front desk to the maintenance man who obtained swift repairs for a brief a/c problem. We were provided a great breakfast each day and dinner with wine/beer several nights. Staff was very helpful and patient with our process of getting FEMA approval for the temporary housing cost during the evacuation. Can't thank them enough for taking lots of stress out of this difficult situation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r521141024-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>521141024</t>
+  </si>
+  <si>
+    <t>09/04/2017</t>
+  </si>
+  <si>
+    <t>Residence Inn Marriott Sugar La</t>
+  </si>
+  <si>
+    <t>I stayed at the Residence Inn Marriott Sugar Land and I must say that my stay was unpleasant.  My room was a 2Bedroom Suite.  As, I was getting prepared to sleep on the sofa bed, I noticed that there were tons of dog hair on the sofa bed couch as well as on the mattress.  I’m allergic to dogs and it was defiantly unpleasing.  I also noticed that my table wasn’t cleaned off completely and the sofa bed couch looked a little dirty.  During my stay on 9/3/17 am, I complained to the Manager, that my room was not cleaned as it should’ve been.  After expressing my concerns, all he did was apologize and not once offered any sort of compensation or accommodation.  I wasn’t aware of pets being allowed to stay at this hotel, but before check-in the cleaning staff should’ve been more attentive.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>I stayed at the Residence Inn Marriott Sugar Land and I must say that my stay was unpleasant.  My room was a 2Bedroom Suite.  As, I was getting prepared to sleep on the sofa bed, I noticed that there were tons of dog hair on the sofa bed couch as well as on the mattress.  I’m allergic to dogs and it was defiantly unpleasing.  I also noticed that my table wasn’t cleaned off completely and the sofa bed couch looked a little dirty.  During my stay on 9/3/17 am, I complained to the Manager, that my room was not cleaned as it should’ve been.  After expressing my concerns, all he did was apologize and not once offered any sort of compensation or accommodation.  I wasn’t aware of pets being allowed to stay at this hotel, but before check-in the cleaning staff should’ve been more attentive.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r507573867-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
   </si>
   <si>
@@ -255,9 +342,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>General M, General Manager at Residence Inn Houston Sugar Land, responded to this reviewResponded August 2, 2017</t>
   </si>
   <si>
@@ -306,6 +390,65 @@
     <t>I had a long trip from Longview TX. Car problems with Enterprise.  When I arrived Donavan greeted with such professionalism. He help me with my luggage. My room was great. Donovan came to my car help me unload, helped me to my room and assisted me putting my things away. The front always smiling welcoming me home when I came in. Also great breakfast. Would highly recommend this location.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r501581574-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>501581574</t>
+  </si>
+  <si>
+    <t>07/13/2017</t>
+  </si>
+  <si>
+    <t>Dirty Hotel</t>
+  </si>
+  <si>
+    <t>We decided to stay at the Residence Inn Sugarland because we were going to a concert at the Smart Financial Center and we live over an hour away. We didn't want to make the drive home late after the concert and thought that it would be a nice overnight mini-vacation to enjoy the show and dinner and not have to drive home afterwards. 
+We originally booked a 2 bedroom / 2 bathroom.  Upon check in I was informed that this was the last 2 bedroom / 2 bathroom available and they hoped it would be okay.  I got the key, went to the room (Room 117) and I was immediately overwhelmed by the smell of mold.  I looked around and noticed that the windows had mold all over them.  I didn't look anymore at the room because I immediately decided I would not stay in that room.
+On my way back to the front desk I noticed a dead cockroach on the floor in the hallway. 
+I went to the front desk and asked for a different room.  I was given a 1 bedroom right next door to 117 (Room 119).  I walk in and the room smelled like air freshener.  It was filthy!  Specifically:  
+1) there was mascara all over the bathroom mirror; 
+2) there were dead fire ants all over the windowsill;
+3) there was brown pieces of tissue all over the bathroom floor (gross);
+4) the couch...We decided to stay at the Residence Inn Sugarland because we were going to a concert at the Smart Financial Center and we live over an hour away. We didn't want to make the drive home late after the concert and thought that it would be a nice overnight mini-vacation to enjoy the show and dinner and not have to drive home afterwards. We originally booked a 2 bedroom / 2 bathroom.  Upon check in I was informed that this was the last 2 bedroom / 2 bathroom available and they hoped it would be okay.  I got the key, went to the room (Room 117) and I was immediately overwhelmed by the smell of mold.  I looked around and noticed that the windows had mold all over them.  I didn't look anymore at the room because I immediately decided I would not stay in that room.On my way back to the front desk I noticed a dead cockroach on the floor in the hallway. I went to the front desk and asked for a different room.  I was given a 1 bedroom right next door to 117 (Room 119).  I walk in and the room smelled like air freshener.  It was filthy!  Specifically:  1) there was mascara all over the bathroom mirror; 2) there were dead fire ants all over the windowsill;3) there was brown pieces of tissue all over the bathroom floor (gross);4) the couch had stains (honestly, very suspect)5) there was a tennis ball crammed underneath the cushion of the couch (I noticed when I tried to flip the cushion on the couch to see if the other side was not stained with obvious body fluid).6) there were pieces of dried shredded cheddar cheese all over the floor 7) the garbage can had no liner and there were remnants of old food at the bottom.I was willing to stick it out and I really didn't want to complain again (the sheets looked clean) so we moved our overnight bags in and headed to dinner and the concert. When we returned, I decided I could not stay in that filth.So, it's 11 o'clock at night and we decide to cut our losses and head home.  Packed our bags and headed out.  It was so late I didn't go by the front desk to tell them we were leaving because the room was gross.  So in all fairness I didn't give them a chance to give me another room, but I really shouldn't have to do that anyway. It was disappointing because just last weekend we had stayed at a Residence Inn in Tigard, Oregon and it was so clean, so nice, for the same price.  *Sigh* Also, the location is not really in the heart of Sugarland.  It's on the edge of a sketchy neighborhood, in Stafford, Texas.MoreShow less</t>
+  </si>
+  <si>
+    <t>We decided to stay at the Residence Inn Sugarland because we were going to a concert at the Smart Financial Center and we live over an hour away. We didn't want to make the drive home late after the concert and thought that it would be a nice overnight mini-vacation to enjoy the show and dinner and not have to drive home afterwards. 
+We originally booked a 2 bedroom / 2 bathroom.  Upon check in I was informed that this was the last 2 bedroom / 2 bathroom available and they hoped it would be okay.  I got the key, went to the room (Room 117) and I was immediately overwhelmed by the smell of mold.  I looked around and noticed that the windows had mold all over them.  I didn't look anymore at the room because I immediately decided I would not stay in that room.
+On my way back to the front desk I noticed a dead cockroach on the floor in the hallway. 
+I went to the front desk and asked for a different room.  I was given a 1 bedroom right next door to 117 (Room 119).  I walk in and the room smelled like air freshener.  It was filthy!  Specifically:  
+1) there was mascara all over the bathroom mirror; 
+2) there were dead fire ants all over the windowsill;
+3) there was brown pieces of tissue all over the bathroom floor (gross);
+4) the couch...We decided to stay at the Residence Inn Sugarland because we were going to a concert at the Smart Financial Center and we live over an hour away. We didn't want to make the drive home late after the concert and thought that it would be a nice overnight mini-vacation to enjoy the show and dinner and not have to drive home afterwards. We originally booked a 2 bedroom / 2 bathroom.  Upon check in I was informed that this was the last 2 bedroom / 2 bathroom available and they hoped it would be okay.  I got the key, went to the room (Room 117) and I was immediately overwhelmed by the smell of mold.  I looked around and noticed that the windows had mold all over them.  I didn't look anymore at the room because I immediately decided I would not stay in that room.On my way back to the front desk I noticed a dead cockroach on the floor in the hallway. I went to the front desk and asked for a different room.  I was given a 1 bedroom right next door to 117 (Room 119).  I walk in and the room smelled like air freshener.  It was filthy!  Specifically:  1) there was mascara all over the bathroom mirror; 2) there were dead fire ants all over the windowsill;3) there was brown pieces of tissue all over the bathroom floor (gross);4) the couch had stains (honestly, very suspect)5) there was a tennis ball crammed underneath the cushion of the couch (I noticed when I tried to flip the cushion on the couch to see if the other side was not stained with obvious body fluid).6) there were pieces of dried shredded cheddar cheese all over the floor 7) the garbage can had no liner and there were remnants of old food at the bottom.I was willing to stick it out and I really didn't want to complain again (the sheets looked clean) so we moved our overnight bags in and headed to dinner and the concert. When we returned, I decided I could not stay in that filth.So, it's 11 o'clock at night and we decide to cut our losses and head home.  Packed our bags and headed out.  It was so late I didn't go by the front desk to tell them we were leaving because the room was gross.  So in all fairness I didn't give them a chance to give me another room, but I really shouldn't have to do that anyway. It was disappointing because just last weekend we had stayed at a Residence Inn in Tigard, Oregon and it was so clean, so nice, for the same price.  *Sigh* Also, the location is not really in the heart of Sugarland.  It's on the edge of a sketchy neighborhood, in Stafford, Texas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r499065431-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>499065431</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>Business Travel</t>
+  </si>
+  <si>
+    <t>The room was comfortable and clean. Residence Inns are always a nice break from the 'normal' hotel room.  The iced coffee at breakfast was a pleasant surprise!!  All of the personnel I encountered were friendly and considerate.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Residence Inn Houston Sugar Land, responded to this reviewResponded July 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2017</t>
+  </si>
+  <si>
+    <t>The room was comfortable and clean. Residence Inns are always a nice break from the 'normal' hotel room.  The iced coffee at breakfast was a pleasant surprise!!  All of the personnel I encountered were friendly and considerate.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r498992543-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
   </si>
   <si>
@@ -372,9 +515,6 @@
     <t>Residence inn has been our favorite family hotel for a while. This one is definitely showing it's age. However, it fulfilled all our needs as usual. The staff was friendly. The location was very convenient. We made use of the full fridge in the kitchenette. With kids, the daily breakfast buffet was appreciated. I think it's too overpriced considering the condition. We had a nice stay otherwise.MoreShow less</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
     <t>General M, General Manager at Residence Inn Houston Sugar Land, responded to this reviewResponded June 19, 2017</t>
   </si>
   <si>
@@ -384,6 +524,57 @@
     <t>Residence inn has been our favorite family hotel for a while. This one is definitely showing it's age. However, it fulfilled all our needs as usual. The staff was friendly. The location was very convenient. We made use of the full fridge in the kitchenette. With kids, the daily breakfast buffet was appreciated. I think it's too overpriced considering the condition. We had a nice stay otherwise.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r485341111-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>485341111</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>Very enjoyable stay!</t>
+  </si>
+  <si>
+    <t>Waking up early to find Carmen had fresh coffee brewed downstairs at 5:00a.m was great. Yolanda working hard preparing breakfast. They both took time to chat and make you feel welcome although they were busy. The front desk, some names not known unfortunately, were always nice and accommodating. A big thank you to Erin Assistant Manager, Jackie, Jasmine, Manager, Reggie from another Marriott property, and others at the desk. Maintenance always busy. Never had any issue with anything not working as it should. Housekeeping daily kept our room tidy. A good hot and cold buffet breakfast from  6:30 - 9:00a.m M-F and from 7:00a.m - 10:00a.m. Saturday &amp; Sunday. On Monday - Wednesday evenings you will find the evening reception. Items change from dips,salads,burgers,bbq,to waffle sundaes. Beer, wine and soda are free during evening reception. Next to the front desk you can brouse items in the pantry to purchase such as soda,beer,water,ice cream and toiletry items. Two washer and dryers on the 2nd floor by the elevator are $1.00 to wash and $1.00 to dry. You can see the front desk for detergent and/or fabric softener. Walk next door to Pappadeaux's or a short drive to numerous restaurants and bars. (By taxi or Uber if drinking of course)A nice location with plenty of well lit parking. Quiet issue free 27 day stay. Would definitely return for nice large rooms, cleanliness and mainly the staff!MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Residence Inn Houston Sugar Land, responded to this reviewResponded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Waking up early to find Carmen had fresh coffee brewed downstairs at 5:00a.m was great. Yolanda working hard preparing breakfast. They both took time to chat and make you feel welcome although they were busy. The front desk, some names not known unfortunately, were always nice and accommodating. A big thank you to Erin Assistant Manager, Jackie, Jasmine, Manager, Reggie from another Marriott property, and others at the desk. Maintenance always busy. Never had any issue with anything not working as it should. Housekeeping daily kept our room tidy. A good hot and cold buffet breakfast from  6:30 - 9:00a.m M-F and from 7:00a.m - 10:00a.m. Saturday &amp; Sunday. On Monday - Wednesday evenings you will find the evening reception. Items change from dips,salads,burgers,bbq,to waffle sundaes. Beer, wine and soda are free during evening reception. Next to the front desk you can brouse items in the pantry to purchase such as soda,beer,water,ice cream and toiletry items. Two washer and dryers on the 2nd floor by the elevator are $1.00 to wash and $1.00 to dry. You can see the front desk for detergent and/or fabric softener. Walk next door to Pappadeaux's or a short drive to numerous restaurants and bars. (By taxi or Uber if drinking of course)A nice location with plenty of well lit parking. Quiet issue free 27 day stay. Would definitely return for nice large rooms, cleanliness and mainly the staff!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r460047091-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>460047091</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>It felt almost like home.</t>
+  </si>
+  <si>
+    <t>Room was great on first floor, the staff was friendly and helpful and quickly learned first my first name, the breakfast was always excellent.  The wifi in the room was always available and worked well.  The staff that took care of my room did very good to excellent job each day.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Residence Inn Houston Sugar Land, responded to this reviewResponded March 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2017</t>
+  </si>
+  <si>
+    <t>Room was great on first floor, the staff was friendly and helpful and quickly learned first my first name, the breakfast was always excellent.  The wifi in the room was always available and worked well.  The staff that took care of my room did very good to excellent job each day.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r425455348-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
   </si>
   <si>
@@ -462,6 +653,57 @@
     <t>Cock roachs in the lobby and hall way.Mold in a picture in my room.Zero empathy from any staff memeber.I asked the GM to call me to explain my concerns, never called me back.Left a message on the customer service hotline and was never given a call back.2 of our cars were broken into and the manager could have cared less but loved talking about North Dakota State and NEVER asked how he could help us. And made comments about how this has been going on for months with customers cars being broken into.I've never been this dissatisfied with Marriot EVER!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r414811050-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>414811050</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t>Smelly rooms</t>
+  </si>
+  <si>
+    <t>I had 10 rooms booked for a group. As soon as I walked into my room, the smell hit me (old/moldy). Everyone in the group also complained about the smell in their rooms.Other than that, the rooms are nice and large. A little old and outdated (but typical Residence Inn). The Marriott Courtyard next door seemed a little newer and more up to date.The staff were super nice and friendly. A little updating in the rooms would be nice!MoreShow less</t>
+  </si>
+  <si>
+    <t>Thomas I, General Manager at Residence Inn Houston Sugar Land, responded to this reviewResponded September 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2016</t>
+  </si>
+  <si>
+    <t>I had 10 rooms booked for a group. As soon as I walked into my room, the smell hit me (old/moldy). Everyone in the group also complained about the smell in their rooms.Other than that, the rooms are nice and large. A little old and outdated (but typical Residence Inn). The Marriott Courtyard next door seemed a little newer and more up to date.The staff were super nice and friendly. A little updating in the rooms would be nice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r375948142-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>375948142</t>
+  </si>
+  <si>
+    <t>05/23/2016</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>As a mom of two toddlers, a clean hotel room is very important to me and this one did not let me down.  Everything was spic and span and there were no odors (no strong cleaners, no funky smells, just...odorless).  Linens were crisp and towels were fresh.  The pool was clean and clear and just the right temp.  Staff (all of them!) were friendly and greeted us at every turn.  Breakfast was fresh, hot or cold as needed, and had a good variety.  Very satisfied and will be returning!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Thomas I, General Manager at Residence Inn Houston Sugar Land, responded to this reviewResponded May 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2016</t>
+  </si>
+  <si>
+    <t>As a mom of two toddlers, a clean hotel room is very important to me and this one did not let me down.  Everything was spic and span and there were no odors (no strong cleaners, no funky smells, just...odorless).  Linens were crisp and towels were fresh.  The pool was clean and clear and just the right temp.  Staff (all of them!) were friendly and greeted us at every turn.  Breakfast was fresh, hot or cold as needed, and had a good variety.  Very satisfied and will be returning!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r358283400-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
   </si>
   <si>
@@ -480,12 +722,6 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t>Thomas I, General Manager at Residence Inn Houston Sugar Land, responded to this reviewResponded May 25, 2016</t>
-  </si>
-  <si>
-    <t>Responded May 25, 2016</t>
-  </si>
-  <si>
     <t>I love this place maid services always on time they clean up and do a very great job managers very respectful staff is very respectful nice hotel room suites very comfortable very quiet clean atmosphere in a very clean location I enjoyed my stay and I will be coming backMore</t>
   </si>
   <si>
@@ -531,6 +767,45 @@
     <t>Very clean rooms and well maintained hotel. Staff is very helpful and good variety in free breakfast. Hotel is on the outskirt of Houston if you are planning to roam in Houston, it's far away from major attractions.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r336936121-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>336936121</t>
+  </si>
+  <si>
+    <t>01/03/2016</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Stayed one night for a holiday visit. We stayed in a two bedroom sweet. First, I love the layout of these Residence Inn suites. Second, I love them being a pet friendly facility for my best friend and favorite cocker spaniel.  Third, staff was very friendly.  But...The property is older and needs a face lift. Not gross, just a little tired. The fireplace in our room did not work. The breakfast was not up to expectations. Not a bad place to stay, but just average. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Stayed one night for a holiday visit. We stayed in a two bedroom sweet. First, I love the layout of these Residence Inn suites. Second, I love them being a pet friendly facility for my best friend and favorite cocker spaniel.  Third, staff was very friendly.  But...The property is older and needs a face lift. Not gross, just a little tired. The fireplace in our room did not work. The breakfast was not up to expectations. Not a bad place to stay, but just average. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r325043986-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>325043986</t>
+  </si>
+  <si>
+    <t>11/07/2015</t>
+  </si>
+  <si>
+    <t>Pertty Hotel</t>
+  </si>
+  <si>
+    <t>My family spent two nights at this hotel. The hotel is located in complex of three or four hotels side by side in a quiet and security area. There are many flowers and greenery, large parking lot. The room is cozy and comfortable. The swimming pool is small but my daughter would love this pool.The breakfast in the hotel is very good. We are very happy and highly recommend this hotel to everyone</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r309687552-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
   </si>
   <si>
@@ -591,6 +866,45 @@
     <t>checked-in for 1 night on my way to the rio grande from florida. had to wait a while at the front desk because it was unattended -20minutes later the front desk lady appeared and i was given my room keys. room was clean with fresh towels and clean bedsheets, which i've come to expected from a marriott facility. it's a little difficult finding this facility because of the convoluted I-69 (tx59) highway system even with a gps, but was able to get it on the 2nd try. the dinning room is good and breakfast has several hot choices. the only issue i had was that the front desk did not give me an statement, as other marriott facilities do, saying that i had booked it online and that i should be getting it from them. i asked her if she would enter my rewards number, but i believe she never did because i am not finding that stay in my rewards activity. still, it was a good stay with a good night's rest.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r281944697-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>281944697</t>
+  </si>
+  <si>
+    <t>06/21/2015</t>
+  </si>
+  <si>
+    <t>almost 1 year since last visit - still worth it</t>
+  </si>
+  <si>
+    <t>owners have maintained the property - kept it clean - they work hard at keeping up it up to speed. starting to show wear. could use an overall update - evening socials are done well. Breakfasts are ok, area is kept clean and appetizingMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>owners have maintained the property - kept it clean - they work hard at keeping up it up to speed. starting to show wear. could use an overall update - evening socials are done well. Breakfasts are ok, area is kept clean and appetizingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r274865589-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>274865589</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Predictably great</t>
+  </si>
+  <si>
+    <t>we often stay at residence inns. They are comfortable, clean and staff goes out of the way to be accommodating. The Sugarland residence inn was all that and more. I especially appreciate the hot breakfast with many options. We will return.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r260548964-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
   </si>
   <si>
@@ -675,6 +989,59 @@
     <t>First, I would like to say that I am a Gold Elite member with Marriott, so I have stayed at a lot of Marriott Hotels. What I like about this one (and all Residence Inns for that matter) is the friendly and approachable staff. If I'm coming in or leaving, they say "Hello" or "Have a nice day!" etc. every time. I always like to ask for good restaurants in the area, and I was always provided with one that was excellent. The breakfast in the morning is what you would expect and the evening social (Monday - Wednesday) has limited choices, but the food is good. I stayed in a 1 bedroom suite. If I'm ever back in the Stafford area, I would definitely choose this hotel again. My rating would be 4.5 but trip advisor won't let me do it. I rounded up because of the friendliness of the staff which is better than normal.Note: I'm not sure if the wifi is free for everyone, as I don't pay for it for being a Gold Elite member.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r224082673-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>224082673</t>
+  </si>
+  <si>
+    <t>08/24/2014</t>
+  </si>
+  <si>
+    <t>Great staff!</t>
+  </si>
+  <si>
+    <t>I had to amend my earlier review of the Stafford Residence Inn, so I'll just reiterate the same points as before. Essentially, this Residence Inn was a haven for us. We had never been to Texas and needed a place to stay within a 24 hour time frame since we were adopting our son. It was a whirlwind for both my wife and I, and the first place we opted to stay was the Residence Inn. My wife had talked with Ben on the phone the night prior to our flight. Like Erin and other staff members, he was great about helping us the entire time, and worked out what ended up being a long stay of 10 days for us in the area. The staff could not have been more accommodating. When we finally found out that we could leave the state and drive home, the staff gave us an extra late checkout so we could literally throw everything in the car and take off (which we did!) since we didn't know we could leave until 11:55!
+The hotel itself is clean, well run and centrally located between Houston and Sugar Land. There is a Harley dealership in front of it, but there was hardly any noise generated by it at any point. The pool is small and outdoors, and we never had the chance to use it. However I did use the exercise room  a few times, which...I had to amend my earlier review of the Stafford Residence Inn, so I'll just reiterate the same points as before. Essentially, this Residence Inn was a haven for us. We had never been to Texas and needed a place to stay within a 24 hour time frame since we were adopting our son. It was a whirlwind for both my wife and I, and the first place we opted to stay was the Residence Inn. My wife had talked with Ben on the phone the night prior to our flight. Like Erin and other staff members, he was great about helping us the entire time, and worked out what ended up being a long stay of 10 days for us in the area. The staff could not have been more accommodating. When we finally found out that we could leave the state and drive home, the staff gave us an extra late checkout so we could literally throw everything in the car and take off (which we did!) since we didn't know we could leave until 11:55!The hotel itself is clean, well run and centrally located between Houston and Sugar Land. There is a Harley dealership in front of it, but there was hardly any noise generated by it at any point. The pool is small and outdoors, and we never had the chance to use it. However I did use the exercise room  a few times, which was perfect with its own adjustable A/C. Breakfast has plenty of options, and while some of the hot food was (as you'd expect) a mixed bag, it was convenient to grab something on the go. The evening meal offerings (from Mon-Thrs) were superior the few times we were there to check them out. There's also a small laundry that was quite busy on the 2nd floor as well. TV options and the sets themselves were all right on the mark, the beds were also comfortable. The few times we needed something picked up or had a question, the staff was there to take care of it.Overall we couldn't thank the staff enough for all their help and won't forget it!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded August 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2014</t>
+  </si>
+  <si>
+    <t>I had to amend my earlier review of the Stafford Residence Inn, so I'll just reiterate the same points as before. Essentially, this Residence Inn was a haven for us. We had never been to Texas and needed a place to stay within a 24 hour time frame since we were adopting our son. It was a whirlwind for both my wife and I, and the first place we opted to stay was the Residence Inn. My wife had talked with Ben on the phone the night prior to our flight. Like Erin and other staff members, he was great about helping us the entire time, and worked out what ended up being a long stay of 10 days for us in the area. The staff could not have been more accommodating. When we finally found out that we could leave the state and drive home, the staff gave us an extra late checkout so we could literally throw everything in the car and take off (which we did!) since we didn't know we could leave until 11:55!
+The hotel itself is clean, well run and centrally located between Houston and Sugar Land. There is a Harley dealership in front of it, but there was hardly any noise generated by it at any point. The pool is small and outdoors, and we never had the chance to use it. However I did use the exercise room  a few times, which...I had to amend my earlier review of the Stafford Residence Inn, so I'll just reiterate the same points as before. Essentially, this Residence Inn was a haven for us. We had never been to Texas and needed a place to stay within a 24 hour time frame since we were adopting our son. It was a whirlwind for both my wife and I, and the first place we opted to stay was the Residence Inn. My wife had talked with Ben on the phone the night prior to our flight. Like Erin and other staff members, he was great about helping us the entire time, and worked out what ended up being a long stay of 10 days for us in the area. The staff could not have been more accommodating. When we finally found out that we could leave the state and drive home, the staff gave us an extra late checkout so we could literally throw everything in the car and take off (which we did!) since we didn't know we could leave until 11:55!The hotel itself is clean, well run and centrally located between Houston and Sugar Land. There is a Harley dealership in front of it, but there was hardly any noise generated by it at any point. The pool is small and outdoors, and we never had the chance to use it. However I did use the exercise room  a few times, which was perfect with its own adjustable A/C. Breakfast has plenty of options, and while some of the hot food was (as you'd expect) a mixed bag, it was convenient to grab something on the go. The evening meal offerings (from Mon-Thrs) were superior the few times we were there to check them out. There's also a small laundry that was quite busy on the 2nd floor as well. TV options and the sets themselves were all right on the mark, the beds were also comfortable. The few times we needed something picked up or had a question, the staff was there to take care of it.Overall we couldn't thank the staff enough for all their help and won't forget it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r215048968-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>215048968</t>
+  </si>
+  <si>
+    <t>07/12/2014</t>
+  </si>
+  <si>
+    <t>Perfect for five</t>
+  </si>
+  <si>
+    <t>Stayed in the two bedroom suite for five nights. We were a group of two adults and five teenagers. The room was perfect size for us. The two bathrooms was also important to have. We were able to have separate areas for all.Location is convent to Sugar Land were we spent most if our time. Plenty of restaurants, shopping, and entertainment close by. Being right by the Southwest freeway made it easy for us to get to the Galleria and museum areas of Houston.We all enjoyed breakfast each morning. There was a variety of choices everyday. Blanca was the name of the employee monitoring the area each morning. She always greeted as with a hello and smile. We stayed one evening for dinner. The quality of dinner was not up to the breakfast choices.The hotel was very quiet. We did not hear others walking down the hall or voices through the wall. With three tv's in the room we each had the ability to relax in the evening with some variety of what we each wanted to watch.MoreShow less</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded July 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2014</t>
+  </si>
+  <si>
+    <t>Stayed in the two bedroom suite for five nights. We were a group of two adults and five teenagers. The room was perfect size for us. The two bathrooms was also important to have. We were able to have separate areas for all.Location is convent to Sugar Land were we spent most if our time. Plenty of restaurants, shopping, and entertainment close by. Being right by the Southwest freeway made it easy for us to get to the Galleria and museum areas of Houston.We all enjoyed breakfast each morning. There was a variety of choices everyday. Blanca was the name of the employee monitoring the area each morning. She always greeted as with a hello and smile. We stayed one evening for dinner. The quality of dinner was not up to the breakfast choices.The hotel was very quiet. We did not hear others walking down the hall or voices through the wall. With three tv's in the room we each had the ability to relax in the evening with some variety of what we each wanted to watch.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r207569419-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
   </si>
   <si>
@@ -750,6 +1117,57 @@
     <t>We were greeted at check in a very friendly way and unbelievably our stay kept getting better and better.   The room is a one bedroom suite with an adjoining full kitchen and living room with desk and small dining table and sofa.  There is a social Mon-Thursday and we had meatballs and spaghetti, salad, dessert with complementary wine, beer and soft drinks.  In the morning there was a better than average breakfast with sausage, egg and cheese biscuits which were freshly made, not those pre packed types.  There was also fresh scrambled eggs, Canadian bacon, melon, oatmeal, cereal, granola parfait, and more.  The mattress was really comfortable and there are two flat screen tv's.   All the employees were friendly and helpful.  We made a note to stay here again.  The only negative was the location did not show up correctly in our gps, but we have it marked for the future.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r190085704-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>190085704</t>
+  </si>
+  <si>
+    <t>01/07/2014</t>
+  </si>
+  <si>
+    <t>Hotel was adequate but front desk service was stellar !!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel with my brother and sister in law for 4 nights over the holidays because of a family emergency. The hotel was just ok ( breakfast, workout room, location, accommodations in the room etc.) The location was a bit confusing to find off of the 90A as well. But the people at the from desk were extremely accomodating, friendly and helpful and really made up for a lot of things!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded January 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2014</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel with my brother and sister in law for 4 nights over the holidays because of a family emergency. The hotel was just ok ( breakfast, workout room, location, accommodations in the room etc.) The location was a bit confusing to find off of the 90A as well. But the people at the from desk were extremely accomodating, friendly and helpful and really made up for a lot of things!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r188054818-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>188054818</t>
+  </si>
+  <si>
+    <t>12/19/2013</t>
+  </si>
+  <si>
+    <t>Good if you're looking for a 2 room suite</t>
+  </si>
+  <si>
+    <t>The full kitchen is a plus and the kids enjoyed the complimentary microwave popcorn.  The breakfast area was very crowed and they had trouble keeping up with the demand but the staff made an definite effort.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded December 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2013</t>
+  </si>
+  <si>
+    <t>The full kitchen is a plus and the kids enjoyed the complimentary microwave popcorn.  The breakfast area was very crowed and they had trouble keeping up with the demand but the staff made an definite effort.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r185544102-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
   </si>
   <si>
@@ -831,6 +1249,57 @@
     <t>Stayed here for a few weeks while working in the area. Do not let the Marriott name fool you. THIS PLACE IS HORRIBLE. DIRTY ROOMS, RUDE AND UNPROFESSIONAL STAFF. The lady who booked my room went on and on about the fabulous "full breakfast and hot dinner buffett". THAT WAS A LIE TOO. Breakfast was just some slushy scrambled eggs and microwaved sausage and "dinner buffet" included NACHO NIGHT (a cheap bag of tortilla chips and some melted cheese, SALAD NIGHT (a bag of lettuce and a few tomatoes), CHILI NIGHT ( a cheap disgusting can of non brand name chili and left over nacho chips from NACHO NIGHT. I observed on several occasions where the general manager (owner?) basically told the kitchen girl to stop putting more food out and then just tell the guests that they "ran out of food." Basically, the breakfast and dinner buffets were a total joke but they use this sales pitch to justify the overpricing because you can get into a cheap and cleaner and bigger room with full professional staff down the streets at another hotel. The staff was always rude and unprofessional if you have any concerns or questions. They rooms are filthy and housekeeping do a horrible job and none of them speak any English whatsoever. I have already complained to my company to not put anyone else here. SAVE YOURSELF THE OVERPRICED RATE AND RUDE STAFF AND HEADACHE, DO...Stayed here for a few weeks while working in the area. Do not let the Marriott name fool you. THIS PLACE IS HORRIBLE. DIRTY ROOMS, RUDE AND UNPROFESSIONAL STAFF. The lady who booked my room went on and on about the fabulous "full breakfast and hot dinner buffett". THAT WAS A LIE TOO. Breakfast was just some slushy scrambled eggs and microwaved sausage and "dinner buffet" included NACHO NIGHT (a cheap bag of tortilla chips and some melted cheese, SALAD NIGHT (a bag of lettuce and a few tomatoes), CHILI NIGHT ( a cheap disgusting can of non brand name chili and left over nacho chips from NACHO NIGHT. I observed on several occasions where the general manager (owner?) basically told the kitchen girl to stop putting more food out and then just tell the guests that they "ran out of food." Basically, the breakfast and dinner buffets were a total joke but they use this sales pitch to justify the overpricing because you can get into a cheap and cleaner and bigger room with full professional staff down the streets at another hotel. The staff was always rude and unprofessional if you have any concerns or questions. They rooms are filthy and housekeeping do a horrible job and none of them speak any English whatsoever. I have already complained to my company to not put anyone else here. SAVE YOURSELF THE OVERPRICED RATE AND RUDE STAFF AND HEADACHE, DO NOT STAY HERE! 2 WEEKS OF HELL FOR ME!!!! NEVER AGAIN!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r175614303-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>175614303</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Second Visit</t>
+  </si>
+  <si>
+    <t>The first time I stayed here was last August when we evacuated for Hurricane Issac.  It was a nice stay; very comfortable, but unfortunately, not so quiet.  There was some construction going on to the exterior of the building right outside of our room.  That made for some loud mornings but there was nothing we could do.  Other than that, we had no complaints.  The room was clean, comfortable and spacious until we could wait out the weather and return home.This time around there was no construction so it was alot better.  The room was clean, comfortable and spacious.  They allow pets so our dog was able to stay.  The sofa bed needs more cushioning so my only suggestion would be to add two more blankets to the linen package in the top of the closet so that the mattress can be padded down more and made softer.  The breakfast buffet was fine.  Lots of coffee and tea options.  Eggs, potatoes, waffles, fresh fruit, yogurt, bagels, toast, juices and milk to get you full.  The staff was friendly and nice; always saying "good morning" and asking how the food was.  This hotel is close to gas stations, grocery stores, shopping and restaurants.  It's located right off of the freeway so it's easy to find.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded September 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2013</t>
+  </si>
+  <si>
+    <t>The first time I stayed here was last August when we evacuated for Hurricane Issac.  It was a nice stay; very comfortable, but unfortunately, not so quiet.  There was some construction going on to the exterior of the building right outside of our room.  That made for some loud mornings but there was nothing we could do.  Other than that, we had no complaints.  The room was clean, comfortable and spacious until we could wait out the weather and return home.This time around there was no construction so it was alot better.  The room was clean, comfortable and spacious.  They allow pets so our dog was able to stay.  The sofa bed needs more cushioning so my only suggestion would be to add two more blankets to the linen package in the top of the closet so that the mattress can be padded down more and made softer.  The breakfast buffet was fine.  Lots of coffee and tea options.  Eggs, potatoes, waffles, fresh fruit, yogurt, bagels, toast, juices and milk to get you full.  The staff was friendly and nice; always saying "good morning" and asking how the food was.  This hotel is close to gas stations, grocery stores, shopping and restaurants.  It's located right off of the freeway so it's easy to find.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r174181632-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>174181632</t>
+  </si>
+  <si>
+    <t>08/26/2013</t>
+  </si>
+  <si>
+    <t>Will stay here again.</t>
+  </si>
+  <si>
+    <t>This place has great staff. So friendly &amp; helpful.  Always smiling.  What a pleasure.  Suite was clean, bed was very comfortable. TV was large enough for the room &amp; could be turned to face sofa or bed.   Nice design.  Enjoyed the breakfast buffet options also.  Used elliptical trainer in workout room. Felt safe, good location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded September 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2013</t>
+  </si>
+  <si>
+    <t>This place has great staff. So friendly &amp; helpful.  Always smiling.  What a pleasure.  Suite was clean, bed was very comfortable. TV was large enough for the room &amp; could be turned to face sofa or bed.   Nice design.  Enjoyed the breakfast buffet options also.  Used elliptical trainer in workout room. Felt safe, good location.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r174049286-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
   </si>
   <si>
@@ -846,9 +1315,6 @@
     <t>Our family is being relocated to Houston area and we were put up in the Residence Inn by Marriot Sugar Land. The staff were so friendly and helpful. The room was clean and spacious as we had a 2 bedroom suite. The breakfast in the morning was fabulous as we each found lots of options to enjoy. They also had an evening supper like buffet where each day was different. Again, there was something for everyone. We had a kitchenette in our room but only used the fridge but they were full size appliances so if you did want to cook you certainly would be able to. The friendly staff really made our stay complete in a city new to us! Thanks so much to Linda who was always smiling and friendly and to the other staff as well who made us feel at home.MoreShow less</t>
   </si>
   <si>
-    <t>August 2013</t>
-  </si>
-  <si>
     <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded August 26, 2013</t>
   </si>
   <si>
@@ -900,6 +1366,45 @@
     <t>My family staied there for 2 weeks and gonna leave tomorrow morning, and we have tried different hotels in Houston, this is the best. The staff there are most hospitality people I met, special thanks to Linda and Peter. They also many convenient service make your stay much more easier-  room with cooking and oven equitpments; free light dinner Mon.- Thur.; free ice; free biz center. I surely will return any time travel to Houston.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r170235594-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>170235594</t>
+  </si>
+  <si>
+    <t>07/31/2013</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>We stayed here in July and really enjoyed my stay with family. The hotel is clean,and is well kept.my kids liked the pool with play items. The staff is friendly and helpful as well. Location could be closer to good shopping in restaurants, but with a vehicle, you can get to these within 10-15 minutes. If I am back in the area,we will be back.Special Thanks to Linda Evans at Front Desk! She is great and helpful!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here in July and really enjoyed my stay with family. The hotel is clean,and is well kept.my kids liked the pool with play items. The staff is friendly and helpful as well. Location could be closer to good shopping in restaurants, but with a vehicle, you can get to these within 10-15 minutes. If I am back in the area,we will be back.Special Thanks to Linda Evans at Front Desk! She is great and helpful!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r170223104-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>170223104</t>
+  </si>
+  <si>
+    <t>Make yourself at home...</t>
+  </si>
+  <si>
+    <t>We had the pleasure of staying at this Residence Inn for two months while on a work assignment. It's in a great location, with easy access to the highway, and not terribly far from downtown when you want to go in for a nice meal or more touristy activities. 
+In the area of the hotel there are great local restaurants, and you don't feel like you're stuck out in the the burbs (even if you are). As for the hotel itself, it's very clean and well-maintained.Rooms are modern and comfortable, with up-to-date furnishings. Seems they were renovated no long ago. The kitchen is well-equipped for staying in and cooking. Evening socials are well-run and provide a tasty snack after a long day at work. 
+Best of all about this location? The staff. From Blanca's smiling face at breakfast, to Erin, Linda, Bao and the rest of the gang at the desk and in management, this was the most friendly, professional and accommodating staff we've encountered for a long time (and we stay in a LOT of hotels). It's not just one individual, but the sense of teamwork and camaraderie that make the difference here. Anyone on staff is willing to jump in and help with whatever is needed. They don't just do what's required, but go the extra mile to make guests feel comfortable. Especially in a long-term stay setting like a Residence Inn, this is really important. 
+We were...We had the pleasure of staying at this Residence Inn for two months while on a work assignment. It's in a great location, with easy access to the highway, and not terribly far from downtown when you want to go in for a nice meal or more touristy activities. In the area of the hotel there are great local restaurants, and you don't feel like you're stuck out in the the burbs (even if you are). As for the hotel itself, it's very clean and well-maintained.Rooms are modern and comfortable, with up-to-date furnishings. Seems they were renovated no long ago. The kitchen is well-equipped for staying in and cooking. Evening socials are well-run and provide a tasty snack after a long day at work. Best of all about this location? The staff. From Blanca's smiling face at breakfast, to Erin, Linda, Bao and the rest of the gang at the desk and in management, this was the most friendly, professional and accommodating staff we've encountered for a long time (and we stay in a LOT of hotels). It's not just one individual, but the sense of teamwork and camaraderie that make the difference here. Anyone on staff is willing to jump in and help with whatever is needed. They don't just do what's required, but go the extra mile to make guests feel comfortable. Especially in a long-term stay setting like a Residence Inn, this is really important. We were thoroughly satisfied with our stay here, and hope to return when we are back in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had the pleasure of staying at this Residence Inn for two months while on a work assignment. It's in a great location, with easy access to the highway, and not terribly far from downtown when you want to go in for a nice meal or more touristy activities. 
+In the area of the hotel there are great local restaurants, and you don't feel like you're stuck out in the the burbs (even if you are). As for the hotel itself, it's very clean and well-maintained.Rooms are modern and comfortable, with up-to-date furnishings. Seems they were renovated no long ago. The kitchen is well-equipped for staying in and cooking. Evening socials are well-run and provide a tasty snack after a long day at work. 
+Best of all about this location? The staff. From Blanca's smiling face at breakfast, to Erin, Linda, Bao and the rest of the gang at the desk and in management, this was the most friendly, professional and accommodating staff we've encountered for a long time (and we stay in a LOT of hotels). It's not just one individual, but the sense of teamwork and camaraderie that make the difference here. Anyone on staff is willing to jump in and help with whatever is needed. They don't just do what's required, but go the extra mile to make guests feel comfortable. Especially in a long-term stay setting like a Residence Inn, this is really important. 
+We were...We had the pleasure of staying at this Residence Inn for two months while on a work assignment. It's in a great location, with easy access to the highway, and not terribly far from downtown when you want to go in for a nice meal or more touristy activities. In the area of the hotel there are great local restaurants, and you don't feel like you're stuck out in the the burbs (even if you are). As for the hotel itself, it's very clean and well-maintained.Rooms are modern and comfortable, with up-to-date furnishings. Seems they were renovated no long ago. The kitchen is well-equipped for staying in and cooking. Evening socials are well-run and provide a tasty snack after a long day at work. Best of all about this location? The staff. From Blanca's smiling face at breakfast, to Erin, Linda, Bao and the rest of the gang at the desk and in management, this was the most friendly, professional and accommodating staff we've encountered for a long time (and we stay in a LOT of hotels). It's not just one individual, but the sense of teamwork and camaraderie that make the difference here. Anyone on staff is willing to jump in and help with whatever is needed. They don't just do what's required, but go the extra mile to make guests feel comfortable. Especially in a long-term stay setting like a Residence Inn, this is really important. We were thoroughly satisfied with our stay here, and hope to return when we are back in the area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r167743261-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
   </si>
   <si>
@@ -978,6 +1483,60 @@
     <t>stayed here while on business trip to Texas. Well located within 10 minutes walk from office. lot of eating joints nearby. Suites were spacious with all amenities. reasonably priced accommodation. good complimentary breakfast.. overall a very good experienceMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r160730223-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>160730223</t>
+  </si>
+  <si>
+    <t>05/14/2013</t>
+  </si>
+  <si>
+    <t>Friendliest hotel staff EVER</t>
+  </si>
+  <si>
+    <t>The staff here make the entire experience.  They are the friendliest people I have ever met in any hotel, period.  And it is genuine.  Joe and Linda at the front desk are always there with a smile ready to help.  The lady who cooks the breakfast (my apologies for not knowing her name) is also just as nice as she could be.Hotel is in a convenient location, rooms are clean (and big).  But again, worth staying here simply because the service is the best you could ask for.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded May 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2013</t>
+  </si>
+  <si>
+    <t>The staff here make the entire experience.  They are the friendliest people I have ever met in any hotel, period.  And it is genuine.  Joe and Linda at the front desk are always there with a smile ready to help.  The lady who cooks the breakfast (my apologies for not knowing her name) is also just as nice as she could be.Hotel is in a convenient location, rooms are clean (and big).  But again, worth staying here simply because the service is the best you could ask for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r159645955-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>159645955</t>
+  </si>
+  <si>
+    <t>05/04/2013</t>
+  </si>
+  <si>
+    <t>Terrific Service</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for a wedding. When we departed, my wife left her favorite pillow in the room. We called the hotel and they told us they would hold it until we decided how we would like for them to ship it.  I decided that it wasn't worth the effort to have them send it back to us, so I forgot it. A week later I received a call from the hotel and the lady (would love to give her name but maybe that's not a good idea) encouraged me to get on the USPS web site, get a shipping label and email it to her.  I did that, and a few days later the pillow arrived.Bottom line - this is way over and above the kind of service I would expect from any hotel, so I thought this deserved a mention.  This hotel is very clean, and in a very good location in the greater Houston metro area. The people who run this facility evidently are very proud of their hotel, and it shows.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded May 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2013</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for a wedding. When we departed, my wife left her favorite pillow in the room. We called the hotel and they told us they would hold it until we decided how we would like for them to ship it.  I decided that it wasn't worth the effort to have them send it back to us, so I forgot it. A week later I received a call from the hotel and the lady (would love to give her name but maybe that's not a good idea) encouraged me to get on the USPS web site, get a shipping label and email it to her.  I did that, and a few days later the pillow arrived.Bottom line - this is way over and above the kind of service I would expect from any hotel, so I thought this deserved a mention.  This hotel is very clean, and in a very good location in the greater Houston metro area. The people who run this facility evidently are very proud of their hotel, and it shows.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r159018325-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1017,9 +1576,6 @@
     <t>My son and his bride picked this hotel for friends, family and the wedding party.  There were several written directions to the dinners and rehearsal -- and the staff distributed these to our guests as they arrived.  Their breakfast was always prepared well and ready to go.  I'm not sure how the other reviewer missed all the vegetarian options for breakfasts -- oatmeal, peanut butter, yogurts, fresh fruits; as well as sausage and eggs and salsa and standard stuff.  Our rooms were fine -- great comfy mattresses on the beds; and plenty of pillows and extra bedding for the foldout sofa if needed.  We felt welcome and comfortable.  I would do it all over again with this hotel.  No changes.MoreShow less</t>
   </si>
   <si>
-    <t>April 2013</t>
-  </si>
-  <si>
     <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded April 22, 2013</t>
   </si>
   <si>
@@ -1056,6 +1612,57 @@
     <t>I had a long stay for about 45 days so I chose this one with a kitchen.  The staff were helpful with my requests.  There is no restaurant (as every suite had a kitchen) which can be uncomfortable at times.  Very limited vegetarian options in the breakfast menu (except for breads).  Lot of restaurants nearby but none of them offer vegetarian so Vegetarians like me will have hard time if they are not cooking.  The food and beverage options (breakfast and evening snacks) look limited compared to its Westheimer cousin.Rooms were clean but guess they can use some room freshners as the kitchen is integrated with the suite.  Bed is cozy and linen changed everyday as customary of any Marriott hotel.  This place is near Walmart and Frys which makes it a great candidate for Tech freaks like me.  But you will definitely need a car to move around as this lies outside the city.Overall the experience was good and would recommend this hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r155489563-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>155489563</t>
+  </si>
+  <si>
+    <t>03/24/2013</t>
+  </si>
+  <si>
+    <t>Pretty Good</t>
+  </si>
+  <si>
+    <t>Full time business traveler: This hotel is situated on a frontage road adjacent to a busy freeway (freeway noise was not an issue for me at all - I doubt it would be for anyone). Parking is a little tight, however, I do not think you will be left without a space (this is a populated area and that is to be expected). The hotel itself does not stand out. I'd give it a rating of decent to good across the board. Staff was friendly and check in was easy enough. The room itself was standard RI and was in good shape. I noticed a few spots worn down but nothing of any significant consequence to me. In a moment of comedy, the shower rod fell down on me just after a shower, however, I wasn't upset about it. Just one of those things that can happen and probably has not happened to anyone else (the screws holding up one side had become become loose in the wall). The hotel made good on it even though it was a mostly non issue to me (that was nice of them). My wife had accompanied me on this trip and she lost an earring (frantic over it). The staff went way out of their way to help her find it (WAY out of their way to find it - which they did). Big kudos to them for that. That is something that...Full time business traveler: This hotel is situated on a frontage road adjacent to a busy freeway (freeway noise was not an issue for me at all - I doubt it would be for anyone). Parking is a little tight, however, I do not think you will be left without a space (this is a populated area and that is to be expected). The hotel itself does not stand out. I'd give it a rating of decent to good across the board. Staff was friendly and check in was easy enough. The room itself was standard RI and was in good shape. I noticed a few spots worn down but nothing of any significant consequence to me. In a moment of comedy, the shower rod fell down on me just after a shower, however, I wasn't upset about it. Just one of those things that can happen and probably has not happened to anyone else (the screws holding up one side had become become loose in the wall). The hotel made good on it even though it was a mostly non issue to me (that was nice of them). My wife had accompanied me on this trip and she lost an earring (frantic over it). The staff went way out of their way to help her find it (WAY out of their way to find it - which they did). Big kudos to them for that. That is something that was extraordinarily good of them. There are lots of food options close by as well as a Walmart just down the street. The location definitely does not lack for access to dinner or store items. If you are from out of town, like me, I advise you to have good directions to the hotel well in hand. This is not a knock on the hotel, this is just the layout of this area. I would give this hotel a standard recommend. It is not a place of new, standout accommodations but it is warm and comfortable, staff was good and the price-value is very good in my estimation. From the price-value standpoint, it might be the best in the immediate area. If there was a 3.5 I would give it that rating.... but having to choose either a 3 or a 4, the 3 gets the nod ever so slightly over the 4.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded March 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2013</t>
+  </si>
+  <si>
+    <t>Full time business traveler: This hotel is situated on a frontage road adjacent to a busy freeway (freeway noise was not an issue for me at all - I doubt it would be for anyone). Parking is a little tight, however, I do not think you will be left without a space (this is a populated area and that is to be expected). The hotel itself does not stand out. I'd give it a rating of decent to good across the board. Staff was friendly and check in was easy enough. The room itself was standard RI and was in good shape. I noticed a few spots worn down but nothing of any significant consequence to me. In a moment of comedy, the shower rod fell down on me just after a shower, however, I wasn't upset about it. Just one of those things that can happen and probably has not happened to anyone else (the screws holding up one side had become become loose in the wall). The hotel made good on it even though it was a mostly non issue to me (that was nice of them). My wife had accompanied me on this trip and she lost an earring (frantic over it). The staff went way out of their way to help her find it (WAY out of their way to find it - which they did). Big kudos to them for that. That is something that...Full time business traveler: This hotel is situated on a frontage road adjacent to a busy freeway (freeway noise was not an issue for me at all - I doubt it would be for anyone). Parking is a little tight, however, I do not think you will be left without a space (this is a populated area and that is to be expected). The hotel itself does not stand out. I'd give it a rating of decent to good across the board. Staff was friendly and check in was easy enough. The room itself was standard RI and was in good shape. I noticed a few spots worn down but nothing of any significant consequence to me. In a moment of comedy, the shower rod fell down on me just after a shower, however, I wasn't upset about it. Just one of those things that can happen and probably has not happened to anyone else (the screws holding up one side had become become loose in the wall). The hotel made good on it even though it was a mostly non issue to me (that was nice of them). My wife had accompanied me on this trip and she lost an earring (frantic over it). The staff went way out of their way to help her find it (WAY out of their way to find it - which they did). Big kudos to them for that. That is something that was extraordinarily good of them. There are lots of food options close by as well as a Walmart just down the street. The location definitely does not lack for access to dinner or store items. If you are from out of town, like me, I advise you to have good directions to the hotel well in hand. This is not a knock on the hotel, this is just the layout of this area. I would give this hotel a standard recommend. It is not a place of new, standout accommodations but it is warm and comfortable, staff was good and the price-value is very good in my estimation. From the price-value standpoint, it might be the best in the immediate area. If there was a 3.5 I would give it that rating.... but having to choose either a 3 or a 4, the 3 gets the nod ever so slightly over the 4.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r151257029-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>151257029</t>
+  </si>
+  <si>
+    <t>02/02/2013</t>
+  </si>
+  <si>
+    <t>Great Staff and Great Hotel</t>
+  </si>
+  <si>
+    <t>Upon checking into this hotel, Lee was very accommodating, courteous and professional.  As my check in process was almost complete, a man (claiming to be a guest of the hotel) walked up behind me and demanded Lee stop what he was doing and call someone on the phone.  Politely, Lee indicated he needed just a minute to finish checking me in and then would assist this man with whatever he needed.  Within seconds, the man became belligerent and threatening, yelling he had been a guest at the hotel all week and was now being disrespected because Lee was helping me.   – As if staying at that hotel gave him the right to be rude for NO reason what so ever.  This man’s behavior was COMPLETELY inappropriate.  Had I not been at the hotel for business I would have taunted the man simply because he was acting like a such a fool. Lee maintained a calm demeanor and professionalism at all times.  The assistant manager, Joe, heard the commotion and immediately addressed the issue, bringing the fiasco to a halt.  I’ve seen several situations when people are encouraged to behave as fools because such behavior is usually rewarded with positive results, favoring the fool.  Not in this case.  Lee and Joe couldn’t have handled this situation any better.  Kudos Lee and Joe! :) Adding to the amazing staff is a very nice, well maintained hotel.  The rooms are nice and the...Upon checking into this hotel, Lee was very accommodating, courteous and professional.  As my check in process was almost complete, a man (claiming to be a guest of the hotel) walked up behind me and demanded Lee stop what he was doing and call someone on the phone.  Politely, Lee indicated he needed just a minute to finish checking me in and then would assist this man with whatever he needed.  Within seconds, the man became belligerent and threatening, yelling he had been a guest at the hotel all week and was now being disrespected because Lee was helping me.   – As if staying at that hotel gave him the right to be rude for NO reason what so ever.  This man’s behavior was COMPLETELY inappropriate.  Had I not been at the hotel for business I would have taunted the man simply because he was acting like a such a fool. Lee maintained a calm demeanor and professionalism at all times.  The assistant manager, Joe, heard the commotion and immediately addressed the issue, bringing the fiasco to a halt.  I’ve seen several situations when people are encouraged to behave as fools because such behavior is usually rewarded with positive results, favoring the fool.  Not in this case.  Lee and Joe couldn’t have handled this situation any better.  Kudos Lee and Joe! :) Adding to the amazing staff is a very nice, well maintained hotel.  The rooms are nice and the parking is great.   I’d recommend this hotel to anyone staying in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded February 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2013</t>
+  </si>
+  <si>
+    <t>Upon checking into this hotel, Lee was very accommodating, courteous and professional.  As my check in process was almost complete, a man (claiming to be a guest of the hotel) walked up behind me and demanded Lee stop what he was doing and call someone on the phone.  Politely, Lee indicated he needed just a minute to finish checking me in and then would assist this man with whatever he needed.  Within seconds, the man became belligerent and threatening, yelling he had been a guest at the hotel all week and was now being disrespected because Lee was helping me.   – As if staying at that hotel gave him the right to be rude for NO reason what so ever.  This man’s behavior was COMPLETELY inappropriate.  Had I not been at the hotel for business I would have taunted the man simply because he was acting like a such a fool. Lee maintained a calm demeanor and professionalism at all times.  The assistant manager, Joe, heard the commotion and immediately addressed the issue, bringing the fiasco to a halt.  I’ve seen several situations when people are encouraged to behave as fools because such behavior is usually rewarded with positive results, favoring the fool.  Not in this case.  Lee and Joe couldn’t have handled this situation any better.  Kudos Lee and Joe! :) Adding to the amazing staff is a very nice, well maintained hotel.  The rooms are nice and the...Upon checking into this hotel, Lee was very accommodating, courteous and professional.  As my check in process was almost complete, a man (claiming to be a guest of the hotel) walked up behind me and demanded Lee stop what he was doing and call someone on the phone.  Politely, Lee indicated he needed just a minute to finish checking me in and then would assist this man with whatever he needed.  Within seconds, the man became belligerent and threatening, yelling he had been a guest at the hotel all week and was now being disrespected because Lee was helping me.   – As if staying at that hotel gave him the right to be rude for NO reason what so ever.  This man’s behavior was COMPLETELY inappropriate.  Had I not been at the hotel for business I would have taunted the man simply because he was acting like a such a fool. Lee maintained a calm demeanor and professionalism at all times.  The assistant manager, Joe, heard the commotion and immediately addressed the issue, bringing the fiasco to a halt.  I’ve seen several situations when people are encouraged to behave as fools because such behavior is usually rewarded with positive results, favoring the fool.  Not in this case.  Lee and Joe couldn’t have handled this situation any better.  Kudos Lee and Joe! :) Adding to the amazing staff is a very nice, well maintained hotel.  The rooms are nice and the parking is great.   I’d recommend this hotel to anyone staying in the area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r145461901-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1119,9 +1726,6 @@
     <t>09/26/2012</t>
   </si>
   <si>
-    <t>Excellent</t>
-  </si>
-  <si>
     <t>My Family's stay at The Residence Inn was AWESOME, Erin T. the front desk manager made sure that my family was very comfortable, she was the one I made my reservation with and explained everything to me from the credit card charge to the amenities the Residence Inn would offer my family.  My stay was not a business stay, it was a because we moved into a home that was already in foreclosure which put our family in a very unfortunate situation. Linda the evening desk clerk  was a sweetheart, and the morning cook Blanca.... was always cheerful, always "Good Morning" with a smile and making sure to say "Have a good day" when you're leaving. The room was nice and clean and housekeeping made sure we had everything we needed. I also like the fact that there were so many eatery's and stores close to the Residence Inn. Then to receive the email from Marco, the Manager was the best. Making you feel that you were not just a guest but treating you like you were family. Last but not least, one morning my vehicle did not want to start and Erin and James took the time to try to give me a hand. This place was our home away from home and I would recommend it to anyone.MoreShow less</t>
   </si>
   <si>
@@ -1135,6 +1739,45 @@
   </si>
   <si>
     <t>My Family's stay at The Residence Inn was AWESOME, Erin T. the front desk manager made sure that my family was very comfortable, she was the one I made my reservation with and explained everything to me from the credit card charge to the amenities the Residence Inn would offer my family.  My stay was not a business stay, it was a because we moved into a home that was already in foreclosure which put our family in a very unfortunate situation. Linda the evening desk clerk  was a sweetheart, and the morning cook Blanca.... was always cheerful, always "Good Morning" with a smile and making sure to say "Have a good day" when you're leaving. The room was nice and clean and housekeeping made sure we had everything we needed. I also like the fact that there were so many eatery's and stores close to the Residence Inn. Then to receive the email from Marco, the Manager was the best. Making you feel that you were not just a guest but treating you like you were family. Last but not least, one morning my vehicle did not want to start and Erin and James took the time to try to give me a hand. This place was our home away from home and I would recommend it to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r141353731-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>141353731</t>
+  </si>
+  <si>
+    <t>Business Trip Enjoyed Again</t>
+  </si>
+  <si>
+    <t>My company selected this Residence Inn hotel for me as it was close to a new work venue. Coming from Europe, I usually prefer to select my own accommodation as I had some misgivings that being away from the city centre would be reflected in the service and quality of the hotel. Happily this was one of the best surprises of a tough business trip that was eventually extended from 10 days to 30. Rooms are large, comfortable and airy and as the hotel is close to some great restaurants, it made a great business base to operate from. The Residence Inn staff have an unfailing ability to provide a genuine welcome and excellent service which made my next 10 day business trip to Houston an event to look forward to. A great place to stay and somewhere I shall look forward to visiting again.MoreShow less</t>
+  </si>
+  <si>
+    <t>My company selected this Residence Inn hotel for me as it was close to a new work venue. Coming from Europe, I usually prefer to select my own accommodation as I had some misgivings that being away from the city centre would be reflected in the service and quality of the hotel. Happily this was one of the best surprises of a tough business trip that was eventually extended from 10 days to 30. Rooms are large, comfortable and airy and as the hotel is close to some great restaurants, it made a great business base to operate from. The Residence Inn staff have an unfailing ability to provide a genuine welcome and excellent service which made my next 10 day business trip to Houston an event to look forward to. A great place to stay and somewhere I shall look forward to visiting again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r140759356-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>140759356</t>
+  </si>
+  <si>
+    <t>09/20/2012</t>
+  </si>
+  <si>
+    <t>Home from Home</t>
+  </si>
+  <si>
+    <t>I can't fault the Residence inn, I've been staying here now for 9 months and have truly appreciated the quality of service  that everyone here constantly delivers. The team is professional, courteous and always willing to help to make you feel at home and welcome. The rooms are spacious, comfortable and well equipped with every thing you need, add to this a complimentary breakfast and evening meal,and you get a value package that is second to none.MoreShow less</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded September 21, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2012</t>
+  </si>
+  <si>
+    <t>I can't fault the Residence inn, I've been staying here now for 9 months and have truly appreciated the quality of service  that everyone here constantly delivers. The team is professional, courteous and always willing to help to make you feel at home and welcome. The rooms are spacious, comfortable and well equipped with every thing you need, add to this a complimentary breakfast and evening meal,and you get a value package that is second to none.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r140492413-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
@@ -1157,12 +1800,6 @@
     <t>August 2012</t>
   </si>
   <si>
-    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded September 21, 2012</t>
-  </si>
-  <si>
-    <t>Responded September 21, 2012</t>
-  </si>
-  <si>
     <t>I had stayed here once before, for four days. This time I was there for 38 days. So I had time to judge!
 During this time their service was always consistently wonderful. Wether it was the normal day to day stuff or if it was something in need of a reply/repair/correction...everything was done very quickly, efficiently &amp; without fuss. I had a faulty coffee maker, it was replaced while I was out at my customer on business. I noted the AC was not working properly - fixed by the time I returned from another working day. There was a very bad electrical storm one night and we lost power briefly but it caused their Internet to fail - this took a little longer to correct &amp; we all found gift certificates in our room with a letter of apology. I found each &amp; everyone on their staff to be super friendly, ethusiastic &amp; constantly wanting to make sure I was OK, had everything I needed for a long stay at their residence. The rooms are clean, bright &amp; readily equipped for any type of stay - if you want to save money and cook at "home", then do not worry as the kitchen is very well laid out with a lot of thought gone into the supplies. The dishwasher is super handy, plus the laundry facilities on the second floor make that chore very easy to endure.
 They have renovated...I had stayed here once before, for four days. This time I was there for 38 days. So I had time to judge!During this time their service was always consistently wonderful. Wether it was the normal day to day stuff or if it was something in need of a reply/repair/correction...everything was done very quickly, efficiently &amp; without fuss. I had a faulty coffee maker, it was replaced while I was out at my customer on business. I noted the AC was not working properly - fixed by the time I returned from another working day. There was a very bad electrical storm one night and we lost power briefly but it caused their Internet to fail - this took a little longer to correct &amp; we all found gift certificates in our room with a letter of apology. I found each &amp; everyone on their staff to be super friendly, ethusiastic &amp; constantly wanting to make sure I was OK, had everything I needed for a long stay at their residence. The rooms are clean, bright &amp; readily equipped for any type of stay - if you want to save money and cook at "home", then do not worry as the kitchen is very well laid out with a lot of thought gone into the supplies. The dishwasher is super handy, plus the laundry facilities on the second floor make that chore very easy to endure.They have renovated the outside and are in the process of giving the token swimming pool a make over.It is also conveniently located near the 59 highway, Wal-Mart, and various restaurants.More</t>
@@ -1219,6 +1856,57 @@
     <t>The stay was wonderful. The family has always enjoyed our stay. The staff are Good and thanks for Linda Evans and Erin for their constant and ready assistance. The other staff were equally fantastic. The environment and neighbourhood is encouraging and worth coming again and again. Importantly the meals were readily available and good and families happily eat and discuss. You are all doing good job and please keep it up. Thanks.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r136049497-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>136049497</t>
+  </si>
+  <si>
+    <t>08/02/2012</t>
+  </si>
+  <si>
+    <t>Hot breakfast</t>
+  </si>
+  <si>
+    <t>My family stayed in the hotel from July 26 to July 29.We booked the hotel through price line and got the rate at a  great price.We recommend the hotel for every one . The break fast was excellent. Every one loved the food. Also the room comes with a Sofa roll over bed. Hence we were not required ask for additional bed.Overall excellent experience.Sony JosephMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded August 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2012</t>
+  </si>
+  <si>
+    <t>My family stayed in the hotel from July 26 to July 29.We booked the hotel through price line and got the rate at a  great price.We recommend the hotel for every one . The break fast was excellent. Every one loved the food. Also the room comes with a Sofa roll over bed. Hence we were not required ask for additional bed.Overall excellent experience.Sony JosephMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r135977026-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>135977026</t>
+  </si>
+  <si>
+    <t>08/01/2012</t>
+  </si>
+  <si>
+    <t>Clean Rooms -Solid service - if it is wrong they will make it right</t>
+  </si>
+  <si>
+    <t>The folks at this hotel are always looking to make sure your stay is up-to-par. Even the Service/Maintaince manager will get involved if needed. I was checking in and being serviced by a new employee who was having difficulties getting me checked in and providing points (plat.elite member). The manager overheard my problem and could have just ignored it (not his problem) the manager (believe it was James?) stepped in and took care of it and even made sure i got the right room. That is why i try and only stay at this hotel or the Courtyard which is next door. Excellent location, rooms always clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>Olga1002, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded August 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2012</t>
+  </si>
+  <si>
+    <t>The folks at this hotel are always looking to make sure your stay is up-to-par. Even the Service/Maintaince manager will get involved if needed. I was checking in and being serviced by a new employee who was having difficulties getting me checked in and providing points (plat.elite member). The manager overheard my problem and could have just ignored it (not his problem) the manager (believe it was James?) stepped in and took care of it and even made sure i got the right room. That is why i try and only stay at this hotel or the Courtyard which is next door. Excellent location, rooms always clean.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r133952210-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1234,9 +1922,6 @@
     <t>My family and I stayed here for one night last week.  My son attended a football camp. The location of the hotel was great. They had lots of restaurants and stores in the area. The parking was good.  The check in process went smoothly . I had requested an early check in when making my reservations the night before. I called the hotel prior to our arrival  to ensure that they would be able to accommodate this request. The gentleman whom I spoke with stated sure they could and said we will have your reservation ready when you arrive. When we arrived  maybe 10 minutes later. We were  greeted with a smile and a pleasant professional attitude. I had forgotten to ask for a late checkout since the camp was ending at 12 noon on the following day and my son needed to shower before our trip home. It was a few minutes after noon when when we returned back to the hotel. I explained this to the clerk at the front desk and she stated that was not a problem.  We were able to return to our room and allow our son to shower before returning home. The beds were a little hard but we had plenty of pillows to help with that. The room was clean and towels were in good shape . I would definitely recommend this hotel.MoreShow less</t>
   </si>
   <si>
-    <t>July 2012</t>
-  </si>
-  <si>
     <t>Management response:Responded July 11, 2012</t>
   </si>
   <si>
@@ -1285,6 +1970,67 @@
     <t>We can not say enough about how friendly, helpful and accommodating the staff was.  Their care and concern for our comfort and satisfaction went above and beyond any hotel we have stayed at.  Marco, the general manager, Joe, the assistant manager and all of the supportive staff treated us like family.  We would come back to this hotel in a heart beat if we ever came this way for vacation again.  It most certainly felt like our home away from home.  We highly reccommend anyone to stay at this hotel.  You won't be disappointed.The Bennett FamilyMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r132330971-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>132330971</t>
+  </si>
+  <si>
+    <t>06/19/2012</t>
+  </si>
+  <si>
+    <t>Hosting At It's Best</t>
+  </si>
+  <si>
+    <t>I returned last night from the Sugar Land area. 
+Quick background -  Son (26) has been working at a co. there just under a year.  Daughter 29 flew in from Denver for a short Fathers Day/family reunion.
+I've been on TA for a while and always think I'll write a review upon return.. Life get's in the way quickly though, and when finally ready to post observations seem obsolete.
+We were here 4 days/4 nights.  One bedroom suite w/ pullout sofa, effeciency kitchen with all the necessities.  Don't expect 'plush' in terms of marble slash eccoutrements if that is what you would prefer. We didn't and weren't looking or paying for that in the roome we stayed in. Expect an extremely pleasant &amp; suitible habitat to spend your time 'and come home to' while there.  We might have booked a two bedroom but we're pretty close so, perfect for us.
+There is something to be said about graciously hosting with (seemingly) no effort. That is this hotel.  A ton of effort has to go on behind the scenes but the end result is seamless. It looked like full occuipancy, but  is well laid out -  there are plenty of places to congregate.  The pool, basketball court, excercise room - all common and private areas are kept pristine.  
+Great base to take off from for the day after breakfast which is hot, cold. and has everything! I'm not good with names,...I returned last night from the Sugar Land area. Quick background -  Son (26) has been working at a co. there just under a year.  Daughter 29 flew in from Denver for a short Fathers Day/family reunion.I've been on TA for a while and always think I'll write a review upon return.. Life get's in the way quickly though, and when finally ready to post observations seem obsolete.We were here 4 days/4 nights.  One bedroom suite w/ pullout sofa, effeciency kitchen with all the necessities.  Don't expect 'plush' in terms of marble slash eccoutrements if that is what you would prefer. We didn't and weren't looking or paying for that in the roome we stayed in. Expect an extremely pleasant &amp; suitible habitat to spend your time 'and come home to' while there.  We might have booked a two bedroom but we're pretty close so, perfect for us.There is something to be said about graciously hosting with (seemingly) no effort. That is this hotel.  A ton of effort has to go on behind the scenes but the end result is seamless. It looked like full occuipancy, but  is well laid out -  there are plenty of places to congregate.  The pool, basketball court, excercise room - all common and private areas are kept pristine.  Great base to take off from for the day after breakfast which is hot, cold. and has everything! I'm not good with names, but the kitchen staff will spoil you without expecting it.and with no expectations.The staff are genuine, not perfunctory.  Always a warm greeting in, out, and there.  This is something you sense immediately.  They are happy where they work.  It does translate.We left for Galveston, Houston, Clear Lake etc. and the location is close to a main artery (59) so it was a great location either NE or SE.   If you're not out &amp; about, two minutes down the street is Pappadeux Seafood and a place called Dimassi's (Mediterranean) both very good.  Complementary newspaper &amp; wifi in room and computers next to breakfast area are there for you to print anything.  We'll be back as long as our son is there. Disclaimer,  I don't work this brand nor do I have any affiliation whatsoever with them. ;)Also, they're green.  Just put the "we're all set" sign up.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2012</t>
+  </si>
+  <si>
+    <t>I returned last night from the Sugar Land area. 
+Quick background -  Son (26) has been working at a co. there just under a year.  Daughter 29 flew in from Denver for a short Fathers Day/family reunion.
+I've been on TA for a while and always think I'll write a review upon return.. Life get's in the way quickly though, and when finally ready to post observations seem obsolete.
+We were here 4 days/4 nights.  One bedroom suite w/ pullout sofa, effeciency kitchen with all the necessities.  Don't expect 'plush' in terms of marble slash eccoutrements if that is what you would prefer. We didn't and weren't looking or paying for that in the roome we stayed in. Expect an extremely pleasant &amp; suitible habitat to spend your time 'and come home to' while there.  We might have booked a two bedroom but we're pretty close so, perfect for us.
+There is something to be said about graciously hosting with (seemingly) no effort. That is this hotel.  A ton of effort has to go on behind the scenes but the end result is seamless. It looked like full occuipancy, but  is well laid out -  there are plenty of places to congregate.  The pool, basketball court, excercise room - all common and private areas are kept pristine.  
+Great base to take off from for the day after breakfast which is hot, cold. and has everything! I'm not good with names,...I returned last night from the Sugar Land area. Quick background -  Son (26) has been working at a co. there just under a year.  Daughter 29 flew in from Denver for a short Fathers Day/family reunion.I've been on TA for a while and always think I'll write a review upon return.. Life get's in the way quickly though, and when finally ready to post observations seem obsolete.We were here 4 days/4 nights.  One bedroom suite w/ pullout sofa, effeciency kitchen with all the necessities.  Don't expect 'plush' in terms of marble slash eccoutrements if that is what you would prefer. We didn't and weren't looking or paying for that in the roome we stayed in. Expect an extremely pleasant &amp; suitible habitat to spend your time 'and come home to' while there.  We might have booked a two bedroom but we're pretty close so, perfect for us.There is something to be said about graciously hosting with (seemingly) no effort. That is this hotel.  A ton of effort has to go on behind the scenes but the end result is seamless. It looked like full occuipancy, but  is well laid out -  there are plenty of places to congregate.  The pool, basketball court, excercise room - all common and private areas are kept pristine.  Great base to take off from for the day after breakfast which is hot, cold. and has everything! I'm not good with names, but the kitchen staff will spoil you without expecting it.and with no expectations.The staff are genuine, not perfunctory.  Always a warm greeting in, out, and there.  This is something you sense immediately.  They are happy where they work.  It does translate.We left for Galveston, Houston, Clear Lake etc. and the location is close to a main artery (59) so it was a great location either NE or SE.   If you're not out &amp; about, two minutes down the street is Pappadeux Seafood and a place called Dimassi's (Mediterranean) both very good.  Complementary newspaper &amp; wifi in room and computers next to breakfast area are there for you to print anything.  We'll be back as long as our son is there. Disclaimer,  I don't work this brand nor do I have any affiliation whatsoever with them. ;)Also, they're green.  Just put the "we're all set" sign up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r131937658-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>131937658</t>
+  </si>
+  <si>
+    <t>06/13/2012</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised - definitely should stay here!</t>
+  </si>
+  <si>
+    <t>I stayed here with my three young sons and it was fantastic! We are a local family and just needed a hotel room while we are doing construction on our home. The staff was SO helpful and friendly. Brandy at the front desk was fantastic - Joe, the asst manager, Blanca, at the breakfast buffet, etc. I was only there 48 hours but felt like I knew the staff in such a short time. It was immaculate, and if I ever needed a local hotel again, I'd definitely stay here. The amenities in the room are great. Very surprised by the quality of the hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>Vernon01, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded June 15, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2012</t>
+  </si>
+  <si>
+    <t>I stayed here with my three young sons and it was fantastic! We are a local family and just needed a hotel room while we are doing construction on our home. The staff was SO helpful and friendly. Brandy at the front desk was fantastic - Joe, the asst manager, Blanca, at the breakfast buffet, etc. I was only there 48 hours but felt like I knew the staff in such a short time. It was immaculate, and if I ever needed a local hotel again, I'd definitely stay here. The amenities in the room are great. Very surprised by the quality of the hotel!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r128253693-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1358,6 +2104,57 @@
   </si>
   <si>
     <t>I had an extended stay from January 18 until March 16.  The rooms are great for the size, but the cleaning is not so great.  I have to write about the cooking staff. Blanca Barrios &amp; Rosa of your cooking staff made me feel at home during my stay there. They always greeted me by name, and made sure that I had everything that I needed. These ladies need to be commented on their committment to make sure that your stay at the Residence is a pleasent one.  All hats off to themMary M.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r125885455-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>125885455</t>
+  </si>
+  <si>
+    <t>03/10/2012</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay in the Sugar Land/Stafford Area</t>
+  </si>
+  <si>
+    <t>I was in Sugar Land on business two weeks ago.  Based on Tripadvisor reviews, I made a reservation at the Residence Inn.  Two of my colleagues, who had previously stayed at the Marriott Courtyard there (sister property, they share a parking lot) also stayed at the Residence Inn.  All three of us were extremely pleased with our stay; my colleagues said it was head and shoulders better than the Courtyard, especially for an extended stay.  The staff could not have been sweeter.  My first night was less than optimal due to a mechanical noise (I was in room 115, next to the mechanical room).  When I complained in the morning, they offered to either investigate the noise or move me.  When I opted for the move, it occurred seamlessly.The breakfasts were among the best "free" breakfasts I have had at a hotel such as this.  Blanca, the lady who monitors the breakfast area, was an absolute sweetheart who went out of her way to be helpful.I will stay here again when back in the area on business.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>Vernon01, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded March 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2012</t>
+  </si>
+  <si>
+    <t>I was in Sugar Land on business two weeks ago.  Based on Tripadvisor reviews, I made a reservation at the Residence Inn.  Two of my colleagues, who had previously stayed at the Marriott Courtyard there (sister property, they share a parking lot) also stayed at the Residence Inn.  All three of us were extremely pleased with our stay; my colleagues said it was head and shoulders better than the Courtyard, especially for an extended stay.  The staff could not have been sweeter.  My first night was less than optimal due to a mechanical noise (I was in room 115, next to the mechanical room).  When I complained in the morning, they offered to either investigate the noise or move me.  When I opted for the move, it occurred seamlessly.The breakfasts were among the best "free" breakfasts I have had at a hotel such as this.  Blanca, the lady who monitors the breakfast area, was an absolute sweetheart who went out of her way to be helpful.I will stay here again when back in the area on business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r125374330-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>125374330</t>
+  </si>
+  <si>
+    <t>02/28/2012</t>
+  </si>
+  <si>
+    <t>Excellent - stayed here 13 Months</t>
+  </si>
+  <si>
+    <t>Thank you for making Residence Inn Sugar Land my home away from home for the last 13 months. Being on the road more than at home over that time, it really matters where I stay and I really enjoyed the home-like amenities such as the full kitchen, separate bedroom, nice (free) hot breakfasts, free wifi, cleaniness of the facilitites, and friendliness of the staff.  Even the construction in Dec 2011 related to the renovation was handled well and I thought that, overall, the effort was a success, especially when comparing the old interior room layout/furniture vs the new (especially liked the flat screen TVs and modern stainless steel appliances) - well done.I'll be sure to book my stays again with this hotel when my business takes me here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Vernon01, Director of Sales at Residence Inn Houston Sugar Land, responded to this reviewResponded March 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2012</t>
+  </si>
+  <si>
+    <t>Thank you for making Residence Inn Sugar Land my home away from home for the last 13 months. Being on the road more than at home over that time, it really matters where I stay and I really enjoyed the home-like amenities such as the full kitchen, separate bedroom, nice (free) hot breakfasts, free wifi, cleaniness of the facilitites, and friendliness of the staff.  Even the construction in Dec 2011 related to the renovation was handled well and I thought that, overall, the effort was a success, especially when comparing the old interior room layout/furniture vs the new (especially liked the flat screen TVs and modern stainless steel appliances) - well done.I'll be sure to book my stays again with this hotel when my business takes me here.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r122400293-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
@@ -1429,6 +2226,42 @@
 The pool and the spa were nicely kept, there were some bugs in water, but this was due to the seasonal drought.  mosquitoes just came out that week very hard everywhere, just one of those things in Houston. There was no outside shower by the pool for a quick rinse before getting in, so it...Stayed at this hotel for work the October 24-28th, 2011.  Upon check in the staff was very friendly and accommodating.  The room and the hotel in general was very clean and organized.  They have great breakfast options from healthy cereals, yogurts and fruits to yummy eggs, sausages, waffles and many more options. Every morning I was greet by a friendly lady at the breakfast area who asked me for the morning beverage of my choice. coffee and oj was my daily answer.  Every day during the week they have a food menu between 6 and 7:30pm.  The meals were very very good, pretty much homemade, some of them were even cooked on the grilled outside.  Very nice and the staff was very friendly as well! The gym has two treadmills, both very new and nice, each with a small tv in front of it and a sound adapter so you can hook up your headset and watch the program of your choice.  The gym also a stepper and some weights.  Just enough for a nice work out to keep in shape while away from home.  The pool and the spa were nicely kept, there were some bugs in water, but this was due to the seasonal drought.  mosquitoes just came out that week very hard everywhere, just one of those things in Houston. There was no outside shower by the pool for a quick rinse before getting in, so it was a little disappointing.  I didn't play any basketball but the court outside just by the pool area seemed quite nice.Would definitely recommend to friends and family.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r118514585-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>118514585</t>
+  </si>
+  <si>
+    <t>09/23/2011</t>
+  </si>
+  <si>
+    <t>Good people, good location, needs upgrade</t>
+  </si>
+  <si>
+    <t>Very friendly staff, check-in process was great, breakfast was good. Room smelled musty. Has mold growing on the matting of a picture, worn carpet, black on walls and ceilings around air ducts. I am a big fan of Marriott properties in general - and have stayed at this one dozens of times - but it is timje for a cleanup.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r118455591-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>118455591</t>
+  </si>
+  <si>
+    <t>09/22/2011</t>
+  </si>
+  <si>
+    <t>one of the better ones i've been in lately</t>
+  </si>
+  <si>
+    <t>I'm platinum with Marriott so I prefer to rack up points, and that was honestly my only reason for picking this one.  There were hotels closer, and my business pays for it, but I figured why not.Wow, lucky call.  This place was great!  It was like staying in a nice small apartment.  One that you dont have to clean or cook for yourself in - although the kitchen is still there.Only bad thing at ALL I can say is the gym was small, but at least it had a great bench and some dumbbells.  the cardio gear was still in really good shape.i can be picky, but there's nothing at all bad to be said of this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm platinum with Marriott so I prefer to rack up points, and that was honestly my only reason for picking this one.  There were hotels closer, and my business pays for it, but I figured why not.Wow, lucky call.  This place was great!  It was like staying in a nice small apartment.  One that you dont have to clean or cook for yourself in - although the kitchen is still there.Only bad thing at ALL I can say is the gym was small, but at least it had a great bench and some dumbbells.  the cardio gear was still in really good shape.i can be picky, but there's nothing at all bad to be said of this one.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r118153884-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1444,9 +2277,6 @@
     <t>We stayed at this hotel for a family wedding, too. (Hi, Jack!) Hotel staff was amazingly attentive! Every time we asked for something it was at our door in 2 minutes. Very helpful with directions, getting clothes steamed and ready for the big day etc. Breakfast was hot and plentiful. Weekday happy hour was appreciated :)  As has been mentioned, hotel not new but it was clean and seemed well cared for. The beds, however, did tend to make your back ache by morning.</t>
   </si>
   <si>
-    <t>September 2011</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r117864896-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1489,6 +2319,45 @@
     <t>We stayed at this hotel for 4 nights and it was okay but not really up to the Marriott standards we are accustomed to.  Our room was clean enough but very old looking and the bed actually made us sore after a few sleeps.  The pool water was clean but the pool itself needed a good scrubbing and almost appeared to be moldy?  Some of the rooms appeared to have been redone, you can see in while the made is cleaning and we obviously got a room that had yet to be done.  The ice machine in the fridge didn't work and when you are in Texas in July believe me you need ice!  The staff was friendly and helpful as per Marriott standards and the food in the buffet breakfast was nice, they had a waffle maker that made Texas shapped waffles LOL  Other than the need for a facelift and a pool cleaner it was fine.   Just so you know, Stafford county still allows folks to smoke inside the restaurants which was a shocker for us coming from Canada where you cannot smoke anywhere!  Just an FYIMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r113743453-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>113743453</t>
+  </si>
+  <si>
+    <t>06/15/2011</t>
+  </si>
+  <si>
+    <t>Nicest hotel I've stayed at</t>
+  </si>
+  <si>
+    <t>Friendliest staff ever.  After getting laid over in Charlotte, we arrived late at the hotel.  The staff gave us extra water and even let us grab snacks from the breakfast buffet even after it had already been closed.  Additionally, after arriving at the room, we found extra bottles of water with a handwritten note asking if there was anything else they could do.  The room itself was perfectly clean, well stocked with coffee and other amenities, and the bed was one of the most comfortable I've slept in.  I would absolutely recommend this hotel.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r81728105-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>81728105</t>
+  </si>
+  <si>
+    <t>10/01/2010</t>
+  </si>
+  <si>
+    <t>Best hotel service you will find at a budget price</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 2 weeks for training and found it wonderful.  The hotel itself is very simple-rooms are pretty plain, it has a small workout facility and small pool, but this hotel takes pride in its service.  There is a wondeful free breakfast every morning and also a free dinner every evening.  EVERYONE who works at this hotel is kind, friendly, and goes out of their way for you.  I got the stomach flu during my stay and the workers went out of their way to offer me sprite and also saltine crackers.  Everytime someone there helps you out, when you say thank you, their response is "My pleasure" or " No problem."  You feel so taken care of here.   I would stay here again without a doubt if I come back to the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 2 weeks for training and found it wonderful.  The hotel itself is very simple-rooms are pretty plain, it has a small workout facility and small pool, but this hotel takes pride in its service.  There is a wondeful free breakfast every morning and also a free dinner every evening.  EVERYONE who works at this hotel is kind, friendly, and goes out of their way for you.  I got the stomach flu during my stay and the workers went out of their way to offer me sprite and also saltine crackers.  Everytime someone there helps you out, when you say thank you, their response is "My pleasure" or " No problem."  You feel so taken care of here.   I would stay here again without a doubt if I come back to the area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r80867210-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1504,9 +2373,6 @@
     <t>Labor Day weekend - Walked in to the room only to visually see a bed bug roaming on the top of the sheets. Dirty stained tub, morning breakfast was just bad. Took forever to clean the rooms. Went to the pool with the kids and the pool had dirt and leaves floating all over it. Wi-Fi couldnt have been any slower.Employee at the desk was very kind and did what she could but the place is just a low end place to stay. Dont want to think this is the norm and we caught this place at a bad few days.. But wont be back.</t>
   </si>
   <si>
-    <t>September 2010</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r73388098-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1541,6 +2407,42 @@
   </si>
   <si>
     <t>May 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r57664345-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>57664345</t>
+  </si>
+  <si>
+    <t>03/03/2010</t>
+  </si>
+  <si>
+    <t>An excellent hotel</t>
+  </si>
+  <si>
+    <t>This is a really excellent hotel. Staff are very friendly. Everywhere is spotless. Suites are spacious with fully-equipped kitchens. There's a free reception every weeknight. The breakfast is a lot better than the typical free buffet. And there's a pappadeaux restaurant two minutes walk away.</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r34425809-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>34425809</t>
+  </si>
+  <si>
+    <t>07/10/2009</t>
+  </si>
+  <si>
+    <t>very freindly place</t>
+  </si>
+  <si>
+    <t>stayed here for 9 nights and have to say the staff here are great very freindly and helpfull . only drawback is the pool is not the greatest and cleanest also very hot water .the area around the hotel is good lots of place to eat out and 5 min drive to the local mall if im in the area again i will be back</t>
+  </si>
+  <si>
+    <t>July 2009</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r31738179-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
@@ -1600,6 +2502,42 @@
   </si>
   <si>
     <t>November 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r7694644-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>7694644</t>
+  </si>
+  <si>
+    <t>05/23/2007</t>
+  </si>
+  <si>
+    <t>Great experience-- staff, room, extras all wonderful</t>
+  </si>
+  <si>
+    <t>(Writing for experience of my senior in-laws.)  Our son/nephew booked us at this Residence for a week in May 2007.  The staff was wonderfully friendly. The well-equipped rooms made for a nice base for all the auto traveling we had to do and was laid out well for one of us who has lessened mobility.  The daily breakfasts and weekday happy hours provided great food and variety.  And if that weren't satisfactory or you needed other meals, the rooms kitchen facilities in the room allowed you to prepare basic meals.It was a great stay.</t>
+  </si>
+  <si>
+    <t>May 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d224129-r5456595-Residence_Inn_Houston_Sugar_Land-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>5456595</t>
+  </si>
+  <si>
+    <t>07/10/2006</t>
+  </si>
+  <si>
+    <t>Loved it</t>
+  </si>
+  <si>
+    <t>I visited the Residence on July 1 and July 2.  I was looking for  a clean quiet hotel and this was it.  I had reservtions at a nearby hotel, Country Inn and Suites but I wasn't too happy with the lighting in the rooms so I cancelled it.  The service was wonderful and the staff was very accomodating.  All rooms have queen beds and it felt like a home away from home.   The rooms were clean and the bed was very comfortable. They provide the guests with fresh popped popcorn like you would get at the movies along with lemon flavored orange and lemon water.  The hotel was very quiet and is family friendly. There is a pool and a basketball court.  They also provide you with a full kitchen with utensils and a garbage disposal.  If you wanted to go shopping and save some money by cooking, the kitchen was fabulous.  You are surrounded by restaurants and shopping which can be very tempting.  They also provide a full breakfast in the morning which consists of sausage, fresh fruit, waffles, cereal, yogurt, milk, juices, panckes, eggs, breads, and tea/coffee/ hot chocolate.  I travel a lot and I was very very pleased with the hotel premises and I would stay here again with no hesitation.  I would also like to say that the staff was very helpful and gave excellent customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>I visited the Residence on July 1 and July 2.  I was looking for  a clean quiet hotel and this was it.  I had reservtions at a nearby hotel, Country Inn and Suites but I wasn't too happy with the lighting in the rooms so I cancelled it.  The service was wonderful and the staff was very accomodating.  All rooms have queen beds and it felt like a home away from home.   The rooms were clean and the bed was very comfortable. They provide the guests with fresh popped popcorn like you would get at the movies along with lemon flavored orange and lemon water.  The hotel was very quiet and is family friendly. There is a pool and a basketball court.  They also provide you with a full kitchen with utensils and a garbage disposal.  If you wanted to go shopping and save some money by cooking, the kitchen was fabulous.  You are surrounded by restaurants and shopping which can be very tempting.  They also provide a full breakfast in the morning which consists of sausage, fresh fruit, waffles, cereal, yogurt, milk, juices, panckes, eggs, breads, and tea/coffee/ hot chocolate.  I travel a lot and I was very very pleased with the hotel premises and I would stay here again with no hesitation.  I would also like to say that the staff was very helpful and gave excellent customer service.More</t>
   </si>
 </sst>
 </file>
@@ -2134,7 +3072,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2144,23 +3082,17 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>2</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -2176,56 +3108,54 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
-        <v>59</v>
-      </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
         <v>53</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>61</v>
-      </c>
-      <c r="X3" t="s">
-        <v>62</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -2241,52 +3171,54 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>69</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>70</v>
-      </c>
-      <c r="X4" t="s">
-        <v>71</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -2302,56 +3234,56 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>78</v>
-      </c>
       <c r="O5" t="s">
-        <v>79</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -2367,7 +3299,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -2376,49 +3308,43 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>4</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="X6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -2434,39 +3360,39 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
         <v>90</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>91</v>
-      </c>
-      <c r="J7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>88</v>
       </c>
       <c r="O7" t="s">
         <v>53</v>
       </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
@@ -2477,13 +3403,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="X7" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -2499,58 +3425,52 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>96</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>97</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>98</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>99</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
         <v>100</v>
       </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>88</v>
-      </c>
       <c r="O8" t="s">
-        <v>101</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>102</v>
-      </c>
-      <c r="X8" t="s">
-        <v>103</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
@@ -2566,52 +3486,56 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
         <v>105</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>106</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>107</v>
       </c>
-      <c r="K9" t="s">
-        <v>108</v>
-      </c>
-      <c r="L9" t="s">
-        <v>109</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>88</v>
-      </c>
       <c r="O9" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>108</v>
+      </c>
+      <c r="X9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y9" t="s">
         <v>110</v>
-      </c>
-      <c r="X9" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="10">
@@ -2627,52 +3551,58 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" t="s">
         <v>113</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>114</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>115</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
         <v>116</v>
       </c>
-      <c r="L10" t="s">
-        <v>117</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>118</v>
-      </c>
       <c r="O10" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="X10" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="Y10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
@@ -2688,58 +3618,56 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
         <v>122</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
-        <v>123</v>
-      </c>
-      <c r="J11" t="s">
-        <v>124</v>
-      </c>
-      <c r="K11" t="s">
-        <v>125</v>
-      </c>
-      <c r="L11" t="s">
-        <v>126</v>
-      </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>79</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>3</v>
-      </c>
-      <c r="R11" t="n">
-        <v>4</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="X11" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="Y11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
@@ -2755,7 +3683,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2764,43 +3692,43 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="O12" t="s">
         <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>137</v>
-      </c>
-      <c r="X12" t="s">
-        <v>138</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
@@ -2816,7 +3744,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2825,43 +3753,47 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="X13" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="Y13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
@@ -2877,7 +3809,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2886,43 +3818,49 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="O14" t="s">
-        <v>79</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="X14" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="Y14" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
@@ -2938,7 +3876,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2947,49 +3885,43 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="J15" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="O15" t="s">
         <v>53</v>
       </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
+        <v>153</v>
+      </c>
+      <c r="X15" t="s">
         <v>154</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>155</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="16">
@@ -3005,7 +3937,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -3014,25 +3946,25 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="O16" t="s">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3044,13 +3976,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="X16" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="Y16" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
@@ -3066,7 +3998,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3075,25 +4007,25 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3104,10 +4036,14 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>169</v>
+      </c>
+      <c r="X17" t="s">
+        <v>170</v>
+      </c>
       <c r="Y17" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
@@ -3123,58 +4059,56 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
         <v>177</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
-        <v>178</v>
-      </c>
-      <c r="J18" t="s">
-        <v>179</v>
-      </c>
-      <c r="K18" t="s">
-        <v>180</v>
-      </c>
-      <c r="L18" t="s">
-        <v>181</v>
-      </c>
-      <c r="M18" t="n">
-        <v>3</v>
-      </c>
-      <c r="N18" t="s">
-        <v>182</v>
-      </c>
       <c r="O18" t="s">
-        <v>79</v>
-      </c>
-      <c r="P18" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4</v>
-      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="X18" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="Y18" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
@@ -3190,56 +4124,58 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>182</v>
+      </c>
+      <c r="J19" t="s">
+        <v>183</v>
+      </c>
+      <c r="K19" t="s">
         <v>184</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
         <v>185</v>
       </c>
-      <c r="J19" t="s">
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
         <v>186</v>
-      </c>
-      <c r="K19" t="s">
-        <v>187</v>
-      </c>
-      <c r="L19" t="s">
-        <v>188</v>
-      </c>
-      <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="s">
-        <v>189</v>
       </c>
       <c r="O19" t="s">
         <v>53</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
         <v>3</v>
       </c>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="X19" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="Y19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20">
@@ -3255,58 +4191,52 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
         <v>191</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>192</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>193</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>194</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
         <v>195</v>
       </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>196</v>
-      </c>
       <c r="O20" t="s">
-        <v>197</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
+        <v>196</v>
+      </c>
+      <c r="X20" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y20" t="s">
         <v>198</v>
-      </c>
-      <c r="X20" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="21">
@@ -3322,58 +4252,52 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>200</v>
+      </c>
+      <c r="J21" t="s">
         <v>201</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>202</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>203</v>
       </c>
-      <c r="K21" t="s">
-        <v>204</v>
-      </c>
-      <c r="L21" t="s">
-        <v>205</v>
-      </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
+      <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="X21" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Y21" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22">
@@ -3389,58 +4313,54 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>208</v>
+      </c>
+      <c r="J22" t="s">
+        <v>209</v>
+      </c>
+      <c r="K22" t="s">
         <v>210</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="L22" t="s">
         <v>211</v>
       </c>
-      <c r="J22" t="s">
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>195</v>
+      </c>
+      <c r="O22" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
         <v>212</v>
       </c>
-      <c r="K22" t="s">
+      <c r="X22" t="s">
         <v>213</v>
       </c>
-      <c r="L22" t="s">
+      <c r="Y22" t="s">
         <v>214</v>
-      </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>215</v>
-      </c>
-      <c r="O22" t="s">
-        <v>197</v>
-      </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
-      <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="s">
-        <v>216</v>
-      </c>
-      <c r="X22" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="23">
@@ -3456,52 +4376,58 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>215</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>216</v>
+      </c>
+      <c r="J23" t="s">
+        <v>217</v>
+      </c>
+      <c r="K23" t="s">
+        <v>218</v>
+      </c>
+      <c r="L23" t="s">
         <v>219</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
         <v>220</v>
-      </c>
-      <c r="J23" t="s">
-        <v>221</v>
-      </c>
-      <c r="K23" t="s">
-        <v>222</v>
-      </c>
-      <c r="L23" t="s">
-        <v>223</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="s">
-        <v>224</v>
       </c>
       <c r="O23" t="s">
         <v>53</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
       <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="X23" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Y23" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24">
@@ -3517,34 +4443,34 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>224</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>225</v>
+      </c>
+      <c r="J24" t="s">
+        <v>226</v>
+      </c>
+      <c r="K24" t="s">
+        <v>227</v>
+      </c>
+      <c r="L24" t="s">
         <v>228</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
         <v>229</v>
       </c>
-      <c r="J24" t="s">
-        <v>230</v>
-      </c>
-      <c r="K24" t="s">
-        <v>231</v>
-      </c>
-      <c r="L24" t="s">
-        <v>232</v>
-      </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>233</v>
-      </c>
       <c r="O24" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3556,13 +4482,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="X24" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="Y24" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25">
@@ -3578,7 +4504,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3587,35 +4513,31 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="J25" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K25" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L25" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="O25" t="s">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
       </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
       <c r="S25" t="n">
         <v>5</v>
       </c>
@@ -3627,13 +4549,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="X25" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="Y25" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26">
@@ -3649,62 +4571,52 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>238</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>239</v>
+      </c>
+      <c r="J26" t="s">
+        <v>240</v>
+      </c>
+      <c r="K26" t="s">
+        <v>241</v>
+      </c>
+      <c r="L26" t="s">
+        <v>242</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>236</v>
+      </c>
+      <c r="O26" t="s">
+        <v>243</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>221</v>
+      </c>
+      <c r="X26" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y26" t="s">
         <v>244</v>
-      </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
-        <v>245</v>
-      </c>
-      <c r="J26" t="s">
-        <v>246</v>
-      </c>
-      <c r="K26" t="s">
-        <v>247</v>
-      </c>
-      <c r="L26" t="s">
-        <v>248</v>
-      </c>
-      <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>249</v>
-      </c>
-      <c r="O26" t="s">
-        <v>79</v>
-      </c>
-      <c r="P26" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>4</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>4</v>
-      </c>
-      <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>4</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="s">
-        <v>250</v>
-      </c>
-      <c r="X26" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="27">
@@ -3720,7 +4632,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3729,45 +4641,43 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="J27" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="K27" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="O27" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="X27" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="Y27" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28">
@@ -3783,7 +4693,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3792,53 +4702,45 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="J28" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="K28" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="L28" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="O28" t="s">
         <v>53</v>
       </c>
-      <c r="P28" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1</v>
-      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
       <c r="R28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>268</v>
-      </c>
-      <c r="X28" t="s">
-        <v>269</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29">
@@ -3854,7 +4756,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3863,53 +4765,39 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="J29" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="K29" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="L29" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="O29" t="s">
-        <v>79</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>277</v>
-      </c>
-      <c r="X29" t="s">
-        <v>278</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30">
@@ -3925,7 +4813,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3934,53 +4822,49 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="J30" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="K30" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="L30" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="O30" t="s">
-        <v>79</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
       <c r="R30" t="n">
         <v>5</v>
       </c>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>277</v>
+        <v>221</v>
       </c>
       <c r="X30" t="s">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="Y30" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31">
@@ -3996,7 +4880,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -4005,53 +4889,47 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="J31" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="K31" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="L31" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="O31" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>291</v>
+        <v>221</v>
       </c>
       <c r="X31" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="Y31" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32">
@@ -4067,7 +4945,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -4076,53 +4954,47 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="J32" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="K32" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P32" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>3</v>
-      </c>
-      <c r="R32" t="n">
-        <v>3</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>299</v>
+        <v>221</v>
       </c>
       <c r="X32" t="s">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="Y32" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33">
@@ -4138,7 +5010,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4147,53 +5019,39 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="J33" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="K33" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="L33" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>308</v>
-      </c>
-      <c r="X33" t="s">
-        <v>309</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34">
@@ -4209,7 +5067,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4218,25 +5076,25 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="J34" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="K34" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>297</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4244,27 +5102,23 @@
       <c r="Q34" t="n">
         <v>5</v>
       </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>4</v>
-      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="X34" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="Y34" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35">
@@ -4280,7 +5134,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4289,34 +5143,34 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="J35" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="K35" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="L35" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
+      <c r="N35" t="s">
+        <v>306</v>
+      </c>
+      <c r="O35" t="s">
+        <v>66</v>
+      </c>
       <c r="P35" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
       <c r="R35" t="n">
         <v>5</v>
       </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
         <v>5</v>
@@ -4325,13 +5179,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="X35" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="Y35" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36">
@@ -4347,7 +5201,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4356,35 +5210,31 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="J36" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="K36" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="L36" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="O36" t="s">
-        <v>79</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="n">
         <v>5</v>
       </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
+      <c r="R36" t="s"/>
       <c r="S36" t="n">
         <v>5</v>
       </c>
@@ -4396,13 +5246,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="X36" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="Y36" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37">
@@ -4418,7 +5268,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4427,22 +5277,22 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="J37" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="K37" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="L37" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="O37" t="s">
         <v>53</v>
@@ -4450,14 +5300,10 @@
       <c r="P37" t="n">
         <v>4</v>
       </c>
-      <c r="Q37" t="n">
-        <v>4</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
@@ -4467,13 +5313,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="X37" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="Y37" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38">
@@ -4489,7 +5335,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4498,37 +5344,33 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="J38" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="K38" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="L38" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
-      <c r="N38" t="s">
-        <v>351</v>
-      </c>
-      <c r="O38" t="s">
-        <v>53</v>
-      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
       <c r="P38" t="n">
         <v>5</v>
       </c>
       <c r="Q38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
@@ -4538,13 +5380,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="X38" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="Y38" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39">
@@ -4560,7 +5402,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4569,53 +5411,43 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="J39" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="K39" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="L39" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="O39" t="s">
-        <v>79</v>
-      </c>
-      <c r="P39" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>3</v>
-      </c>
-      <c r="R39" t="n">
-        <v>4</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="X39" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="Y39" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40">
@@ -4631,7 +5463,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4640,53 +5472,43 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="J40" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="K40" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="L40" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="O40" t="s">
-        <v>79</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="X40" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="Y40" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41">
@@ -4702,7 +5524,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4711,34 +5533,34 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="J41" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="K41" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="L41" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>243</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
       </c>
       <c r="Q41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -4751,13 +5573,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="X41" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="Y41" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42">
@@ -4773,7 +5595,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4782,53 +5604,49 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="J42" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="K42" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="L42" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
-      </c>
-      <c r="N42" t="s">
-        <v>387</v>
-      </c>
-      <c r="O42" t="s">
-        <v>79</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
       <c r="P42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="X42" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="Y42" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43">
@@ -4844,7 +5662,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4853,37 +5671,37 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="J43" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="K43" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="L43" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="O43" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="P43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q43" t="n">
         <v>4</v>
       </c>
       <c r="R43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
@@ -4893,13 +5711,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="X43" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="Y43" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44">
@@ -4915,7 +5733,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4924,53 +5742,53 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="J44" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="K44" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="L44" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="O44" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="P44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R44" t="n">
         <v>5</v>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="X44" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="Y44" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
     </row>
     <row r="45">
@@ -4986,7 +5804,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4995,38 +5813,30 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="J45" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="K45" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="L45" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="O45" t="s">
-        <v>79</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
         <v>5</v>
@@ -5035,13 +5845,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="X45" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="Y45" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
     </row>
     <row r="46">
@@ -5057,7 +5867,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -5066,53 +5876,53 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="J46" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="K46" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="L46" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="O46" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="P46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="X46" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="Y46" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47">
@@ -5128,7 +5938,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -5137,28 +5947,28 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="J47" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="K47" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="L47" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="O47" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="P47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q47" t="n">
         <v>4</v>
@@ -5167,23 +5977,23 @@
         <v>5</v>
       </c>
       <c r="S47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="X47" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="Y47" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48">
@@ -5199,7 +6009,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5208,37 +6018,37 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="J48" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="K48" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="L48" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="O48" t="s">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
       </c>
       <c r="Q48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
@@ -5248,13 +6058,13 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="X48" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="Y48" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="49">
@@ -5270,7 +6080,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5279,53 +6089,53 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="J49" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="K49" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="L49" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="O49" t="s">
-        <v>197</v>
+        <v>53</v>
       </c>
       <c r="P49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="X49" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="Y49" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
     </row>
     <row r="50">
@@ -5341,7 +6151,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5350,31 +6160,31 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="J50" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K50" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="L50" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="M50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>451</v>
+        <v>410</v>
       </c>
       <c r="O50" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
       </c>
       <c r="Q50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R50" t="n">
         <v>5</v>
@@ -5390,13 +6200,13 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="X50" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="Y50" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51">
@@ -5412,7 +6222,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5421,31 +6231,31 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="J51" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="K51" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="L51" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>460</v>
+        <v>383</v>
       </c>
       <c r="O51" t="s">
         <v>53</v>
       </c>
       <c r="P51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R51" t="n">
         <v>5</v>
@@ -5460,10 +6270,14 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>441</v>
+      </c>
+      <c r="X51" t="s">
+        <v>442</v>
+      </c>
       <c r="Y51" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52">
@@ -5479,7 +6293,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5488,34 +6302,34 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="J52" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="K52" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="L52" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>460</v>
+        <v>383</v>
       </c>
       <c r="O52" t="s">
         <v>53</v>
       </c>
       <c r="P52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q52" t="n">
         <v>4</v>
       </c>
       <c r="R52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S52" t="n">
         <v>4</v>
@@ -5527,10 +6341,14 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>441</v>
+      </c>
+      <c r="X52" t="s">
+        <v>442</v>
+      </c>
       <c r="Y52" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
     </row>
     <row r="53">
@@ -5546,7 +6364,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5555,30 +6373,38 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="J53" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="K53" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="L53" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>472</v>
+        <v>383</v>
       </c>
       <c r="O53" t="s">
-        <v>79</v>
-      </c>
-      <c r="P53" t="s"/>
-      <c r="Q53" t="s"/>
-      <c r="R53" t="s"/>
-      <c r="S53" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
         <v>5</v>
@@ -5586,10 +6412,14 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>441</v>
+      </c>
+      <c r="X53" t="s">
+        <v>442</v>
+      </c>
       <c r="Y53" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
     </row>
     <row r="54">
@@ -5605,7 +6435,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5614,45 +6444,53 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="J54" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="K54" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="L54" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>472</v>
+        <v>383</v>
       </c>
       <c r="O54" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="P54" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q54" t="s"/>
-      <c r="R54" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>460</v>
+      </c>
+      <c r="X54" t="s">
+        <v>461</v>
+      </c>
       <c r="Y54" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
     </row>
     <row r="55">
@@ -5668,7 +6506,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5677,49 +6515,53 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="J55" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="K55" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="L55" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="M55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="O55" t="s">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="P55" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q55" t="s"/>
-      <c r="R55" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
       <c r="S55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="X55" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="Y55" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56">
@@ -5735,7 +6577,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5744,49 +6586,53 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="J56" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="K56" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="L56" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="M56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="O56" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="P56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>478</v>
+      </c>
+      <c r="X56" t="s">
+        <v>479</v>
+      </c>
       <c r="Y56" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
     </row>
     <row r="57">
@@ -5802,7 +6648,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5811,49 +6657,53 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="J57" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="K57" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="L57" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="O57" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="P57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>487</v>
+      </c>
+      <c r="X57" t="s">
+        <v>488</v>
+      </c>
       <c r="Y57" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="58">
@@ -5869,7 +6719,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5878,49 +6728,53 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="J58" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="K58" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="L58" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="M58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>243</v>
       </c>
       <c r="P58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>496</v>
+      </c>
+      <c r="X58" t="s">
+        <v>497</v>
+      </c>
       <c r="Y58" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="59">
@@ -5936,7 +6790,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5945,49 +6799,49 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="J59" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="K59" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="L59" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="M59" t="n">
-        <v>3</v>
-      </c>
-      <c r="N59" t="s">
-        <v>510</v>
-      </c>
-      <c r="O59" t="s">
-        <v>53</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
       <c r="P59" t="n">
         <v>3</v>
       </c>
       <c r="Q59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
+      <c r="W59" t="s">
+        <v>504</v>
+      </c>
+      <c r="X59" t="s">
+        <v>505</v>
+      </c>
       <c r="Y59" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="60">
@@ -6003,46 +6857,46 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
+        <v>507</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>508</v>
+      </c>
+      <c r="J60" t="s">
+        <v>509</v>
+      </c>
+      <c r="K60" t="s">
+        <v>510</v>
+      </c>
+      <c r="L60" t="s">
         <v>511</v>
       </c>
-      <c r="G60" t="s">
-        <v>46</v>
-      </c>
-      <c r="H60" t="s">
-        <v>47</v>
-      </c>
-      <c r="I60" t="s">
-        <v>512</v>
-      </c>
-      <c r="J60" t="s">
-        <v>513</v>
-      </c>
-      <c r="K60" t="s">
-        <v>514</v>
-      </c>
-      <c r="L60" t="s">
-        <v>515</v>
-      </c>
       <c r="M60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="O60" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="P60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R60" t="n">
         <v>5</v>
       </c>
       <c r="S60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
@@ -6051,10 +6905,14 @@
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
+      <c r="W60" t="s">
+        <v>512</v>
+      </c>
+      <c r="X60" t="s">
+        <v>513</v>
+      </c>
       <c r="Y60" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="61">
@@ -6070,34 +6928,34 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
+        <v>515</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>516</v>
+      </c>
+      <c r="J61" t="s">
+        <v>517</v>
+      </c>
+      <c r="K61" t="s">
         <v>518</v>
       </c>
-      <c r="G61" t="s">
-        <v>46</v>
-      </c>
-      <c r="H61" t="s">
-        <v>47</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="L61" t="s">
         <v>519</v>
       </c>
-      <c r="J61" t="s">
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
         <v>520</v>
       </c>
-      <c r="K61" t="s">
-        <v>521</v>
-      </c>
-      <c r="L61" t="s">
-        <v>522</v>
-      </c>
-      <c r="M61" t="n">
-        <v>5</v>
-      </c>
-      <c r="N61" t="s">
-        <v>523</v>
-      </c>
       <c r="O61" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -6106,7 +6964,7 @@
         <v>4</v>
       </c>
       <c r="R61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S61" t="n">
         <v>4</v>
@@ -6118,10 +6976,2888 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>521</v>
+      </c>
+      <c r="X61" t="s">
+        <v>522</v>
+      </c>
       <c r="Y61" t="s">
-        <v>522</v>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>524</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>525</v>
+      </c>
+      <c r="J62" t="s">
+        <v>526</v>
+      </c>
+      <c r="K62" t="s">
+        <v>527</v>
+      </c>
+      <c r="L62" t="s">
+        <v>528</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>529</v>
+      </c>
+      <c r="O62" t="s">
+        <v>66</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>530</v>
+      </c>
+      <c r="X62" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>533</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>534</v>
+      </c>
+      <c r="J63" t="s">
+        <v>535</v>
+      </c>
+      <c r="K63" t="s">
+        <v>536</v>
+      </c>
+      <c r="L63" t="s">
+        <v>537</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>520</v>
+      </c>
+      <c r="O63" t="s">
+        <v>66</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>538</v>
+      </c>
+      <c r="X63" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>541</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>542</v>
+      </c>
+      <c r="J64" t="s">
+        <v>543</v>
+      </c>
+      <c r="K64" t="s">
+        <v>544</v>
+      </c>
+      <c r="L64" t="s">
+        <v>545</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>546</v>
+      </c>
+      <c r="O64" t="s">
+        <v>66</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>547</v>
+      </c>
+      <c r="X64" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>550</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>551</v>
+      </c>
+      <c r="J65" t="s">
+        <v>552</v>
+      </c>
+      <c r="K65" t="s">
+        <v>553</v>
+      </c>
+      <c r="L65" t="s">
+        <v>554</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>555</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>556</v>
+      </c>
+      <c r="X65" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>559</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>560</v>
+      </c>
+      <c r="J66" t="s">
+        <v>561</v>
+      </c>
+      <c r="K66" t="s">
+        <v>447</v>
+      </c>
+      <c r="L66" t="s">
+        <v>562</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>563</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>564</v>
+      </c>
+      <c r="X66" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>567</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>568</v>
+      </c>
+      <c r="J67" t="s">
+        <v>561</v>
+      </c>
+      <c r="K67" t="s">
+        <v>569</v>
+      </c>
+      <c r="L67" t="s">
+        <v>570</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>563</v>
+      </c>
+      <c r="O67" t="s">
+        <v>66</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>564</v>
+      </c>
+      <c r="X67" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>572</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>573</v>
+      </c>
+      <c r="J68" t="s">
+        <v>574</v>
+      </c>
+      <c r="K68" t="s">
+        <v>575</v>
+      </c>
+      <c r="L68" t="s">
+        <v>576</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>563</v>
+      </c>
+      <c r="O68" t="s">
+        <v>66</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>577</v>
+      </c>
+      <c r="X68" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>580</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>581</v>
+      </c>
+      <c r="J69" t="s">
+        <v>582</v>
+      </c>
+      <c r="K69" t="s">
+        <v>583</v>
+      </c>
+      <c r="L69" t="s">
+        <v>584</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>585</v>
+      </c>
+      <c r="O69" t="s">
+        <v>66</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>577</v>
+      </c>
+      <c r="X69" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>587</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>588</v>
+      </c>
+      <c r="J70" t="s">
+        <v>589</v>
+      </c>
+      <c r="K70" t="s">
+        <v>590</v>
+      </c>
+      <c r="L70" t="s">
+        <v>591</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>592</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>593</v>
+      </c>
+      <c r="X70" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>596</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>597</v>
+      </c>
+      <c r="J71" t="s">
+        <v>598</v>
+      </c>
+      <c r="K71" t="s">
+        <v>599</v>
+      </c>
+      <c r="L71" t="s">
+        <v>600</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>585</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>601</v>
+      </c>
+      <c r="X71" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>604</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>605</v>
+      </c>
+      <c r="J72" t="s">
+        <v>606</v>
+      </c>
+      <c r="K72" t="s">
+        <v>607</v>
+      </c>
+      <c r="L72" t="s">
+        <v>608</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>609</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>610</v>
+      </c>
+      <c r="X72" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>613</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>614</v>
+      </c>
+      <c r="J73" t="s">
+        <v>615</v>
+      </c>
+      <c r="K73" t="s">
+        <v>616</v>
+      </c>
+      <c r="L73" t="s">
+        <v>617</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>609</v>
+      </c>
+      <c r="O73" t="s">
+        <v>66</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>618</v>
+      </c>
+      <c r="X73" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>621</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>622</v>
+      </c>
+      <c r="J74" t="s">
+        <v>623</v>
+      </c>
+      <c r="K74" t="s">
+        <v>624</v>
+      </c>
+      <c r="L74" t="s">
+        <v>625</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>609</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>626</v>
+      </c>
+      <c r="X74" t="s">
+        <v>627</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>629</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>630</v>
+      </c>
+      <c r="J75" t="s">
+        <v>623</v>
+      </c>
+      <c r="K75" t="s">
+        <v>631</v>
+      </c>
+      <c r="L75" t="s">
+        <v>632</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>609</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>626</v>
+      </c>
+      <c r="X75" t="s">
+        <v>627</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>634</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>635</v>
+      </c>
+      <c r="J76" t="s">
+        <v>636</v>
+      </c>
+      <c r="K76" t="s">
+        <v>637</v>
+      </c>
+      <c r="L76" t="s">
+        <v>638</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>609</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>639</v>
+      </c>
+      <c r="X76" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>642</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>643</v>
+      </c>
+      <c r="J77" t="s">
+        <v>644</v>
+      </c>
+      <c r="K77" t="s">
+        <v>645</v>
+      </c>
+      <c r="L77" t="s">
+        <v>646</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>647</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>648</v>
+      </c>
+      <c r="X77" t="s">
+        <v>649</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>651</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>652</v>
+      </c>
+      <c r="J78" t="s">
+        <v>653</v>
+      </c>
+      <c r="K78" t="s">
+        <v>654</v>
+      </c>
+      <c r="L78" t="s">
+        <v>655</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>647</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>656</v>
+      </c>
+      <c r="X78" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>659</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>660</v>
+      </c>
+      <c r="J79" t="s">
+        <v>661</v>
+      </c>
+      <c r="K79" t="s">
+        <v>662</v>
+      </c>
+      <c r="L79" t="s">
+        <v>663</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>664</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>665</v>
+      </c>
+      <c r="X79" t="s">
+        <v>666</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>668</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>669</v>
+      </c>
+      <c r="J80" t="s">
+        <v>670</v>
+      </c>
+      <c r="K80" t="s">
+        <v>671</v>
+      </c>
+      <c r="L80" t="s">
+        <v>672</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>664</v>
+      </c>
+      <c r="O80" t="s">
+        <v>243</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>673</v>
+      </c>
+      <c r="X80" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>676</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>677</v>
+      </c>
+      <c r="J81" t="s">
+        <v>678</v>
+      </c>
+      <c r="K81" t="s">
+        <v>679</v>
+      </c>
+      <c r="L81" t="s">
+        <v>680</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>664</v>
+      </c>
+      <c r="O81" t="s">
+        <v>297</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>681</v>
+      </c>
+      <c r="X81" t="s">
+        <v>682</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>684</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>685</v>
+      </c>
+      <c r="J82" t="s">
+        <v>686</v>
+      </c>
+      <c r="K82" t="s">
+        <v>687</v>
+      </c>
+      <c r="L82" t="s">
+        <v>688</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>689</v>
+      </c>
+      <c r="O82" t="s">
+        <v>66</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>690</v>
+      </c>
+      <c r="X82" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>693</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>694</v>
+      </c>
+      <c r="J83" t="s">
+        <v>695</v>
+      </c>
+      <c r="K83" t="s">
+        <v>696</v>
+      </c>
+      <c r="L83" t="s">
+        <v>697</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>689</v>
+      </c>
+      <c r="O83" t="s">
+        <v>66</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>698</v>
+      </c>
+      <c r="X83" t="s">
+        <v>699</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>701</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>702</v>
+      </c>
+      <c r="J84" t="s">
+        <v>703</v>
+      </c>
+      <c r="K84" t="s">
+        <v>704</v>
+      </c>
+      <c r="L84" t="s">
+        <v>705</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>706</v>
+      </c>
+      <c r="O84" t="s">
+        <v>144</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>707</v>
+      </c>
+      <c r="X84" t="s">
+        <v>708</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>710</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>711</v>
+      </c>
+      <c r="J85" t="s">
+        <v>712</v>
+      </c>
+      <c r="K85" t="s">
+        <v>713</v>
+      </c>
+      <c r="L85" t="s">
+        <v>714</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>715</v>
+      </c>
+      <c r="O85" t="s">
+        <v>66</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>716</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>717</v>
+      </c>
+      <c r="J86" t="s">
+        <v>718</v>
+      </c>
+      <c r="K86" t="s">
+        <v>719</v>
+      </c>
+      <c r="L86" t="s">
+        <v>720</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>715</v>
+      </c>
+      <c r="O86" t="s">
+        <v>66</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>722</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>723</v>
+      </c>
+      <c r="J87" t="s">
+        <v>724</v>
+      </c>
+      <c r="K87" t="s">
+        <v>725</v>
+      </c>
+      <c r="L87" t="s">
+        <v>726</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>727</v>
+      </c>
+      <c r="O87" t="s">
+        <v>66</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>2</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>2</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>728</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>729</v>
+      </c>
+      <c r="J88" t="s">
+        <v>730</v>
+      </c>
+      <c r="K88" t="s">
+        <v>731</v>
+      </c>
+      <c r="L88" t="s">
+        <v>732</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>727</v>
+      </c>
+      <c r="O88" t="s">
+        <v>66</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>734</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>735</v>
+      </c>
+      <c r="J89" t="s">
+        <v>736</v>
+      </c>
+      <c r="K89" t="s">
+        <v>737</v>
+      </c>
+      <c r="L89" t="s">
+        <v>738</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>727</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>739</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>740</v>
+      </c>
+      <c r="J90" t="s">
+        <v>741</v>
+      </c>
+      <c r="K90" t="s">
+        <v>742</v>
+      </c>
+      <c r="L90" t="s">
+        <v>743</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>727</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>744</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>745</v>
+      </c>
+      <c r="J91" t="s">
+        <v>746</v>
+      </c>
+      <c r="K91" t="s">
+        <v>747</v>
+      </c>
+      <c r="L91" t="s">
+        <v>748</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="s">
+        <v>749</v>
+      </c>
+      <c r="O91" t="s">
+        <v>243</v>
+      </c>
+      <c r="P91" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>2</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>750</v>
+      </c>
+      <c r="X91" t="s">
+        <v>751</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>753</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>754</v>
+      </c>
+      <c r="J92" t="s">
+        <v>755</v>
+      </c>
+      <c r="K92" t="s">
+        <v>756</v>
+      </c>
+      <c r="L92" t="s">
+        <v>757</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>758</v>
+      </c>
+      <c r="O92" t="s">
+        <v>144</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>759</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>760</v>
+      </c>
+      <c r="J93" t="s">
+        <v>761</v>
+      </c>
+      <c r="K93" t="s">
+        <v>762</v>
+      </c>
+      <c r="L93" t="s">
+        <v>763</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>764</v>
+      </c>
+      <c r="O93" t="s">
+        <v>66</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>766</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>767</v>
+      </c>
+      <c r="J94" t="s">
+        <v>768</v>
+      </c>
+      <c r="K94" t="s">
+        <v>769</v>
+      </c>
+      <c r="L94" t="s">
+        <v>770</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="s">
+        <v>764</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>2</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>771</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>772</v>
+      </c>
+      <c r="J95" t="s">
+        <v>773</v>
+      </c>
+      <c r="K95" t="s">
+        <v>774</v>
+      </c>
+      <c r="L95" t="s">
+        <v>775</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>776</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>777</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>778</v>
+      </c>
+      <c r="J96" t="s">
+        <v>779</v>
+      </c>
+      <c r="K96" t="s">
+        <v>780</v>
+      </c>
+      <c r="L96" t="s">
+        <v>781</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>782</v>
+      </c>
+      <c r="O96" t="s">
+        <v>66</v>
+      </c>
+      <c r="P96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>783</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>784</v>
+      </c>
+      <c r="J97" t="s">
+        <v>785</v>
+      </c>
+      <c r="K97" t="s">
+        <v>786</v>
+      </c>
+      <c r="L97" t="s">
+        <v>787</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>788</v>
+      </c>
+      <c r="O97" t="s">
+        <v>66</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>789</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>790</v>
+      </c>
+      <c r="J98" t="s">
+        <v>791</v>
+      </c>
+      <c r="K98" t="s">
+        <v>792</v>
+      </c>
+      <c r="L98" t="s">
+        <v>793</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>794</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>795</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>796</v>
+      </c>
+      <c r="J99" t="s">
+        <v>797</v>
+      </c>
+      <c r="K99" t="s">
+        <v>798</v>
+      </c>
+      <c r="L99" t="s">
+        <v>799</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N99" t="s">
+        <v>800</v>
+      </c>
+      <c r="O99" t="s">
+        <v>66</v>
+      </c>
+      <c r="P99" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>3</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>3</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>801</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>802</v>
+      </c>
+      <c r="J100" t="s">
+        <v>803</v>
+      </c>
+      <c r="K100" t="s">
+        <v>804</v>
+      </c>
+      <c r="L100" t="s">
+        <v>805</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>806</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>808</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>809</v>
+      </c>
+      <c r="J101" t="s">
+        <v>810</v>
+      </c>
+      <c r="K101" t="s">
+        <v>811</v>
+      </c>
+      <c r="L101" t="s">
+        <v>812</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>813</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>814</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>815</v>
+      </c>
+      <c r="J102" t="s">
+        <v>816</v>
+      </c>
+      <c r="K102" t="s">
+        <v>817</v>
+      </c>
+      <c r="L102" t="s">
+        <v>818</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>819</v>
+      </c>
+      <c r="O102" t="s">
+        <v>53</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>820</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>821</v>
+      </c>
+      <c r="J103" t="s">
+        <v>822</v>
+      </c>
+      <c r="K103" t="s">
+        <v>823</v>
+      </c>
+      <c r="L103" t="s">
+        <v>824</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s"/>
+      <c r="O103" t="s"/>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="s"/>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>825</v>
       </c>
     </row>
   </sheetData>
